--- a/Bot_screening/correlation.xlsx
+++ b/Bot_screening/correlation.xlsx
@@ -477,12 +477,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>ripple</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ripple</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -498,223 +498,223 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3588927774862672</v>
+        <v>0.3347276281545201</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8180411302471682</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8710817171148656</v>
+        <v>-0.998485803379483</v>
       </c>
       <c r="F2" t="n">
-        <v>1.989130950673117</v>
+        <v>-0.7591963399247146</v>
       </c>
       <c r="G2" t="n">
         <v>-1</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2852520880129226</v>
+        <v>-0.3708805448826741</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8174832039608152</v>
+        <v>-0.7182598828266793</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3051725216229448</v>
+        <v>0.329693983977981</v>
       </c>
       <c r="K2" t="n">
-        <v>2.812878852257569</v>
+        <v>1.249565521564594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08728662200221803</v>
+        <v>0.5663835326339063</v>
       </c>
       <c r="D3" t="n">
         <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.013030811599958</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7213085191880166</v>
+        <v>-0.4491192622160226</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9730233937773972</v>
+        <v>-1</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.290733645129098</v>
+        <v>0.1189413924176802</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5800665665759893</v>
+        <v>0.5182890457867533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2170516419272841</v>
+        <v>0.5140003965507199</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7620011316656453</v>
+        <v>0.3872089747513092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5663835326339063</v>
+        <v>2.439499444527764</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-1.003848286446325</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4491192622160226</v>
+        <v>0.02785428587696061</v>
       </c>
       <c r="G4" t="n">
-        <v>-1</v>
+        <v>-1.216885477154323</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5182890457867533</v>
+        <v>0.3005265642412925</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1189413924176802</v>
+        <v>0.7233996580738042</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5140003965507199</v>
+        <v>0.3480056208222438</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3872089747513092</v>
+        <v>2.872870756341862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.439499444527764</v>
+        <v>0.6177808690255379</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.003848286446325</v>
+        <v>-1.004615248843157</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-1.03401438397407</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02785428587696061</v>
+        <v>-1.122794779459527</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.216885477154323</v>
+        <v>-1.033783621531911</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7233996580738042</v>
+        <v>-0.646738122174017</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3005265642412925</v>
+        <v>-0.7523542407950966</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3480056208222438</v>
+        <v>1.153634010467608</v>
       </c>
       <c r="K5" t="n">
-        <v>2.872870756341862</v>
+        <v>-2.353161964485982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6177808690255379</v>
+        <v>3.406652427755102</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.004615248843157</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.03401438397407</v>
+        <v>-2.228995538443294</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.122794779459527</v>
+        <v>-3.421127529043298</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.033783621531911</v>
+        <v>-0.8538647142988285</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.7523542407950966</v>
+        <v>-7.403187282051323</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.646738122174017</v>
+        <v>0.3704768852221876</v>
       </c>
       <c r="J6" t="n">
-        <v>1.153634010467608</v>
+        <v>2.279580427915934</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.353161964485982</v>
+        <v>5.325686832042503</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.406652427755102</v>
+        <v>1.842211083576082</v>
       </c>
       <c r="D7" t="n">
         <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.228995538443294</v>
+        <v>-1</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.421127529043298</v>
+        <v>-0.7521637708165091</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8538647142988285</v>
+        <v>-0.9292297166892991</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3704768852221876</v>
+        <v>-0.3282015246135956</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.403187282051323</v>
+        <v>2.256300637166398</v>
       </c>
       <c r="J7" t="n">
-        <v>2.279580427915934</v>
+        <v>3.496265916212682</v>
       </c>
       <c r="K7" t="n">
-        <v>5.325686832042503</v>
+        <v>-0.8929529026018798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.842211083576082</v>
+        <v>2.580229989822237</v>
       </c>
       <c r="D8" t="n">
         <v>-1</v>
@@ -723,33 +723,33 @@
         <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7521637708165091</v>
+        <v>1.373210348983618</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9292297166892991</v>
+        <v>-1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.256300637166398</v>
+        <v>-1.206127526617662</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3282015246135956</v>
+        <v>-3.75550241621478</v>
       </c>
       <c r="J8" t="n">
-        <v>3.496265916212682</v>
+        <v>3.363920145033541</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.8929529026018798</v>
+        <v>5.115802273544364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2.580229989822237</v>
+        <v>1.504715626190854</v>
       </c>
       <c r="D9" t="n">
         <v>-1</v>
@@ -758,348 +758,348 @@
         <v>-1</v>
       </c>
       <c r="F9" t="n">
-        <v>1.373210348983618</v>
+        <v>-0.7396241317340134</v>
       </c>
       <c r="G9" t="n">
         <v>-1</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.75550241621478</v>
+        <v>1.912466267395957</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.206127526617662</v>
+        <v>1.336769811251976</v>
       </c>
       <c r="J9" t="n">
-        <v>3.363920145033541</v>
+        <v>2.743975281793704</v>
       </c>
       <c r="K9" t="n">
-        <v>5.115802273544364</v>
+        <v>1.164467534568431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.504715626190854</v>
+        <v>0.3557951604305785</v>
       </c>
       <c r="D10" t="n">
         <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>-1</v>
+        <v>-0.9661402886512506</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7396241317340134</v>
+        <v>0.4009431948855561</v>
       </c>
       <c r="G10" t="n">
-        <v>-1</v>
+        <v>-0.6538409321937547</v>
       </c>
       <c r="H10" t="n">
-        <v>1.336769811251976</v>
+        <v>-0.9181934766978933</v>
       </c>
       <c r="I10" t="n">
-        <v>1.912466267395957</v>
+        <v>-1.317202453889554</v>
       </c>
       <c r="J10" t="n">
-        <v>2.743975281793704</v>
+        <v>1.052166178521591</v>
       </c>
       <c r="K10" t="n">
-        <v>1.164467534568431</v>
+        <v>-0.4721718220402626</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3557951604305785</v>
+        <v>-0.3493480933411094</v>
       </c>
       <c r="D11" t="n">
         <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9661402886512506</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4009431948855561</v>
+        <v>-0.113048456370309</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6538409321937547</v>
+        <v>-1</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.317202453889554</v>
+        <v>-1.482094813239377</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9181934766978933</v>
+        <v>0.9529344026279107</v>
       </c>
       <c r="J11" t="n">
-        <v>1.052166178521591</v>
+        <v>1.134838649104895</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.4721718220402626</v>
+        <v>1.290790950721509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3493480933411094</v>
+        <v>-17.38643511365984</v>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>0.6974339439449682</v>
       </c>
       <c r="E12" t="n">
-        <v>-1</v>
+        <v>-1.50684981924193</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.113048456370309</v>
+        <v>21.35318887889001</v>
       </c>
       <c r="G12" t="n">
         <v>-1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9529344026279107</v>
+        <v>9.613714896813168</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.482094813239377</v>
+        <v>24.27166700282406</v>
       </c>
       <c r="J12" t="n">
-        <v>1.134838649104895</v>
+        <v>7.755431615760426</v>
       </c>
       <c r="K12" t="n">
-        <v>1.290790950721509</v>
+        <v>9.235979507099051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-17.38643511365984</v>
+        <v>0.07182946629507683</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6974339439449682</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.50684981924193</v>
+        <v>-1.002459396999817</v>
       </c>
       <c r="F13" t="n">
-        <v>21.35318887889001</v>
+        <v>-0.3137476012172053</v>
       </c>
       <c r="G13" t="n">
-        <v>-1</v>
+        <v>-1.009737700108099</v>
       </c>
       <c r="H13" t="n">
-        <v>24.27166700282406</v>
+        <v>0.1979516449373755</v>
       </c>
       <c r="I13" t="n">
-        <v>9.613714896813168</v>
+        <v>0.4001310478555686</v>
       </c>
       <c r="J13" t="n">
-        <v>7.755431615760426</v>
+        <v>0.03969682276691847</v>
       </c>
       <c r="K13" t="n">
-        <v>9.235979507099051</v>
+        <v>0.2605346817380879</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07182946629507683</v>
+        <v>7.093562642850708</v>
       </c>
       <c r="D14" t="n">
         <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.002459396999817</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3137476012172053</v>
+        <v>1.018916478382335</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.009737700108099</v>
+        <v>-0.9222199119266031</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4001310478555686</v>
+        <v>0.8605713498406516</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1979516449373755</v>
+        <v>4.900282768426139</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03969682276691847</v>
+        <v>4.002828378026852</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2605346817380879</v>
+        <v>2.79639606710775</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>7.093562642850708</v>
+        <v>0.5708347656348998</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-0.9965650581183695</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>-0.9702022668214413</v>
       </c>
       <c r="F15" t="n">
-        <v>1.018916478382335</v>
+        <v>1.857973302001843</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.9222199119266031</v>
+        <v>-1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.900282768426139</v>
+        <v>-0.01828439981603385</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8605713498406516</v>
+        <v>1.34599443546372</v>
       </c>
       <c r="J15" t="n">
-        <v>4.002828378026852</v>
+        <v>1.386451942795941</v>
       </c>
       <c r="K15" t="n">
-        <v>2.79639606710775</v>
+        <v>0.680251303779754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5708347656348998</v>
+        <v>0.7930527782615641</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9965650581183695</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9702022668214413</v>
+        <v>-1.01247428964044</v>
       </c>
       <c r="F16" t="n">
-        <v>1.857973302001843</v>
+        <v>-0.271351547833475</v>
       </c>
       <c r="G16" t="n">
-        <v>-1</v>
+        <v>-0.8483519749421524</v>
       </c>
       <c r="H16" t="n">
-        <v>1.34599443546372</v>
+        <v>0.2711831224757774</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01828439981603385</v>
+        <v>0.8010554006067262</v>
       </c>
       <c r="J16" t="n">
-        <v>1.386451942795941</v>
+        <v>1.54903645392441</v>
       </c>
       <c r="K16" t="n">
-        <v>0.680251303779754</v>
+        <v>0.4873779841139315</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7930527782615641</v>
+        <v>1.553897911160715</v>
       </c>
       <c r="D17" t="n">
         <v>-1</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.01247428964044</v>
+        <v>-1.045945165766393</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.271351547833475</v>
+        <v>-0.5459832130735258</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8483519749421524</v>
+        <v>-1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8010554006067262</v>
+        <v>0.3150234949132837</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2711831224757774</v>
+        <v>0.07646887553552671</v>
       </c>
       <c r="J17" t="n">
-        <v>1.54903645392441</v>
+        <v>0.1938343926459315</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4873779841139315</v>
+        <v>1.4948227335873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1.553897911160715</v>
+        <v>0.6760245499330867</v>
       </c>
       <c r="D18" t="n">
         <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.045945165766393</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5459832130735258</v>
+        <v>-1.072577873573307</v>
       </c>
       <c r="G18" t="n">
         <v>-1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07646887553552671</v>
+        <v>-0.2254990028970178</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3150234949132837</v>
+        <v>-0.3074984866650995</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1938343926459315</v>
+        <v>0.7454905578412521</v>
       </c>
       <c r="K18" t="n">
-        <v>1.4948227335873</v>
+        <v>0.0151526016278579</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6760245499330867</v>
+        <v>-2.226252406890069</v>
       </c>
       <c r="D19" t="n">
         <v>-1</v>
@@ -1108,33 +1108,33 @@
         <v>-1</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.072577873573307</v>
+        <v>-1.783573586938949</v>
       </c>
       <c r="G19" t="n">
         <v>-1</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3074984866650995</v>
+        <v>-0.4305916218935319</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2254990028970178</v>
+        <v>-0.9767483865732541</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7454905578412521</v>
+        <v>0.02586844363957861</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0151526016278579</v>
+        <v>1.176488303683986</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.226252406890069</v>
+        <v>1.056872289430486</v>
       </c>
       <c r="D20" t="n">
         <v>-1</v>
@@ -1143,348 +1143,348 @@
         <v>-1</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.783573586938949</v>
+        <v>0.343212637543868</v>
       </c>
       <c r="G20" t="n">
         <v>-1</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.9767483865732541</v>
+        <v>-0.1966202771200968</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.4305916218935319</v>
+        <v>0.1457270014357791</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02586844363957861</v>
+        <v>0.8537729983577181</v>
       </c>
       <c r="K20" t="n">
-        <v>1.176488303683986</v>
+        <v>0.5108596544767</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1.056872289430486</v>
+        <v>0.7447545595670189</v>
       </c>
       <c r="D21" t="n">
-        <v>-1</v>
+        <v>-1.000353162969686</v>
       </c>
       <c r="E21" t="n">
-        <v>-1</v>
+        <v>-0.9994699321639933</v>
       </c>
       <c r="F21" t="n">
-        <v>0.343212637543868</v>
+        <v>-0.1424242657032674</v>
       </c>
       <c r="G21" t="n">
-        <v>-1</v>
+        <v>-0.9957037166740248</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1457270014357791</v>
+        <v>-0.497125676871547</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1966202771200968</v>
+        <v>-0.9385055924429726</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8537729983577181</v>
+        <v>0.7204887724212452</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5108596544767</v>
+        <v>-0.5033485548840178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7447545595670189</v>
+        <v>58.36234144067808</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.000353162969686</v>
+        <v>1.396297292901451</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9994699321639933</v>
+        <v>2.216103642050449</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1424242657032674</v>
+        <v>96.303128455497</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.9957037166740248</v>
+        <v>-1</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.9385055924429726</v>
+        <v>8.735623693222541</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.497125676871547</v>
+        <v>11.02421443058655</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7204887724212452</v>
+        <v>119.6864362497556</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.5033485548840178</v>
+        <v>57.66632497657236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>58.36234144067808</v>
+        <v>2.167285783005582</v>
       </c>
       <c r="D23" t="n">
-        <v>1.396297292901451</v>
+        <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>2.216103642050449</v>
+        <v>-1.032846784698916</v>
       </c>
       <c r="F23" t="n">
-        <v>96.303128455497</v>
+        <v>-1.140052524619962</v>
       </c>
       <c r="G23" t="n">
         <v>-1</v>
       </c>
       <c r="H23" t="n">
-        <v>11.02421443058655</v>
+        <v>-2.990924550964826</v>
       </c>
       <c r="I23" t="n">
-        <v>8.735623693222541</v>
+        <v>-0.1217418524199236</v>
       </c>
       <c r="J23" t="n">
-        <v>119.6864362497556</v>
+        <v>-1.248695853992646</v>
       </c>
       <c r="K23" t="n">
-        <v>57.66632497657236</v>
+        <v>0.3951767056553147</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2.167285783005582</v>
+        <v>0.0282790850066271</v>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>-1.017401247346963</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.032846784698916</v>
+        <v>-1</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.140052524619962</v>
+        <v>-0.5420080328412906</v>
       </c>
       <c r="G24" t="n">
-        <v>-1</v>
+        <v>-1.116211758790248</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1217418524199236</v>
+        <v>0.1448738385337185</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.990924550964826</v>
+        <v>-0.4528069410873235</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.248695853992646</v>
+        <v>-0.2438170218950537</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3951767056553147</v>
+        <v>0.7518266746672676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0282790850066271</v>
+        <v>0.3821874927678333</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.017401247346963</v>
+        <v>-1</v>
       </c>
       <c r="E25" t="n">
         <v>-1</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5420080328412906</v>
+        <v>-19.32853690482652</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.116211758790248</v>
+        <v>-1</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.4528069410873235</v>
+        <v>-3.677799148078235</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1448738385337185</v>
+        <v>-2.964066549511795</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2438170218950537</v>
+        <v>4.32658903822204</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7518266746672676</v>
+        <v>1.393938596155473</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3821874927678333</v>
+        <v>-0.4812085633661006</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>-1.107856478988109</v>
       </c>
       <c r="E26" t="n">
-        <v>-1</v>
+        <v>-1.090990496397297</v>
       </c>
       <c r="F26" t="n">
-        <v>-19.32853690482652</v>
+        <v>0.3542251761722357</v>
       </c>
       <c r="G26" t="n">
-        <v>-1</v>
+        <v>-1.00348981024844</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.964066549511795</v>
+        <v>-0.6899035308803454</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.677799148078235</v>
+        <v>-1.017728337994833</v>
       </c>
       <c r="J26" t="n">
-        <v>4.32658903822204</v>
+        <v>1.104019666264315</v>
       </c>
       <c r="K26" t="n">
-        <v>1.393938596155473</v>
+        <v>-0.4707024078998651</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4812085633661006</v>
+        <v>0.6439846298355287</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.107856478988109</v>
+        <v>-0.9955447196426502</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.090990496397297</v>
+        <v>-1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3542251761722357</v>
+        <v>0.2784347103415837</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.00348981024844</v>
+        <v>-1</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.017728337994833</v>
+        <v>-1.462764912319961</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.6899035308803454</v>
+        <v>-0.3272974087900659</v>
       </c>
       <c r="J27" t="n">
-        <v>1.104019666264315</v>
+        <v>-0.1477970161575379</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.4707024078998651</v>
+        <v>5.71430340446416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6439846298355287</v>
+        <v>-0.5015060938193778</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.9955447196426502</v>
+        <v>-1.130203289196921</v>
       </c>
       <c r="E28" t="n">
-        <v>-1</v>
+        <v>-1.114133833239052</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2784347103415837</v>
+        <v>-2.642540151023747</v>
       </c>
       <c r="G28" t="n">
-        <v>-1</v>
+        <v>-0.8912278466966744</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.3272974087900659</v>
+        <v>-3.388876056682919</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.462764912319961</v>
+        <v>-15.21259706852648</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.1477970161575379</v>
+        <v>-1.983452609227662</v>
       </c>
       <c r="K28" t="n">
-        <v>5.71430340446416</v>
+        <v>-0.4422155388724135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.5015060938193778</v>
+        <v>0.9790192988206247</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.130203289196921</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.114133833239052</v>
+        <v>-1</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.642540151023747</v>
+        <v>0.3601190733038876</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8912278466966744</v>
+        <v>-1</v>
       </c>
       <c r="H29" t="n">
-        <v>-15.21259706852648</v>
+        <v>-0.2580650170860813</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.388876056682919</v>
+        <v>10.19879112603133</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.983452609227662</v>
+        <v>4.582448118657625</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.4422155388724135</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9790192988206247</v>
+        <v>-2.413039666084244</v>
       </c>
       <c r="D30" t="n">
         <v>-1</v>
@@ -1493,92 +1493,92 @@
         <v>-1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3601190733038876</v>
+        <v>0.2205708710846189</v>
       </c>
       <c r="G30" t="n">
         <v>-1</v>
       </c>
       <c r="H30" t="n">
-        <v>10.19879112603133</v>
+        <v>-0.35959016278294</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2580650170860813</v>
+        <v>1.459952992033018</v>
       </c>
       <c r="J30" t="n">
-        <v>4.582448118657625</v>
+        <v>-1.368076912450871</v>
       </c>
       <c r="K30" t="n">
-        <v>-1</v>
+        <v>-1.893330485972785</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.413039666084244</v>
+        <v>-0.7674276358826986</v>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>-0.9746379203969708</v>
       </c>
       <c r="E31" t="n">
-        <v>-1</v>
+        <v>-0.9589154930007838</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2205708710846189</v>
+        <v>-0.1220077777212775</v>
       </c>
       <c r="G31" t="n">
-        <v>-1</v>
+        <v>-0.9651786894881172</v>
       </c>
       <c r="H31" t="n">
-        <v>1.459952992033018</v>
+        <v>-0.4147765128364558</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.35959016278294</v>
+        <v>0.04029869248277464</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.368076912450871</v>
+        <v>-0.2944056043762592</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.893330485972785</v>
+        <v>0.09753929310439116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>4.592304794513248</v>
+        <v>-0.2232429467187066</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.001446258426337</v>
+        <v>-1.012214078299195</v>
       </c>
       <c r="E32" t="n">
-        <v>-1</v>
+        <v>-0.6439846762858801</v>
       </c>
       <c r="F32" t="n">
-        <v>1.897996700973304</v>
+        <v>-1.73412942444457</v>
       </c>
       <c r="G32" t="n">
-        <v>-1</v>
+        <v>0.2502479967898074</v>
       </c>
       <c r="H32" t="n">
-        <v>1.435949915418238</v>
+        <v>-0.627698834749752</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8297228330562624</v>
+        <v>-1.100547546225384</v>
       </c>
       <c r="J32" t="n">
-        <v>4.075942097552542</v>
+        <v>-0.2140232754699785</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1957720303595</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/correlation.xlsx
+++ b/Bot_screening/correlation.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,186 @@
           <t>ripple</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cardano</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>solana</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dogecoin</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>polkadot</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>shiba-inu</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>dai</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>staked-ether</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>matic-network</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tron</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>avalanche-2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>uniswap</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>wrapped-bitcoin</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>okb</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>leo-token</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>litecoin</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ethereum-classic</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>cosmos</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>ftx-token</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>crypto-com-chain</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>stellar</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>monero</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>algorand</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>bitcoin-cash</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>terra-luna</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>quant-network</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>apecoin</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>vechain</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>filecoin</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>chain-2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>internet-computer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.013747587334265</v>
+        <v>-0.8329054921786369</v>
       </c>
       <c r="D2" t="n">
         <v>-1</v>
@@ -493,274 +663,1498 @@
         <v>-1</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9550544938938564</v>
+        <v>-1.090009740505681</v>
       </c>
       <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.6409020171109125</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.797826450684349</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.23074392446263</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2858341793691096</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.530382044278245</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.144687788699932</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.5354760468055068</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.7555575966264644</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.4462145812896721</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-2.546152720121873</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.106176903587307</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.1293755747772469</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.7311855908895003</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.7881241083703923</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.034337527954749</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.5310922136226036</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.362023828907773</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.20482945967632</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.881944525941444</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.4091410804555239</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.028878350413032</v>
+        <v>-0.2383316072351075</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.256059725736427</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.256059725736427</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.583963108310334</v>
+        <v>-21.82420638610184</v>
       </c>
       <c r="G3" t="n">
         <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.195953422933254</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-17.5499126516545</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.8366064279680965</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-31.8606204379274</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9.943719296710938</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-1.006741331086781</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-5.394609574168267</v>
+      </c>
+      <c r="V3" t="n">
+        <v>98.87157165591053</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-6.091639793636042</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.286209517693002</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-19.43012751548144</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-12.44538384851263</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-6.023346562424829</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>88.12817542609818</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-24.99366455877882</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.855916510401299</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>384.7549038587069</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11.61371721017981</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>65.09148124288195</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-21.80657742831463</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-16.99999466797597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2383316072351075</v>
+        <v>-1.435989902773324</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-2.095630584230614</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-2.095630584230614</v>
       </c>
       <c r="F4" t="n">
-        <v>-21.82420638610184</v>
+        <v>-0.5809093353594736</v>
       </c>
       <c r="G4" t="n">
+        <v>-4.355368664206243</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2.095630584230614</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3.440268119422722</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1810222828130034</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.458853834421361</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.445156705035652</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-2.095630584230614</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.041756878505176</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-2.278235681602383</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.05128869369636529</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-1.173180318152584</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-1.059872789358154</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-1.917104707168065</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-2.713379743424464</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-1.65073816517939</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-4.150999587205858</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.5074688199330275</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.8219373179857341</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.8798076896403748</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.7525995454963147</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-2.440652049571978</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-1.465700022790593</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-25.95806646221644</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.7662442730306226</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.02588296706792</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.5507456181815863</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.8129411197655113</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO4" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.435989902773324</v>
+        <v>-0.4610195973111496</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.095630584230614</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.095630584230614</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5809093353594736</v>
+        <v>-0.8395932242970413</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.355368664206243</v>
+        <v>-9.189591522746085</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1.267051897480847</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.882664333240137</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.319806193972585</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.123594202585849</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.885451935475295</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-10.60159006115058</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.818276962428565</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.517864999577936</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-1.849439023103623</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4.249393910481509</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-2.871557136639508</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-6.132647221628866</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-1.45450201059899</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-1.645104257583743</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-15.81464367251414</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-5.206572849253826</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-3.729863840915353</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-2.169941646106595</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.03317322300914585</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.5566144716984498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4610195973111496</v>
+        <v>-1.448864872920041</v>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>-5.06624872162</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-5.06624872162</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8395932242970413</v>
+        <v>-3.618451170133707</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.189591522746085</v>
+        <v>-13.70702725506255</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-5.06624872162</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-9.839671133956552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-3.086593314493906</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-5.689248937617824</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1.302959203475446</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-5.620737183659123</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-2.504426059795977</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-3.58174522007619</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-2.043966295666239</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.501382348656827</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-1.592747627058325</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-1.596807542312128</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-2.753773324173745</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-4.891147102028744</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-1.617970930337403</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-2.954927270009642</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-4.924744334065265</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-7.168417298785743</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-14.53648930634647</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-2.400947018645995</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-4.460637209889386</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-27.12000046873964</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-10.15232831232797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.448864872920041</v>
+        <v>0.0834618454150878</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.06624872162</v>
+        <v>-6.403490086842575</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.06624872162</v>
+        <v>-6.403490086842575</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.618451170133707</v>
+        <v>-0.5678132394185034</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.70702725506255</v>
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-6.403490086842575</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.48241643454051</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.557905760275617</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1.748853245730921</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.76282749989914</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-6.403490086842575</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.02382141443795507</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.4204458581935565</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.693312127096887</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1.005516083076677</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-3.460517807401521</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-5.159667840437304</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13.37798231803333</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-8.433530561457465</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-2.682405338394181</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.156322335124983</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.624552327894965</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5947800603528446</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>17.37186629526479</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-4.047101295411657</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-19.91365273005714</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.201209542120996</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-3.783616105343145</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.306092003589719</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-11.14397525505421</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2.391729162202724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0834618454150878</v>
+        <v>-3.414991054604295</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.403490086842575</v>
+        <v>-3.597805053208813</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.403490086842575</v>
+        <v>-3.597805053208813</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5678132394185034</v>
+        <v>-0.7395684157184116</v>
       </c>
       <c r="G8" t="n">
         <v>-1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-3.597805053208813</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-2.301342543874189</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2.774457003557943</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.634279695141541</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-3.597805053208813</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-3.275702943074665</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.886450059120923</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.4553867812979426</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.2026875246337208</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.6656621553141719</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-2.799033970366224</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-2.864868402136552</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-17.48515162520619</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-1.201380236682859</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-2.573235459929659</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.3873101289601855</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-3.880529894918133</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.118140791277556</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-8.235674420129554</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-54.53780235059513</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1.246955183579968</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.936068262437597</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.08241877217033911</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.722969025299267</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-5.329675088681366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.414991054604295</v>
+        <v>-1.803539891137714</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.597805053208813</v>
+        <v>-2.010763574168243</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.597805053208813</v>
+        <v>-2.010763574168243</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7395684157184116</v>
+        <v>-1.135342856661933</v>
       </c>
       <c r="G9" t="n">
         <v>-1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2.010763574168243</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1.32017976573031</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.860300969423898</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1.041042151498869</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-2.010763574168243</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1.567686109515398</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-1.543765213951271</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3576455790332684</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.500494745323836</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-1.892193231813891</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.2957794770139276</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1349914994850095</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-2.43578719716219</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.5583813355853731</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-1.211897744808812</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-1.366461674994646</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.4224026358869876</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.2589736051572553</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-4.131129765878286</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.7092279756303997</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.4630318512231191</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.02941322062087169</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.4084547606917001</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.09563259153367636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.803539891137714</v>
+        <v>-2.365146953504313</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.010763574168243</v>
+        <v>-2.93704661215135</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.010763574168243</v>
+        <v>-2.93704661215135</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.135342856661933</v>
+        <v>-0.7890875146729553</v>
       </c>
       <c r="G10" t="n">
         <v>-1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.118057035859656</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.231814574870018</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7868642007661841</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2.93704661215135</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-2.692381521598871</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.4762067834488705</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.6720016918721469</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-1.042021926404567</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-5.869413617898235</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-1.380235075718606</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.018663744685811</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-1.140250642683092</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-2.395321605616596</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-2.273345369848321</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-1.604792167564187</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4.756830118356322</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.1687702560116454</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.844231362934734</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.8639543210945522</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23.80525109174165</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.6265999643908</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.161336219874123</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-2.76246301191452</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3688462725869631</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.3815453587709589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.365146953504313</v>
+        <v>1.915827934490828</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.93704661215135</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.93704661215135</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7890875146729553</v>
+        <v>1.683930446784453</v>
       </c>
       <c r="G11" t="n">
         <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.607603978807896</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.08735064517855609</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-2.905404167953076</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-2.923379678971516</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.998360828759331</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-1.517457477083707</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.6180813172300028</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-1.04668811832735</v>
+      </c>
+      <c r="U11" t="n">
+        <v>18.57118521406505</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-3.642866151475668</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.897304635524216</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4182232922989857</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.3591883064732025</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11.80240163083076</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-1.075454569197247</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3.530627688243996</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-1.401335129864153</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.983468196597126</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5.091783735036505</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.905008521907058</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>3.203675174659381</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.3413042498090741</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-1.335326062452278</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-1.910170740941864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.915827934490828</v>
+        <v>-1.529709463743345</v>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>-1.971118032320499</v>
       </c>
       <c r="E12" t="n">
-        <v>-1</v>
+        <v>-1.971118032320499</v>
       </c>
       <c r="F12" t="n">
-        <v>1.683930446784453</v>
+        <v>-1.55625576627631</v>
       </c>
       <c r="G12" t="n">
-        <v>-1</v>
+        <v>-2.122180837348132</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1.971118032320499</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.807970202890655</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1.550995350201114</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.425247475205608</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.480172466060215</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1.971118032320499</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-1.452847784223266</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-1.459073978915145</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-1.298866529130471</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-1.536542712857077</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-2.039152428573241</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-1.660360261977938</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-1.60179127805975</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-1.476460833930537</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-1.377208603401081</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.4914872848939933</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-1.457030622925909</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-1.553988008311103</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-1.659955320820297</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-1.631226721008324</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-1.681504773628465</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-4.143094137744581</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-1.571017403004453</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-1.3960638249464</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.7388027361344862</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-1.167212376426046</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-3.524906884033296</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-1.181430434780835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.529709463743345</v>
+        <v>-0.7012548015602321</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.971118032320499</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.971118032320499</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.55625576627631</v>
+        <v>-0.8753034003344893</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.122180837348132</v>
+        <v>-1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.951720044688599</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.627298683751868</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-2.2549813887365</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.084501116982048</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.7121761767073111</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-1.596905456120744</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5084710069912236</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-1.064131045791684</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-2.469542722939845</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-3.823708124657138</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.823708124657134</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.976590818011104</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-2.248789046357873</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-1.907486542054473</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-1.709592280547273</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-2.012351653580777</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.3173762858977207</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-1.461091340193672</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2.804267917471887</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-1.209913178220475</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-2.162138377835075</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-1.961093342007066</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-2.154286091498342</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.077013271024409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7012548015602321</v>
+        <v>16.6272127004062</v>
       </c>
       <c r="D14" t="n">
         <v>-1</v>
@@ -769,424 +2163,2362 @@
         <v>-1</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8753034003344893</v>
+        <v>-1.347489898615015</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>-70.67172467230138</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17.35739800727086</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.317701174871393</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-18.50373378466678</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>17.27116690338639</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-29.20045998640762</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.273407412230541</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6.817949303162506</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-3.239736933040443</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-4.120999524187487</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-16.12024663101004</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.227300597899596</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-13.12302271677713</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-6.258243371494427</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-20.20679977452627</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.502694302747981</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>42.06979343378632</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-18.76467482099855</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-1.585766231171751</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-71.6995513715422</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>56.43839508937208</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>115.4172835336318</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23.33738327594081</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2.589149452815612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>16.6272127004062</v>
+        <v>-2.590925436381622</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-1.647174125711161</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>-1.647174125711161</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.347489898615015</v>
+        <v>-2.1692082832001</v>
       </c>
       <c r="G15" t="n">
-        <v>-70.67172467230138</v>
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-1.647174125711161</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.24041707427973</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.0879286218531415</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-2.000672597738271</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-2.486023782830958</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.647174125711161</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-2.599212304144913</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-1.031369873322144</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-1.294752572106076</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-1.063558970886093</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-2.104053342935072</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-2.2831900768411</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-2.698832079991805</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-2.722231970900779</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-2.30087437705975</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-2.633471044318985</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-1.417987656855572</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-1.652851091726175</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.8350234980176582</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-2.984667318847569</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-2.517975746346284</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-7.937475494007345</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-2.335643509693031</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-2.804243017134151</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-3.192365061517659</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-1.501178615870599</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-2.714030866277442</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.590925436381622</v>
+        <v>-1.107327621446991</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.647174125711161</v>
+        <v>-1.918474008469537</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.647174125711161</v>
+        <v>-1.918474008469537</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.1692082832001</v>
+        <v>-1.500051858971204</v>
       </c>
       <c r="G16" t="n">
-        <v>-1</v>
+        <v>-1.645802037205145</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1.918474008469537</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1.043053469147009</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-1.149751197033077</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.342624466510234</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-1.918474008469537</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-1.109781433054081</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.8701633600592803</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.9655572246823934</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.9938820637669662</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-1.382697503528974</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-1.973047015699231</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-1.059384095375185</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-1.864530019846419</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-1.169192580507547</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.9552044829684299</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-1.245629934911623</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.9073288556476926</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.7221387658803838</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-1.181252726464207</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-1.738059471091594</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-1.122431192974245</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-2.675594474910645</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-1.204248667613778</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.8900762489863587</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-1.430534691470096</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.964491984208651</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-1.463652744660104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.107327621446991</v>
+        <v>-1.325491178137254</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.918474008469537</v>
+        <v>-1.972045083008541</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.918474008469537</v>
+        <v>-1.972045083008541</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.500051858971204</v>
+        <v>-1.466725573354253</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.645802037205145</v>
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1.972045083008541</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-3.070878655105145</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.7731894806313421</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-1.674648853646146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-1.879081039834898</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-1.972045083008541</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-1.555017638118416</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.8495888134713124</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-1.471586228390283</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-1.883209174760075</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-1.19600909081242</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-3.012544045102179</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-1.532812508211798</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-4.060791338041535</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.1764228979697148</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4632936733461799</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6.938368177903047</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-2.032913181185544</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-1.679029088388132</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.876538962564319</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.7709168301366681</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.01340870356208846</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.6679839751235981</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-1.162560440503129</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-0.1260512097721439</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.325491178137254</v>
+        <v>3.645825568552467</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.972045083008541</v>
+        <v>-2.767709586133706</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.972045083008541</v>
+        <v>-2.767709586133706</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.466725573354253</v>
+        <v>0.4171672336346685</v>
       </c>
       <c r="G18" t="n">
         <v>-1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-2.767709586133706</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1.579749715189944</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4813208822349498</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.456103448215573</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-2.767709586133706</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.431683817878768</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.055476262946184</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1188035355276625</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.7330486138565907</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.9625245567739671</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.655640989714216</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-4.287063280000694</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.7617642067205183</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.453941576112974</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-1.890415751233838</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-12.46692078468661</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.727083617848683</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.94578032619132</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13.73091321778093</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.27501432738451</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-1.924097760036166</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11.57450405619101</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-4.118028534370947</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.9214234631888117</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-1.707083834453483</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.1943983690092613</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.1223552927833057</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645825568552467</v>
+        <v>1.912810904032143</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.767709586133706</v>
+        <v>-1</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.767709586133706</v>
+        <v>-2.586170289419946</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4171672336346685</v>
+        <v>-2.306393897262791</v>
       </c>
       <c r="G19" t="n">
         <v>-1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.673320712505534</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.351849678482909</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8598311601239029</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-2.586170289419946</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.740149561703439</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8882979635951747</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.7037274859505334</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8443840574650611</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.8378933964212774</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-3.791825150869536</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-1.634468115767979</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-5.286946728162029</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.407353597084503</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5.713286451015043</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-4.511054026059783</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.547547187207019</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>-3.62589417184039</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-1.858460189944186</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-26.64798075582873</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>-5.164318549809432</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>4.035461236253815</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-2.275056502749146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1.912810904032143</v>
+        <v>-0.9358524806968435</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>-1.858156743941452</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.586170289419946</v>
+        <v>-1.858156743941452</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.306393897262791</v>
+        <v>-1.147794346546032</v>
       </c>
       <c r="G20" t="n">
-        <v>-1</v>
+        <v>4.148940463648728</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1.858156743941452</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.5727541775129807</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.1196495471635073</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.7002329182122329</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.858156743941452</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.7455641993356034</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.8082541338838376</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.7032813970100744</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-1.043835973847317</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-1.440967193360343</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-1.871832548625773</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2439946598221138</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.03469357588141817</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-1.453533615969059</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.08031903955841804</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-0.8562693138226101</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-0.7954860096214298</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.753198788202829</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>-1.226465936539678</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.7253785056541395</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-2.992727349853906</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>-0.5811095739126202</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.421097537162489</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-1.276999961651988</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9358524806968435</v>
+        <v>1.451803659127537</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.858156743941452</v>
+        <v>-2.152820128972818</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.858156743941452</v>
+        <v>-2.152820128972818</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.147794346546032</v>
+        <v>-0.7764247702753461</v>
       </c>
       <c r="G21" t="n">
-        <v>4.148940463648728</v>
+        <v>-4.033737181507427</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.152820128972818</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.4100559243667122</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9429552735496943</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.2197494896968984</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-2.152820128972818</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.398330112474838</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.4058782060644128</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.3727855663912815</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.03286901931811036</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.8995317257600157</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.1211028241630275</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.556657544092957</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-0.7117949677567954</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.1115345596156696</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.751200540621979</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.861120049191273</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-0.5765150546630501</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.334282556681503</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>-1.485803800169153</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.056922475986859</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2.749620692498634</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1.336515643231192</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.2668353065635455</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-4.873111105244654</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-0.4098190466009408</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4685606738507242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1.451803659127537</v>
+        <v>-1.04553693879662</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.152820128972818</v>
+        <v>-1.607852683879538</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.152820128972818</v>
+        <v>-1.607852683879538</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7764247702753461</v>
+        <v>-1.181132470396477</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.033737181507427</v>
+        <v>-1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2.21570536775908</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1.961693935991896</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.171530027360856</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.3608147035493522</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.607852683879538</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-1.009808587575693</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.5225447565566648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.1506715923874949</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-1.07887943169364</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-1.680010679901368</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-1.791501792626125</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.4020320698528078</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.6771642115419733</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.3130961292646419</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-2.276725328302972</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-1.790308464813776</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.7061565224847731</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.5392885200907653</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-3.066699125190433</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.458713316084215</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-4.269920290448757</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-2.202202616121698</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-0.6516799227207142</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-4.111573032349912</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-0.4636593965768812</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-2.514681769276381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.04553693879662</v>
+        <v>-1.495048324536894</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.607852683879538</v>
+        <v>-2.284059167988855</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.607852683879538</v>
+        <v>-2.284059167988855</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.181132470396477</v>
+        <v>-1.735063199576499</v>
       </c>
       <c r="G23" t="n">
+        <v>-2.637175439185785</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.629682861225306</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.8444488893885239</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-1.299483312046183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1.058158985406245</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-2.284059167988855</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-1.559260740090656</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-1.037040168307372</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-1.116524942290806</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-2.114307890545301</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-2.238199911989249</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.04207820047639996</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-1.58275432763009</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.7481268555098769</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.362093917233229</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.8947154058401395</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.8410509282343898</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-7.548701756743156</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-2.209713310454346</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-3.046469298982238</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-2.024123645711357</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.907170464788434</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-1.132418601698847</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-1.752724339855533</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.7841014401383584</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.8838882667244093</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO23" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.495048324536894</v>
+        <v>-1.399732612116823</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.284059167988855</v>
+        <v>-2.071539275155148</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.284059167988855</v>
+        <v>-2.071539275155148</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.735063199576499</v>
+        <v>-1.159085701194052</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.637175439185785</v>
+        <v>-1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.535769637577576</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.234599599635279</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.6778984925130661</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.7426363372361536</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.9493836171272525</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1.546072899838679</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-1.414117020388449</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.3582872137488968</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.006942935872741806</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-1.001107606412261</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-1.179720194883617</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-3.644142462376769</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-0.6896634886162697</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.3071675225644728</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-0.9632654711622134</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.3909749964265669</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-1.160428196562778</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-5.732631798601899</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-1.555224959612515</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.4783176813946343</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-2.118321077944016</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-1.108975074309913</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.494224866830735</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>-0.7978947274618411</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.399732612116823</v>
+        <v>-3.496582212767787</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.071539275155148</v>
+        <v>-1</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.071539275155148</v>
+        <v>-1</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.159085701194052</v>
+        <v>-0.6660880836720533</v>
       </c>
       <c r="G25" t="n">
-        <v>-1</v>
+        <v>15.42451053240941</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2466797151105928</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.096746025413978</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.3829790318772879</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-3.535501111873967</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.183817601515897</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.784778602380835</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-1.11405180113705</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-2.889545459480725</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12.05354112182756</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-1.313274042852486</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-2.068356296246786</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-4.45214908057169</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6795316215080068</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-2.118944756465834</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-1.574857868634327</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>21.99431474537314</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>-0.9530919731836606</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.52606749727833</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.942790724634161</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-6.156087610080998</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>-1.042716542346956</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>-2.29181543513332</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-7.127011766008513</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.6366060316991521</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-1.36498912294244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.496582212767787</v>
+        <v>-1.212622968573877</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>-1.559086105336108</v>
       </c>
       <c r="E26" t="n">
-        <v>-1</v>
+        <v>-1.559086105336108</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6660880836720533</v>
+        <v>-1.627375042884918</v>
       </c>
       <c r="G26" t="n">
-        <v>15.42451053240941</v>
+        <v>-1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.559086105336108</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1.190242267847859</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-1.086783514858139</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.9846293619823</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-1.559086105336108</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-1.279703433076928</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-1.745448140448143</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-1.38169554675025</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-2.17861395178963</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-1.003896234077347</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-1.186601267506274</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.906973257842824</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-1.712949038957214</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-1.723143816130479</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-1.039154851821519</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.3663305341895425</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-1.380343123172236</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.4156285934175358</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-1.481161233042647</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>-2.530130393551447</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-1.514127896665435</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.04015648191217518</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>-2.1572749591109</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.3257807318719336</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>-1.51004346451715</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-2.203637602570723</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.212622968573877</v>
+        <v>0.2962818879617383</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.559086105336108</v>
+        <v>-2.077804770052367</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.559086105336108</v>
+        <v>-2.077804770052367</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.627375042884918</v>
+        <v>-0.5488988348118282</v>
       </c>
       <c r="G27" t="n">
-        <v>-1</v>
+        <v>1.284946112511003</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.077804770052367</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.224283826338154</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.659978257066815</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9265987457934243</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-2.077804770052367</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.3962219471407938</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.5080847981677067</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.8139294696652227</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.311512437028003</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.04814041858302886</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3.697170390440403</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.1773551930720853</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.5624214578544268</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1.696629912350918</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.1233041975422155</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-0.1256583753146593</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>-0.6231746112242851</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.414070831399833</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-5.91913382215509</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.558974945772718</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>-0.3581612043508332</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-1.582894416456883</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>-1.191690110109978</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-2.219102346614107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2962818879617383</v>
+        <v>2.465446132729449</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.077804770052367</v>
+        <v>-3.418697263123786</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.077804770052367</v>
+        <v>-3.418697263123786</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5488988348118282</v>
+        <v>-0.775360397077465</v>
       </c>
       <c r="G28" t="n">
-        <v>1.284946112511003</v>
+        <v>-1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3.418697263123786</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.898629884755421</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.985691577031142</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.320719674783787</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-3.418697263123786</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.434306555609509</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.2093486315618883</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.6334059439277402</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-1.132258994540379</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-6.076010399739585</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-3.157857362198666</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.221047486774319</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-0.4241950269607179</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-5.975982909673461</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.1989028173093248</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>-0.3615621437439797</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>-0.7480187170780729</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>-7.288612884121799</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>4.809754296224789</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9.460510668304396</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>-5.191716886957949</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.794939059609708</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>-4.457656568589305</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>-6.523781587404295</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.9651915262880729</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>2.465446132729449</v>
+        <v>-0.304732986272885</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.418697263123786</v>
+        <v>-2.290869190621366</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.418697263123786</v>
+        <v>-2.290869190621366</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.775360397077465</v>
+        <v>-1.964998882351803</v>
       </c>
       <c r="G29" t="n">
-        <v>-1</v>
+        <v>-6.06785682243941</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.290869190621366</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3.850669462622172</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.05142367968204458</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.073214154634311</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-2.507472664979866</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-2.290869190621366</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.4312737632168713</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-2.710401677573309</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-1.813596473656494</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1252642615613739</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-1.003831299757761</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-1.255920450509718</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-6.034948661254745</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-1.826281003658593</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-2.828920541619011</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-2.891688491325309</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-3.85438611120447</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-1.109553350044718</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-3.094369401110161</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.05878791083183488</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>-7.515815914564955</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.7733816922725</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24.87867475096346</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>-1.688092628908797</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>-3.332365923963588</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-2.855350972282912</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>-3.878345865171898</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.9363037859320411</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.304732986272885</v>
+        <v>-0.4126085879732418</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.290869190621366</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.290869190621366</v>
+        <v>-1</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.964998882351803</v>
+        <v>-0.2906188493419356</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.06785682243941</v>
+        <v>11.50256994144447</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.998121428119667</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.208137448317864</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-1.142878737902898</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.8849817620050672</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-11.65559938191288</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-1.306914516016776</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-1.586791455324358</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.143527738546736</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.1279835746521558</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.2598275575937983</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>4.780297746900694</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.9908550862172654</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6450749922953415</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.5053710955514401</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>7.225374961476623</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.06226244943473541</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>11.92221823126789</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>-12.19155877111396</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6393229818327629</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>-2.589309738319192</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.4515367579076216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4126085879732418</v>
+        <v>-1.638242766779315</v>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>-1.700863878322505</v>
       </c>
       <c r="E31" t="n">
-        <v>-1</v>
+        <v>-1.700863878322505</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2906188493419356</v>
+        <v>-0.8899022318442383</v>
       </c>
       <c r="G31" t="n">
-        <v>11.50256994144447</v>
+        <v>-2.58456181185958</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1.700863878322505</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-2.58456181185958</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.9147487212332837</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-1.437776836910159</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.315267488518773</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-2.375280063123409</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-1.68713413672875</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-1.934485171096673</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-1.527012215512808</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-1.440422014172456</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-1.633824724743833</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.8296966276973354</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-1.178651576827305</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-1.066408384972247</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-2.382734155606464</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-2.81964658851207</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-1.352692790381651</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-1.77542386537809</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-1.009670935829315</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-1.864258329581398</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-1.752535106602382</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.1975828016111232</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-1.847556317971407</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-1.901464493672765</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.6318694780528293</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-2.142474033629167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2.567974516483601</v>
+        <v>-1.641270432629027</v>
       </c>
       <c r="D32" t="n">
-        <v>-5.503160508334949</v>
+        <v>-2.870454099059624</v>
       </c>
       <c r="E32" t="n">
-        <v>-5.503160508334949</v>
+        <v>-2.870454099059624</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.730875474774975</v>
+        <v>-3.121923935265047</v>
       </c>
       <c r="G32" t="n">
-        <v>-1</v>
+        <v>-5.336052684183689</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-2.870454099059624</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-3.383443253479228</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-1.289948811708339</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.8335197922302954</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-2.870454099059624</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-1.811987734633375</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-3.51034629084318</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-1.215334444812739</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-0.4218596421088436</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1.015837893492959</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-3.165292387057679</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-1.443689111869957</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-0.2951244405021551</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-1.905521042480127</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-1.403638190629224</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.1393098431394736</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-2.084013171045914</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-2.042548186361102</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>-3.499993658806984</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-3.446814955165212</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-2.478074277090492</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>-2.068247999855606</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>-7.813797075145803</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-2.036882163609149</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.2634855503581736</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>-2.23486290035006</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/correlation.xlsx
+++ b/Bot_screening/correlation.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>staked-ether</t>
+          <t>matic-network</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>matic-network</t>
+          <t>staked-ether</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -527,12 +527,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -542,22 +542,22 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>leo-token</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>okb</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>leo-token</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -577,17 +577,17 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>stellar</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>near</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>crypto-com-chain</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>stellar</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>apecoin</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>apecoin</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -648,400 +648,400 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44803</v>
+        <v>44808</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8329054921786369</v>
+        <v>-0.1434052974675601</v>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>-5.150665599858912</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>-5.150665599858912</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.090009740505681</v>
+        <v>-0.6680177642542346</v>
       </c>
       <c r="G2" t="n">
         <v>-1</v>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>-5.150665599858912</v>
       </c>
       <c r="I2" t="n">
-        <v>-1</v>
+        <v>7.820164399700219</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6409020171109125</v>
+        <v>2.63810727626083</v>
       </c>
       <c r="K2" t="n">
         <v>-1</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.797826450684349</v>
+        <v>-1.575228113023941</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.23074392446263</v>
+        <v>6.499270214237836</v>
       </c>
       <c r="N2" t="n">
-        <v>-1</v>
+        <v>-5.150665599858912</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2858341793691096</v>
+        <v>-1</v>
       </c>
       <c r="P2" t="n">
-        <v>2.530382044278245</v>
+        <v>0.05734846701715542</v>
       </c>
       <c r="Q2" t="n">
         <v>-1</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.144687788699932</v>
+        <v>4.991055063947316</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.5354760468055068</v>
+        <v>-0.5548182006460594</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7555575966264644</v>
+        <v>-1.051893443268969</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.4462145812896721</v>
+        <v>-1.807953990812253</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.546152720121873</v>
+        <v>-2.084168735430497</v>
       </c>
       <c r="W2" t="n">
-        <v>-1</v>
+        <v>-7.510189327069114</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.106176903587307</v>
+        <v>1.662691139532169</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.1293755747772469</v>
+        <v>-1.906292121804039</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7311855908895003</v>
+        <v>10.0443797700594</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7881241083703923</v>
+        <v>-0.6795095449011199</v>
       </c>
       <c r="AB2" t="n">
         <v>-1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>1.016037577074329</v>
       </c>
       <c r="AD2" t="n">
         <v>-1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.034337527954749</v>
+        <v>-0.3211777014084022</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1</v>
+        <v>13.11226303952033</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.5310922136226036</v>
+        <v>-1.714786242082747</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.362023828907773</v>
+        <v>-13.36205614342492</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.20482945967632</v>
+        <v>3.429657707395421</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.881944525941444</v>
+        <v>-3.138221672654591</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4091410804555239</v>
+        <v>-1</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1</v>
+        <v>0.771413770651084</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1</v>
+        <v>-9.415569702466252</v>
       </c>
       <c r="AN2" t="n">
         <v>-1</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1</v>
+        <v>1.605340868834517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44804</v>
+        <v>44809</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2383316072351075</v>
+        <v>-3.414991054604295</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>-3.597805053208813</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-3.597805053208813</v>
       </c>
       <c r="F3" t="n">
-        <v>-21.82420638610184</v>
+        <v>-0.7395684157184116</v>
       </c>
       <c r="G3" t="n">
         <v>-1</v>
       </c>
       <c r="H3" t="n">
-        <v>-1</v>
+        <v>-3.597805053208813</v>
       </c>
       <c r="I3" t="n">
         <v>-1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.195953422933254</v>
+        <v>-2.301342543874189</v>
       </c>
       <c r="K3" t="n">
         <v>-1</v>
       </c>
       <c r="L3" t="n">
-        <v>-1</v>
+        <v>-2.774457003557943</v>
       </c>
       <c r="M3" t="n">
-        <v>-17.5499126516545</v>
+        <v>1.634279695141541</v>
       </c>
       <c r="N3" t="n">
-        <v>-1</v>
+        <v>-3.597805053208813</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8366064279680965</v>
+        <v>1.886450059120923</v>
       </c>
       <c r="P3" t="n">
-        <v>-1</v>
+        <v>-3.275702943074665</v>
       </c>
       <c r="Q3" t="n">
         <v>-1</v>
       </c>
       <c r="R3" t="n">
-        <v>-31.8606204379274</v>
+        <v>0.2026875246337208</v>
       </c>
       <c r="S3" t="n">
-        <v>9.943719296710938</v>
+        <v>-0.4553867812979426</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.006741331086781</v>
+        <v>-1</v>
       </c>
       <c r="U3" t="n">
-        <v>-5.394609574168267</v>
+        <v>-1</v>
       </c>
       <c r="V3" t="n">
-        <v>98.87157165591053</v>
+        <v>-0.6656621553141719</v>
       </c>
       <c r="W3" t="n">
-        <v>-6.091639793636042</v>
+        <v>-2.864868402136552</v>
       </c>
       <c r="X3" t="n">
-        <v>5.286209517693002</v>
+        <v>-1.201380236682859</v>
       </c>
       <c r="Y3" t="n">
-        <v>-19.43012751548144</v>
+        <v>-17.48515162520619</v>
       </c>
       <c r="Z3" t="n">
-        <v>-12.44538384851263</v>
+        <v>-2.799033970366224</v>
       </c>
       <c r="AA3" t="n">
-        <v>-6.023346562424829</v>
+        <v>-2.573235459929659</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.12817542609818</v>
+        <v>-1</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1</v>
+        <v>-0.3873101289601855</v>
       </c>
       <c r="AD3" t="n">
         <v>-1</v>
       </c>
       <c r="AE3" t="n">
-        <v>-24.99366455877882</v>
+        <v>-3.880529894918133</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1</v>
+        <v>7.118140791277556</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.855916510401299</v>
+        <v>-8.235674420129554</v>
       </c>
       <c r="AH3" t="n">
-        <v>384.7549038587069</v>
+        <v>-54.53780235059513</v>
       </c>
       <c r="AI3" t="n">
-        <v>11.61371721017981</v>
+        <v>1.246955183579968</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65.09148124288195</v>
+        <v>2.936068262437597</v>
       </c>
       <c r="AK3" t="n">
-        <v>-21.80657742831463</v>
+        <v>-1</v>
       </c>
       <c r="AL3" t="n">
-        <v>-1</v>
+        <v>0.08241877217033911</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1</v>
+        <v>2.722969025299267</v>
       </c>
       <c r="AN3" t="n">
         <v>-1</v>
       </c>
       <c r="AO3" t="n">
-        <v>-16.99999466797597</v>
+        <v>-5.329675088681366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44805</v>
+        <v>44810</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.435989902773324</v>
+        <v>-1.803539891137714</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.095630584230614</v>
+        <v>-2.010763574168243</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.095630584230614</v>
+        <v>-2.010763574168243</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5809093353594736</v>
+        <v>-1.135342856661933</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.355368664206243</v>
+        <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.095630584230614</v>
+        <v>-2.010763574168243</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.440268119422722</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1810222828130034</v>
+        <v>-1.32017976573031</v>
       </c>
       <c r="K4" t="n">
         <v>-1</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.458853834421361</v>
+        <v>-0.860300969423898</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.445156705035652</v>
+        <v>-1.041042151498869</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.095630584230614</v>
+        <v>-2.010763574168243</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.041756878505176</v>
+        <v>-1</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.278235681602383</v>
+        <v>-1.567686109515398</v>
       </c>
       <c r="Q4" t="n">
         <v>-1</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.05128869369636529</v>
+        <v>-0.3576455790332684</v>
       </c>
       <c r="S4" t="n">
-        <v>-1.173180318152584</v>
+        <v>-1.543765213951271</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.059872789358154</v>
+        <v>-1</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.917104707168065</v>
+        <v>-1.892193231813891</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.713379743424464</v>
+        <v>-0.500494745323836</v>
       </c>
       <c r="W4" t="n">
-        <v>-1.65073816517939</v>
+        <v>0.1349914994850095</v>
       </c>
       <c r="X4" t="n">
-        <v>-4.150999587205858</v>
+        <v>-0.5583813355853731</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.5074688199330275</v>
+        <v>-2.43578719716219</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.8219373179857341</v>
+        <v>-0.2957794770139276</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.8798076896403748</v>
+        <v>-1.211897744808812</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.7525995454963147</v>
+        <v>-1</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1</v>
+        <v>-1.366461674994646</v>
       </c>
       <c r="AD4" t="n">
         <v>-1</v>
       </c>
       <c r="AE4" t="n">
-        <v>-2.440652049571978</v>
+        <v>-0.4224026358869876</v>
       </c>
       <c r="AF4" t="n">
         <v>-1</v>
       </c>
       <c r="AG4" t="n">
-        <v>-1.465700022790593</v>
+        <v>-0.2589736051572553</v>
       </c>
       <c r="AH4" t="n">
-        <v>-25.95806646221644</v>
+        <v>-4.131129765878286</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.7662442730306226</v>
+        <v>-0.7092279756303997</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.02588296706792</v>
+        <v>-0.4630318512231191</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.5507456181815863</v>
+        <v>-1</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1</v>
+        <v>-0.02941322062087169</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.8129411197655113</v>
+        <v>-0.4084547606917001</v>
       </c>
       <c r="AN4" t="n">
         <v>-1</v>
       </c>
       <c r="AO4" t="n">
-        <v>-1</v>
+        <v>-0.09563259153367636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44806</v>
+        <v>44811</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4610195973111496</v>
+        <v>-2.365146953504313</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>-2.93704661215135</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-2.93704661215135</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8395932242970413</v>
+        <v>-0.7890875146729553</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.189591522746085</v>
+        <v>-1</v>
       </c>
       <c r="H5" t="n">
         <v>-1</v>
@@ -1050,1123 +1050,1123 @@
         <v>-1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.267051897480847</v>
+        <v>1.118057035859656</v>
       </c>
       <c r="K5" t="n">
         <v>-1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.882664333240137</v>
+        <v>1.231814574870018</v>
       </c>
       <c r="M5" t="n">
-        <v>-1</v>
+        <v>0.7868642007661841</v>
       </c>
       <c r="N5" t="n">
-        <v>-1</v>
+        <v>-2.93704661215135</v>
       </c>
       <c r="O5" t="n">
-        <v>0.319806193972585</v>
+        <v>-1</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>-2.692381521598871</v>
       </c>
       <c r="Q5" t="n">
         <v>-1</v>
       </c>
       <c r="R5" t="n">
-        <v>-1</v>
+        <v>-0.6720016918721469</v>
       </c>
       <c r="S5" t="n">
-        <v>2.123594202585849</v>
+        <v>-0.4762067834488705</v>
       </c>
       <c r="T5" t="n">
-        <v>-1</v>
+        <v>-1.042021926404567</v>
       </c>
       <c r="U5" t="n">
-        <v>1.885451935475295</v>
+        <v>-1.380235075718606</v>
       </c>
       <c r="V5" t="n">
-        <v>-10.60159006115058</v>
+        <v>-5.869413617898235</v>
       </c>
       <c r="W5" t="n">
-        <v>4.818276962428565</v>
+        <v>-1.140250642683092</v>
       </c>
       <c r="X5" t="n">
-        <v>8.517864999577936</v>
+        <v>-2.273345369848321</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.849439023103623</v>
+        <v>-2.395321605616596</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.249393910481509</v>
+        <v>1.018663744685811</v>
       </c>
       <c r="AA5" t="n">
-        <v>-2.871557136639508</v>
+        <v>-1.604792167564187</v>
       </c>
       <c r="AB5" t="n">
-        <v>-6.132647221628866</v>
+        <v>-1</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1</v>
+        <v>4.756830118356322</v>
       </c>
       <c r="AD5" t="n">
         <v>-1</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.45450201059899</v>
+        <v>-0.1687702560116454</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1</v>
+        <v>5.844231362934734</v>
       </c>
       <c r="AG5" t="n">
-        <v>-1.645104257583743</v>
+        <v>-0.8639543210945522</v>
       </c>
       <c r="AH5" t="n">
-        <v>-15.81464367251414</v>
+        <v>23.80525109174165</v>
       </c>
       <c r="AI5" t="n">
-        <v>-5.206572849253826</v>
+        <v>4.6265999643908</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-3.729863840915353</v>
+        <v>1.161336219874123</v>
       </c>
       <c r="AK5" t="n">
-        <v>-2.169941646106595</v>
+        <v>-1</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1</v>
+        <v>-2.76246301191452</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.03317322300914585</v>
+        <v>0.3688462725869631</v>
       </c>
       <c r="AN5" t="n">
         <v>-1</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.5566144716984498</v>
+        <v>-0.3815453587709589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44807</v>
+        <v>44812</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.448864872920041</v>
+        <v>1.915827934490828</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.06624872162</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.06624872162</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.618451170133707</v>
+        <v>1.683930446784453</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.70702725506255</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.06624872162</v>
+        <v>-1</v>
       </c>
       <c r="I6" t="n">
-        <v>-9.839671133956552</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.086593314493906</v>
+        <v>1.607603978807896</v>
       </c>
       <c r="K6" t="n">
         <v>-1</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>0.08735064517855609</v>
       </c>
       <c r="M6" t="n">
-        <v>-5.689248937617824</v>
+        <v>-2.905404167953076</v>
       </c>
       <c r="N6" t="n">
-        <v>-1</v>
+        <v>-2.923379678971516</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.302959203475446</v>
+        <v>-1</v>
       </c>
       <c r="P6" t="n">
-        <v>-5.620737183659123</v>
+        <v>1.998360828759331</v>
       </c>
       <c r="Q6" t="n">
         <v>-1</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.504426059795977</v>
+        <v>0.6180813172300028</v>
       </c>
       <c r="S6" t="n">
-        <v>-3.58174522007619</v>
+        <v>-1.517457477083707</v>
       </c>
       <c r="T6" t="n">
-        <v>-1</v>
+        <v>-1.04668811832735</v>
       </c>
       <c r="U6" t="n">
-        <v>-2.043966295666239</v>
+        <v>-3.642866151475668</v>
       </c>
       <c r="V6" t="n">
-        <v>3.501382348656827</v>
+        <v>18.57118521406505</v>
       </c>
       <c r="W6" t="n">
-        <v>-1.592747627058325</v>
+        <v>0.4182232922989857</v>
       </c>
       <c r="X6" t="n">
-        <v>-1.596807542312128</v>
+        <v>11.80240163083076</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.753773324173745</v>
+        <v>0.3591883064732025</v>
       </c>
       <c r="Z6" t="n">
-        <v>-4.891147102028744</v>
+        <v>4.897304635524216</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1.617970930337403</v>
+        <v>-1.075454569197247</v>
       </c>
       <c r="AB6" t="n">
-        <v>-2.954927270009642</v>
+        <v>-1</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1</v>
+        <v>3.530627688243996</v>
       </c>
       <c r="AD6" t="n">
         <v>-1</v>
       </c>
       <c r="AE6" t="n">
-        <v>-4.924744334065265</v>
+        <v>-1.401335129864153</v>
       </c>
       <c r="AF6" t="n">
         <v>-1</v>
       </c>
       <c r="AG6" t="n">
-        <v>-7.168417298785743</v>
+        <v>8.983468196597126</v>
       </c>
       <c r="AH6" t="n">
-        <v>-14.53648930634647</v>
+        <v>5.091783735036505</v>
       </c>
       <c r="AI6" t="n">
-        <v>-2.400947018645995</v>
+        <v>2.905008521907058</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-1</v>
+        <v>3.203675174659381</v>
       </c>
       <c r="AK6" t="n">
-        <v>-4.460637209889386</v>
+        <v>-1</v>
       </c>
       <c r="AL6" t="n">
-        <v>-1</v>
+        <v>0.3413042498090741</v>
       </c>
       <c r="AM6" t="n">
-        <v>-27.12000046873964</v>
+        <v>-1.335326062452278</v>
       </c>
       <c r="AN6" t="n">
         <v>-1</v>
       </c>
       <c r="AO6" t="n">
-        <v>-10.15232831232797</v>
+        <v>-1.910170740941864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44808</v>
+        <v>44813</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0834618454150878</v>
+        <v>-1.529709463743345</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.403490086842575</v>
+        <v>-1.971118032320499</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.403490086842575</v>
+        <v>-1.971118032320499</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5678132394185034</v>
+        <v>-1.55625576627631</v>
       </c>
       <c r="G7" t="n">
-        <v>-1</v>
+        <v>-2.122180837348132</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.403490086842575</v>
+        <v>-1.971118032320499</v>
       </c>
       <c r="I7" t="n">
-        <v>10.48241643454051</v>
+        <v>-1.807970202890655</v>
       </c>
       <c r="J7" t="n">
-        <v>3.557905760275617</v>
+        <v>-1.550995350201114</v>
       </c>
       <c r="K7" t="n">
         <v>-1</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.748853245730921</v>
+        <v>-1.425247475205608</v>
       </c>
       <c r="M7" t="n">
-        <v>8.76282749989914</v>
+        <v>-1.480172466060215</v>
       </c>
       <c r="N7" t="n">
-        <v>-6.403490086842575</v>
+        <v>-1.971118032320499</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02382141443795507</v>
+        <v>-1.459073978915145</v>
       </c>
       <c r="P7" t="n">
-        <v>-1</v>
+        <v>-1.452847784223266</v>
       </c>
       <c r="Q7" t="n">
         <v>-1</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.4204458581935565</v>
+        <v>-1.536542712857077</v>
       </c>
       <c r="S7" t="n">
-        <v>7.693312127096887</v>
+        <v>-1.298866529130471</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.005516083076677</v>
+        <v>-1</v>
       </c>
       <c r="U7" t="n">
-        <v>-3.460517807401521</v>
+        <v>-1.660360261977938</v>
       </c>
       <c r="V7" t="n">
-        <v>-5.159667840437304</v>
+        <v>-2.039152428573241</v>
       </c>
       <c r="W7" t="n">
-        <v>13.37798231803333</v>
+        <v>-1.476460833930537</v>
       </c>
       <c r="X7" t="n">
-        <v>-8.433530561457465</v>
+        <v>-0.4914872848939933</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.682405338394181</v>
+        <v>-1.377208603401081</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.156322335124983</v>
+        <v>-1.60179127805975</v>
       </c>
       <c r="AA7" t="n">
-        <v>-1</v>
+        <v>-1.457030622925909</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.624552327894965</v>
+        <v>-1</v>
       </c>
       <c r="AC7" t="n">
-        <v>-1</v>
+        <v>-1.553988008311103</v>
       </c>
       <c r="AD7" t="n">
         <v>-1</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5947800603528446</v>
+        <v>-1.659955320820297</v>
       </c>
       <c r="AF7" t="n">
-        <v>17.37186629526479</v>
+        <v>-1.631226721008324</v>
       </c>
       <c r="AG7" t="n">
-        <v>-4.047101295411657</v>
+        <v>-1.681504773628465</v>
       </c>
       <c r="AH7" t="n">
-        <v>-19.91365273005714</v>
+        <v>-4.143094137744581</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.201209542120996</v>
+        <v>-1.571017403004453</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-3.783616105343145</v>
+        <v>-1.3960638249464</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.306092003589719</v>
+        <v>-1</v>
       </c>
       <c r="AL7" t="n">
-        <v>-1</v>
+        <v>-0.7388027361344862</v>
       </c>
       <c r="AM7" t="n">
-        <v>-11.14397525505421</v>
+        <v>-1.167212376426046</v>
       </c>
       <c r="AN7" t="n">
-        <v>-1</v>
+        <v>-3.524906884033296</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.391729162202724</v>
+        <v>-1.181430434780835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44809</v>
+        <v>44814</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.414991054604295</v>
+        <v>-0.7012548015602321</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.597805053208813</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.597805053208813</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7395684157184116</v>
+        <v>-0.8753034003344893</v>
       </c>
       <c r="G8" t="n">
         <v>-1</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.597805053208813</v>
+        <v>-1</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>3.951720044688599</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.301342543874189</v>
+        <v>-1.627298683751868</v>
       </c>
       <c r="K8" t="n">
         <v>-1</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.774457003557943</v>
+        <v>-2.2549813887365</v>
       </c>
       <c r="M8" t="n">
-        <v>1.634279695141541</v>
+        <v>1.084501116982048</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.597805053208813</v>
+        <v>-1</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.275702943074665</v>
+        <v>-1</v>
       </c>
       <c r="P8" t="n">
-        <v>1.886450059120923</v>
+        <v>-0.7121761767073111</v>
       </c>
       <c r="Q8" t="n">
         <v>-1</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.4553867812979426</v>
+        <v>0.5084710069912236</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2026875246337208</v>
+        <v>-1.596905456120744</v>
       </c>
       <c r="T8" t="n">
-        <v>-1</v>
+        <v>-1.064131045791684</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.6656621553141719</v>
+        <v>-3.823708124657138</v>
       </c>
       <c r="V8" t="n">
-        <v>-1</v>
+        <v>-2.469542722939845</v>
       </c>
       <c r="W8" t="n">
-        <v>-2.799033970366224</v>
+        <v>2.976590818011104</v>
       </c>
       <c r="X8" t="n">
-        <v>-2.864868402136552</v>
+        <v>-1.907486542054473</v>
       </c>
       <c r="Y8" t="n">
-        <v>-17.48515162520619</v>
+        <v>-2.248789046357873</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1.201380236682859</v>
+        <v>1.823708124657134</v>
       </c>
       <c r="AA8" t="n">
-        <v>-2.573235459929659</v>
+        <v>-1.709592280547273</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.3873101289601855</v>
+        <v>-1</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1</v>
+        <v>-2.012351653580777</v>
       </c>
       <c r="AD8" t="n">
         <v>-1</v>
       </c>
       <c r="AE8" t="n">
-        <v>-3.880529894918133</v>
+        <v>-0.3173762858977207</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.118140791277556</v>
+        <v>-1</v>
       </c>
       <c r="AG8" t="n">
-        <v>-8.235674420129554</v>
+        <v>-1.461091340193672</v>
       </c>
       <c r="AH8" t="n">
-        <v>-54.53780235059513</v>
+        <v>2.804267917471887</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.246955183579968</v>
+        <v>-1.209913178220475</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.936068262437597</v>
+        <v>-2.162138377835075</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.08241877217033911</v>
+        <v>-1</v>
       </c>
       <c r="AL8" t="n">
-        <v>-1</v>
+        <v>-1.961093342007066</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.722969025299267</v>
+        <v>-2.154286091498342</v>
       </c>
       <c r="AN8" t="n">
         <v>-1</v>
       </c>
       <c r="AO8" t="n">
-        <v>-5.329675088681366</v>
+        <v>1.077013271024409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44810</v>
+        <v>44815</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.803539891137714</v>
+        <v>16.6272127004062</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.010763574168243</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.010763574168243</v>
+        <v>-1</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.135342856661933</v>
+        <v>-1.347489898615015</v>
       </c>
       <c r="G9" t="n">
-        <v>-1</v>
+        <v>-70.67172467230138</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.010763574168243</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="n">
         <v>-1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.32017976573031</v>
+        <v>17.35739800727086</v>
       </c>
       <c r="K9" t="n">
         <v>-1</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.860300969423898</v>
+        <v>2.317701174871393</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.041042151498869</v>
+        <v>-18.50373378466678</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.010763574168243</v>
+        <v>-1</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.567686109515398</v>
+        <v>-29.20045998640762</v>
       </c>
       <c r="P9" t="n">
-        <v>-1</v>
+        <v>17.27116690338639</v>
       </c>
       <c r="Q9" t="n">
         <v>-1</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.543765213951271</v>
+        <v>6.817949303162506</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.3576455790332684</v>
+        <v>5.273407412230541</v>
       </c>
       <c r="T9" t="n">
-        <v>-1</v>
+        <v>-3.239736933040443</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.500494745323836</v>
+        <v>-16.12024663101004</v>
       </c>
       <c r="V9" t="n">
-        <v>-1.892193231813891</v>
+        <v>-4.120999524187487</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.2957794770139276</v>
+        <v>-13.12302271677713</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1349914994850095</v>
+        <v>-20.20679977452627</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.43578719716219</v>
+        <v>-6.258243371494427</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.5583813355853731</v>
+        <v>2.227300597899596</v>
       </c>
       <c r="AA9" t="n">
-        <v>-1.211897744808812</v>
+        <v>5.502694302747981</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1.366461674994646</v>
+        <v>-1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1</v>
+        <v>42.06979343378632</v>
       </c>
       <c r="AD9" t="n">
         <v>-1</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.4224026358869876</v>
+        <v>-18.76467482099855</v>
       </c>
       <c r="AF9" t="n">
         <v>-1</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.2589736051572553</v>
+        <v>-1.585766231171751</v>
       </c>
       <c r="AH9" t="n">
-        <v>-4.131129765878286</v>
+        <v>-71.6995513715422</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.7092279756303997</v>
+        <v>56.43839508937208</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.4630318512231191</v>
+        <v>-1</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.02941322062087169</v>
+        <v>-1</v>
       </c>
       <c r="AL9" t="n">
-        <v>-1</v>
+        <v>115.4172835336318</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.4084547606917001</v>
+        <v>23.33738327594081</v>
       </c>
       <c r="AN9" t="n">
         <v>-1</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.09563259153367636</v>
+        <v>2.589149452815612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44811</v>
+        <v>44816</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.365146953504313</v>
+        <v>-2.590925436381622</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.93704661215135</v>
+        <v>-1.647174125711161</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.93704661215135</v>
+        <v>-1.647174125711161</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7890875146729553</v>
+        <v>-2.1692082832001</v>
       </c>
       <c r="G10" t="n">
         <v>-1</v>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>-1.647174125711161</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
+        <v>-2.24041707427973</v>
       </c>
       <c r="J10" t="n">
-        <v>1.118057035859656</v>
+        <v>-0.0879286218531415</v>
       </c>
       <c r="K10" t="n">
         <v>-1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.231814574870018</v>
+        <v>-2.000672597738271</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7868642007661841</v>
+        <v>-2.486023782830958</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.93704661215135</v>
+        <v>-1.647174125711161</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.692381521598871</v>
+        <v>-1</v>
       </c>
       <c r="P10" t="n">
-        <v>-1</v>
+        <v>-2.599212304144913</v>
       </c>
       <c r="Q10" t="n">
         <v>-1</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.4762067834488705</v>
+        <v>-1.294752572106076</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.6720016918721469</v>
+        <v>-1.031369873322144</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.042021926404567</v>
+        <v>-1.063558970886093</v>
       </c>
       <c r="U10" t="n">
-        <v>-5.869413617898235</v>
+        <v>-2.2831900768411</v>
       </c>
       <c r="V10" t="n">
-        <v>-1.380235075718606</v>
+        <v>-2.104053342935072</v>
       </c>
       <c r="W10" t="n">
-        <v>1.018663744685811</v>
+        <v>-2.722231970900779</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.140250642683092</v>
+        <v>-2.633471044318985</v>
       </c>
       <c r="Y10" t="n">
-        <v>-2.395321605616596</v>
+        <v>-2.30087437705975</v>
       </c>
       <c r="Z10" t="n">
-        <v>-2.273345369848321</v>
+        <v>-2.698832079991805</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.604792167564187</v>
+        <v>-1.417987656855572</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.756830118356322</v>
+        <v>-1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1</v>
+        <v>-1.652851091726175</v>
       </c>
       <c r="AD10" t="n">
         <v>-1</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.1687702560116454</v>
+        <v>-0.8350234980176582</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.844231362934734</v>
+        <v>-2.984667318847569</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.8639543210945522</v>
+        <v>-2.517975746346284</v>
       </c>
       <c r="AH10" t="n">
-        <v>23.80525109174165</v>
+        <v>-7.937475494007345</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.6265999643908</v>
+        <v>-2.335643509693031</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.161336219874123</v>
+        <v>-2.804243017134151</v>
       </c>
       <c r="AK10" t="n">
-        <v>-2.76246301191452</v>
+        <v>-1</v>
       </c>
       <c r="AL10" t="n">
-        <v>-1</v>
+        <v>-3.192365061517659</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.3688462725869631</v>
+        <v>-1.501178615870599</v>
       </c>
       <c r="AN10" t="n">
         <v>-1</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.3815453587709589</v>
+        <v>-2.714030866277442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44812</v>
+        <v>44817</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.915827934490828</v>
+        <v>-1.107327621446991</v>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>-1.918474008469537</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>-1.918474008469537</v>
       </c>
       <c r="F11" t="n">
-        <v>1.683930446784453</v>
+        <v>-1.500051858971204</v>
       </c>
       <c r="G11" t="n">
-        <v>-1</v>
+        <v>-1.645802037205145</v>
       </c>
       <c r="H11" t="n">
-        <v>-1</v>
+        <v>-1.918474008469537</v>
       </c>
       <c r="I11" t="n">
         <v>-1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.607603978807896</v>
+        <v>-1.043053469147009</v>
       </c>
       <c r="K11" t="n">
         <v>-1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08735064517855609</v>
+        <v>-1.149751197033077</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.905404167953076</v>
+        <v>-1.342624466510234</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.923379678971516</v>
+        <v>-1.918474008469537</v>
       </c>
       <c r="O11" t="n">
-        <v>1.998360828759331</v>
+        <v>-1</v>
       </c>
       <c r="P11" t="n">
-        <v>-1</v>
+        <v>-1.109781433054081</v>
       </c>
       <c r="Q11" t="n">
         <v>-1</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.517457477083707</v>
+        <v>-0.9655572246823934</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6180813172300028</v>
+        <v>-0.8701633600592803</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.04668811832735</v>
+        <v>-0.9938820637669662</v>
       </c>
       <c r="U11" t="n">
-        <v>18.57118521406505</v>
+        <v>-1.973047015699231</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.642866151475668</v>
+        <v>-1.382697503528974</v>
       </c>
       <c r="W11" t="n">
-        <v>4.897304635524216</v>
+        <v>-1.864530019846419</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4182232922989857</v>
+        <v>-0.9552044829684299</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3591883064732025</v>
+        <v>-1.169192580507547</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.80240163083076</v>
+        <v>-1.059384095375185</v>
       </c>
       <c r="AA11" t="n">
-        <v>-1.075454569197247</v>
+        <v>-1.245629934911623</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.530627688243996</v>
+        <v>-1</v>
       </c>
       <c r="AC11" t="n">
-        <v>-1</v>
+        <v>-0.9073288556476926</v>
       </c>
       <c r="AD11" t="n">
-        <v>-1</v>
+        <v>0.7221387658803838</v>
       </c>
       <c r="AE11" t="n">
-        <v>-1.401335129864153</v>
+        <v>-1.181252726464207</v>
       </c>
       <c r="AF11" t="n">
-        <v>-1</v>
+        <v>-1.738059471091594</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.983468196597126</v>
+        <v>-1.122431192974245</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.091783735036505</v>
+        <v>-2.675594474910645</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.905008521907058</v>
+        <v>-1.204248667613778</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.203675174659381</v>
+        <v>-0.8900762489863587</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.3413042498090741</v>
+        <v>-1</v>
       </c>
       <c r="AL11" t="n">
-        <v>-1</v>
+        <v>-1.430534691470096</v>
       </c>
       <c r="AM11" t="n">
-        <v>-1.335326062452278</v>
+        <v>-0.964491984208651</v>
       </c>
       <c r="AN11" t="n">
         <v>-1</v>
       </c>
       <c r="AO11" t="n">
-        <v>-1.910170740941864</v>
+        <v>-1.463652744660104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44813</v>
+        <v>44818</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.529709463743345</v>
+        <v>-1.325491178137254</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.971118032320499</v>
+        <v>-1.972045083008541</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.971118032320499</v>
+        <v>-1.972045083008541</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.55625576627631</v>
+        <v>-1.466725573354253</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.122180837348132</v>
+        <v>-1</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.971118032320499</v>
+        <v>-1.972045083008541</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.807970202890655</v>
+        <v>-3.070878655105145</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.550995350201114</v>
+        <v>-0.7731894806313421</v>
       </c>
       <c r="K12" t="n">
         <v>-1</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.425247475205608</v>
+        <v>-1.674648853646146</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.480172466060215</v>
+        <v>-1.879081039834898</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.971118032320499</v>
+        <v>-1.972045083008541</v>
       </c>
       <c r="O12" t="n">
-        <v>-1.452847784223266</v>
+        <v>-1</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.459073978915145</v>
+        <v>-1.555017638118416</v>
       </c>
       <c r="Q12" t="n">
         <v>-1</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.298866529130471</v>
+        <v>-1.471586228390283</v>
       </c>
       <c r="S12" t="n">
-        <v>-1.536542712857077</v>
+        <v>-0.8495888134713124</v>
       </c>
       <c r="T12" t="n">
         <v>-1</v>
       </c>
       <c r="U12" t="n">
-        <v>-2.039152428573241</v>
+        <v>-1.19600909081242</v>
       </c>
       <c r="V12" t="n">
-        <v>-1.660360261977938</v>
+        <v>-1.883209174760075</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.60179127805975</v>
+        <v>-1.532812508211798</v>
       </c>
       <c r="X12" t="n">
-        <v>-1.476460833930537</v>
+        <v>-0.1764228979697148</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.377208603401081</v>
+        <v>-4.060791338041535</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.4914872848939933</v>
+        <v>-3.012544045102179</v>
       </c>
       <c r="AA12" t="n">
-        <v>-1.457030622925909</v>
+        <v>0.4632936733461799</v>
       </c>
       <c r="AB12" t="n">
-        <v>-1.553988008311103</v>
+        <v>-1</v>
       </c>
       <c r="AC12" t="n">
         <v>-1</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1</v>
+        <v>6.938368177903047</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.659955320820297</v>
+        <v>-2.032913181185544</v>
       </c>
       <c r="AF12" t="n">
-        <v>-1.631226721008324</v>
+        <v>-1</v>
       </c>
       <c r="AG12" t="n">
-        <v>-1.681504773628465</v>
+        <v>-1.679029088388132</v>
       </c>
       <c r="AH12" t="n">
-        <v>-4.143094137744581</v>
+        <v>7.876538962564319</v>
       </c>
       <c r="AI12" t="n">
-        <v>-1.571017403004453</v>
+        <v>-0.7709168301366681</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-1.3960638249464</v>
+        <v>0.01340870356208846</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.7388027361344862</v>
+        <v>-1</v>
       </c>
       <c r="AL12" t="n">
-        <v>-1</v>
+        <v>0.6679839751235981</v>
       </c>
       <c r="AM12" t="n">
-        <v>-1.167212376426046</v>
+        <v>-1.162560440503129</v>
       </c>
       <c r="AN12" t="n">
-        <v>-3.524906884033296</v>
+        <v>-1</v>
       </c>
       <c r="AO12" t="n">
-        <v>-1.181430434780835</v>
+        <v>-0.1260512097721439</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44814</v>
+        <v>44819</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7012548015602321</v>
+        <v>3.645825568552467</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>-2.767709586133706</v>
       </c>
       <c r="E13" t="n">
-        <v>-1</v>
+        <v>-2.767709586133706</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8753034003344893</v>
+        <v>0.4171672336346685</v>
       </c>
       <c r="G13" t="n">
         <v>-1</v>
       </c>
       <c r="H13" t="n">
-        <v>-1</v>
+        <v>-2.767709586133706</v>
       </c>
       <c r="I13" t="n">
-        <v>3.951720044688599</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.627298683751868</v>
+        <v>-1.579749715189944</v>
       </c>
       <c r="K13" t="n">
         <v>-1</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.2549813887365</v>
+        <v>0.4813208822349498</v>
       </c>
       <c r="M13" t="n">
-        <v>1.084501116982048</v>
+        <v>0.456103448215573</v>
       </c>
       <c r="N13" t="n">
-        <v>-1</v>
+        <v>-2.767709586133706</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.7121761767073111</v>
+        <v>1.055476262946184</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>2.431683817878768</v>
       </c>
       <c r="Q13" t="n">
         <v>-1</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.596905456120744</v>
+        <v>0.7330486138565907</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5084710069912236</v>
+        <v>0.1188035355276625</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.064131045791684</v>
+        <v>-0.9625245567739671</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.469542722939845</v>
+        <v>-4.287063280000694</v>
       </c>
       <c r="V13" t="n">
-        <v>-3.823708124657138</v>
+        <v>-0.655640989714216</v>
       </c>
       <c r="W13" t="n">
-        <v>1.823708124657134</v>
+        <v>2.453941576112974</v>
       </c>
       <c r="X13" t="n">
-        <v>2.976590818011104</v>
+        <v>-12.46692078468661</v>
       </c>
       <c r="Y13" t="n">
-        <v>-2.248789046357873</v>
+        <v>-1.890415751233838</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.907486542054473</v>
+        <v>-0.7617642067205183</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.709592280547273</v>
+        <v>1.727083617848683</v>
       </c>
       <c r="AB13" t="n">
-        <v>-2.012351653580777</v>
+        <v>-1</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1</v>
+        <v>2.94578032619132</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1</v>
+        <v>13.73091321778093</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.3173762858977207</v>
+        <v>1.27501432738451</v>
       </c>
       <c r="AF13" t="n">
         <v>-1</v>
       </c>
       <c r="AG13" t="n">
-        <v>-1.461091340193672</v>
+        <v>-1.924097760036166</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.804267917471887</v>
+        <v>11.57450405619101</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.209913178220475</v>
+        <v>-4.118028534370947</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-2.162138377835075</v>
+        <v>0.9214234631888117</v>
       </c>
       <c r="AK13" t="n">
-        <v>-1.961093342007066</v>
+        <v>-1</v>
       </c>
       <c r="AL13" t="n">
-        <v>-1</v>
+        <v>-1.707083834453483</v>
       </c>
       <c r="AM13" t="n">
-        <v>-2.154286091498342</v>
+        <v>0.1943983690092613</v>
       </c>
       <c r="AN13" t="n">
         <v>-1</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.077013271024409</v>
+        <v>0.1223552927833057</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44815</v>
+        <v>44820</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>16.6272127004062</v>
+        <v>1.912810904032143</v>
       </c>
       <c r="D14" t="n">
         <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>-2.586170289419946</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.347489898615015</v>
+        <v>-2.306393897262791</v>
       </c>
       <c r="G14" t="n">
-        <v>-70.67172467230138</v>
+        <v>-1</v>
       </c>
       <c r="H14" t="n">
         <v>-1</v>
@@ -2175,61 +2175,61 @@
         <v>-1</v>
       </c>
       <c r="J14" t="n">
-        <v>17.35739800727086</v>
+        <v>1.673320712505534</v>
       </c>
       <c r="K14" t="n">
         <v>-1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.317701174871393</v>
+        <v>0.351849678482909</v>
       </c>
       <c r="M14" t="n">
-        <v>-18.50373378466678</v>
+        <v>0.8598311601239029</v>
       </c>
       <c r="N14" t="n">
-        <v>-1</v>
+        <v>-2.586170289419946</v>
       </c>
       <c r="O14" t="n">
-        <v>17.27116690338639</v>
+        <v>0.8882979635951747</v>
       </c>
       <c r="P14" t="n">
-        <v>-29.20045998640762</v>
+        <v>1.740149561703439</v>
       </c>
       <c r="Q14" t="n">
         <v>-1</v>
       </c>
       <c r="R14" t="n">
-        <v>5.273407412230541</v>
+        <v>0.8443840574650611</v>
       </c>
       <c r="S14" t="n">
-        <v>6.817949303162506</v>
+        <v>0.7037274859505334</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.239736933040443</v>
+        <v>-0.8378933964212774</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.120999524187487</v>
+        <v>-1.634468115767979</v>
       </c>
       <c r="V14" t="n">
-        <v>-16.12024663101004</v>
+        <v>-3.791825150869536</v>
       </c>
       <c r="W14" t="n">
-        <v>2.227300597899596</v>
+        <v>0.407353597084503</v>
       </c>
       <c r="X14" t="n">
-        <v>-13.12302271677713</v>
+        <v>-4.511054026059783</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.258243371494427</v>
+        <v>5.713286451015043</v>
       </c>
       <c r="Z14" t="n">
-        <v>-20.20679977452627</v>
+        <v>-5.286946728162029</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.502694302747981</v>
+        <v>-0.547547187207019</v>
       </c>
       <c r="AB14" t="n">
-        <v>42.06979343378632</v>
+        <v>-1</v>
       </c>
       <c r="AC14" t="n">
         <v>-1</v>
@@ -2238,620 +2238,620 @@
         <v>-1</v>
       </c>
       <c r="AE14" t="n">
-        <v>-18.76467482099855</v>
+        <v>-3.62589417184039</v>
       </c>
       <c r="AF14" t="n">
         <v>-1</v>
       </c>
       <c r="AG14" t="n">
-        <v>-1.585766231171751</v>
+        <v>-1.858460189944186</v>
       </c>
       <c r="AH14" t="n">
-        <v>-71.6995513715422</v>
+        <v>-26.64798075582873</v>
       </c>
       <c r="AI14" t="n">
-        <v>56.43839508937208</v>
+        <v>-5.164318549809432</v>
       </c>
       <c r="AJ14" t="n">
         <v>-1</v>
       </c>
       <c r="AK14" t="n">
-        <v>115.4172835336318</v>
+        <v>-1</v>
       </c>
       <c r="AL14" t="n">
-        <v>-1</v>
+        <v>4.035461236253815</v>
       </c>
       <c r="AM14" t="n">
-        <v>23.33738327594081</v>
+        <v>-1</v>
       </c>
       <c r="AN14" t="n">
         <v>-1</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.589149452815612</v>
+        <v>-2.275056502749146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44816</v>
+        <v>44821</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.590925436381622</v>
+        <v>-0.9358524806968435</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.647174125711161</v>
+        <v>-1.858156743941452</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.647174125711161</v>
+        <v>-1.858156743941452</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.1692082832001</v>
+        <v>-1.147794346546032</v>
       </c>
       <c r="G15" t="n">
-        <v>-1</v>
+        <v>4.148940463648728</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.647174125711161</v>
+        <v>-1.858156743941452</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.24041707427973</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0879286218531415</v>
+        <v>-0.5727541775129807</v>
       </c>
       <c r="K15" t="n">
         <v>-1</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.000672597738271</v>
+        <v>-0.1196495471635073</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.486023782830958</v>
+        <v>-0.7002329182122329</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.647174125711161</v>
+        <v>-1.858156743941452</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.599212304144913</v>
+        <v>-1</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>-0.7455641993356034</v>
       </c>
       <c r="Q15" t="n">
         <v>-1</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.031369873322144</v>
+        <v>-0.7032813970100744</v>
       </c>
       <c r="S15" t="n">
-        <v>-1.294752572106076</v>
+        <v>-0.8082541338838376</v>
       </c>
       <c r="T15" t="n">
-        <v>-1.063558970886093</v>
+        <v>-1.043835973847317</v>
       </c>
       <c r="U15" t="n">
-        <v>-2.104053342935072</v>
+        <v>-1.871832548625773</v>
       </c>
       <c r="V15" t="n">
-        <v>-2.2831900768411</v>
+        <v>-1.440967193360343</v>
       </c>
       <c r="W15" t="n">
-        <v>-2.698832079991805</v>
+        <v>0.03469357588141817</v>
       </c>
       <c r="X15" t="n">
-        <v>-2.722231970900779</v>
+        <v>-0.08031903955841804</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.30087437705975</v>
+        <v>-1.453533615969059</v>
       </c>
       <c r="Z15" t="n">
-        <v>-2.633471044318985</v>
+        <v>0.2439946598221138</v>
       </c>
       <c r="AA15" t="n">
-        <v>-1.417987656855572</v>
+        <v>-0.8562693138226101</v>
       </c>
       <c r="AB15" t="n">
-        <v>-1.652851091726175</v>
+        <v>7.753198788202829</v>
       </c>
       <c r="AC15" t="n">
-        <v>-1</v>
+        <v>-0.7954860096214298</v>
       </c>
       <c r="AD15" t="n">
         <v>-1</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.8350234980176582</v>
+        <v>-1.226465936539678</v>
       </c>
       <c r="AF15" t="n">
-        <v>-2.984667318847569</v>
+        <v>-1</v>
       </c>
       <c r="AG15" t="n">
-        <v>-2.517975746346284</v>
+        <v>-0.7253785056541395</v>
       </c>
       <c r="AH15" t="n">
-        <v>-7.937475494007345</v>
+        <v>-2.992727349853906</v>
       </c>
       <c r="AI15" t="n">
-        <v>-2.335643509693031</v>
+        <v>-0.5811095739126202</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-2.804243017134151</v>
+        <v>-1</v>
       </c>
       <c r="AK15" t="n">
-        <v>-3.192365061517659</v>
+        <v>-1</v>
       </c>
       <c r="AL15" t="n">
-        <v>-1</v>
+        <v>1.421097537162489</v>
       </c>
       <c r="AM15" t="n">
-        <v>-1.501178615870599</v>
+        <v>-1</v>
       </c>
       <c r="AN15" t="n">
         <v>-1</v>
       </c>
       <c r="AO15" t="n">
-        <v>-2.714030866277442</v>
+        <v>-1.276999961651988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44817</v>
+        <v>44822</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.107327621446991</v>
+        <v>1.451803659127537</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.918474008469537</v>
+        <v>-2.152820128972818</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.918474008469537</v>
+        <v>-2.152820128972818</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.500051858971204</v>
+        <v>-0.7764247702753461</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.645802037205145</v>
+        <v>-4.033737181507427</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.918474008469537</v>
+        <v>-2.152820128972818</v>
       </c>
       <c r="I16" t="n">
         <v>-1</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.043053469147009</v>
+        <v>-0.4100559243667122</v>
       </c>
       <c r="K16" t="n">
         <v>-1</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.149751197033077</v>
+        <v>0.9429552735496943</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.342624466510234</v>
+        <v>-0.2197494896968984</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.918474008469537</v>
+        <v>-2.152820128972818</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.109781433054081</v>
+        <v>0.4058782060644128</v>
       </c>
       <c r="P16" t="n">
-        <v>-1</v>
+        <v>1.398330112474838</v>
       </c>
       <c r="Q16" t="n">
         <v>-1</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.8701633600592803</v>
+        <v>-0.03286901931811036</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.9655572246823934</v>
+        <v>-0.3727855663912815</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.9938820637669662</v>
+        <v>-0.8995317257600157</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.382697503528974</v>
+        <v>1.556657544092957</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.973047015699231</v>
+        <v>-0.1211028241630275</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.059384095375185</v>
+        <v>0.1115345596156696</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.864530019846419</v>
+        <v>2.861120049191273</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.169192580507547</v>
+        <v>1.751200540621979</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.9552044829684299</v>
+        <v>-0.7117949677567954</v>
       </c>
       <c r="AA16" t="n">
-        <v>-1.245629934911623</v>
+        <v>-0.5765150546630501</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.9073288556476926</v>
+        <v>-1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.7221387658803838</v>
+        <v>0.334282556681503</v>
       </c>
       <c r="AD16" t="n">
         <v>-1</v>
       </c>
       <c r="AE16" t="n">
-        <v>-1.181252726464207</v>
+        <v>-1.485803800169153</v>
       </c>
       <c r="AF16" t="n">
-        <v>-1.738059471091594</v>
+        <v>-1</v>
       </c>
       <c r="AG16" t="n">
-        <v>-1.122431192974245</v>
+        <v>1.056922475986859</v>
       </c>
       <c r="AH16" t="n">
-        <v>-2.675594474910645</v>
+        <v>2.749620692498634</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1.204248667613778</v>
+        <v>1.336515643231192</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.8900762489863587</v>
+        <v>0.2668353065635455</v>
       </c>
       <c r="AK16" t="n">
-        <v>-1.430534691470096</v>
+        <v>-1</v>
       </c>
       <c r="AL16" t="n">
-        <v>-1</v>
+        <v>-4.873111105244654</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.964491984208651</v>
+        <v>-0.4098190466009408</v>
       </c>
       <c r="AN16" t="n">
         <v>-1</v>
       </c>
       <c r="AO16" t="n">
-        <v>-1.463652744660104</v>
+        <v>0.4685606738507242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44818</v>
+        <v>44823</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.325491178137254</v>
+        <v>-1.04553693879662</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.972045083008541</v>
+        <v>-1.607852683879538</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.972045083008541</v>
+        <v>-1.607852683879538</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.466725573354253</v>
+        <v>-1.181132470396477</v>
       </c>
       <c r="G17" t="n">
         <v>-1</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.972045083008541</v>
+        <v>-2.21570536775908</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.070878655105145</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.7731894806313421</v>
+        <v>-1.961693935991896</v>
       </c>
       <c r="K17" t="n">
         <v>-1</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.674648853646146</v>
+        <v>0.171530027360856</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.879081039834898</v>
+        <v>-0.3608147035493522</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.972045083008541</v>
+        <v>-1.607852683879538</v>
       </c>
       <c r="O17" t="n">
-        <v>-1.555017638118416</v>
+        <v>-1</v>
       </c>
       <c r="P17" t="n">
-        <v>-1</v>
+        <v>-1.009808587575693</v>
       </c>
       <c r="Q17" t="n">
         <v>-1</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.8495888134713124</v>
+        <v>-0.1506715923874949</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.471586228390283</v>
+        <v>-0.5225447565566648</v>
       </c>
       <c r="T17" t="n">
-        <v>-1</v>
+        <v>-1.07887943169364</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.883209174760075</v>
+        <v>-1.791501792626125</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.19600909081242</v>
+        <v>-1.680010679901368</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.012544045102179</v>
+        <v>0.6771642115419733</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.532812508211798</v>
+        <v>-2.276725328302972</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.060791338041535</v>
+        <v>0.3130961292646419</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.1764228979697148</v>
+        <v>0.4020320698528078</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.4632936733461799</v>
+        <v>-1.790308464813776</v>
       </c>
       <c r="AB17" t="n">
         <v>-1</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.938368177903047</v>
+        <v>-0.7061565224847731</v>
       </c>
       <c r="AD17" t="n">
         <v>-1</v>
       </c>
       <c r="AE17" t="n">
-        <v>-2.032913181185544</v>
+        <v>-0.5392885200907653</v>
       </c>
       <c r="AF17" t="n">
-        <v>-1</v>
+        <v>-3.066699125190433</v>
       </c>
       <c r="AG17" t="n">
-        <v>-1.679029088388132</v>
+        <v>-0.458713316084215</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.876538962564319</v>
+        <v>-4.269920290448757</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.7709168301366681</v>
+        <v>-2.202202616121698</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.01340870356208846</v>
+        <v>-0.6516799227207142</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.6679839751235981</v>
+        <v>-1</v>
       </c>
       <c r="AL17" t="n">
-        <v>-1</v>
+        <v>-4.111573032349912</v>
       </c>
       <c r="AM17" t="n">
-        <v>-1.162560440503129</v>
+        <v>-0.4636593965768812</v>
       </c>
       <c r="AN17" t="n">
         <v>-1</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.1260512097721439</v>
+        <v>-2.514681769276381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44819</v>
+        <v>44824</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3.645825568552467</v>
+        <v>-1.495048324536894</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.767709586133706</v>
+        <v>-2.284059167988855</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.767709586133706</v>
+        <v>-2.284059167988855</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4171672336346685</v>
+        <v>-1.735063199576499</v>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>-2.637175439185785</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.767709586133706</v>
+        <v>-1.629682861225306</v>
       </c>
       <c r="I18" t="n">
         <v>-1</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.579749715189944</v>
+        <v>-0.8444488893885239</v>
       </c>
       <c r="K18" t="n">
         <v>-1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4813208822349498</v>
+        <v>-1.299483312046183</v>
       </c>
       <c r="M18" t="n">
-        <v>0.456103448215573</v>
+        <v>-1.058158985406245</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.767709586133706</v>
+        <v>-2.284059167988855</v>
       </c>
       <c r="O18" t="n">
-        <v>2.431683817878768</v>
+        <v>-1</v>
       </c>
       <c r="P18" t="n">
-        <v>1.055476262946184</v>
+        <v>-1.559260740090656</v>
       </c>
       <c r="Q18" t="n">
         <v>-1</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1188035355276625</v>
+        <v>-1.116524942290806</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7330486138565907</v>
+        <v>-1.037040168307372</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.9625245567739671</v>
+        <v>-1</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.655640989714216</v>
+        <v>-2.238199911989249</v>
       </c>
       <c r="V18" t="n">
-        <v>-4.287063280000694</v>
+        <v>-2.114307890545301</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.7617642067205183</v>
+        <v>-1.58275432763009</v>
       </c>
       <c r="X18" t="n">
-        <v>2.453941576112974</v>
+        <v>1.362093917233229</v>
       </c>
       <c r="Y18" t="n">
-        <v>-1.890415751233838</v>
+        <v>-0.7481268555098769</v>
       </c>
       <c r="Z18" t="n">
-        <v>-12.46692078468661</v>
+        <v>-0.04207820047639996</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.727083617848683</v>
+        <v>-0.8947154058401395</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.94578032619132</v>
+        <v>-1</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.73091321778093</v>
+        <v>-0.8410509282343898</v>
       </c>
       <c r="AD18" t="n">
-        <v>-1</v>
+        <v>-7.548701756743156</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.27501432738451</v>
+        <v>-2.209713310454346</v>
       </c>
       <c r="AF18" t="n">
-        <v>-1</v>
+        <v>-3.046469298982238</v>
       </c>
       <c r="AG18" t="n">
-        <v>-1.924097760036166</v>
+        <v>-2.024123645711357</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.57450405619101</v>
+        <v>-0.907170464788434</v>
       </c>
       <c r="AI18" t="n">
-        <v>-4.118028534370947</v>
+        <v>-1.132418601698847</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.9214234631888117</v>
+        <v>-1.752724339855533</v>
       </c>
       <c r="AK18" t="n">
-        <v>-1.707083834453483</v>
+        <v>-1</v>
       </c>
       <c r="AL18" t="n">
-        <v>-1</v>
+        <v>0.7841014401383584</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.1943983690092613</v>
+        <v>-0.8838882667244093</v>
       </c>
       <c r="AN18" t="n">
         <v>-1</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.1223552927833057</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44820</v>
+        <v>44825</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1.912810904032143</v>
+        <v>-1.399732612116823</v>
       </c>
       <c r="D19" t="n">
-        <v>-1</v>
+        <v>-2.071539275155148</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.586170289419946</v>
+        <v>-2.071539275155148</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.306393897262791</v>
+        <v>-1.159085701194052</v>
       </c>
       <c r="G19" t="n">
         <v>-1</v>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>-1.535769637577576</v>
       </c>
       <c r="I19" t="n">
-        <v>-1</v>
+        <v>0.234599599635279</v>
       </c>
       <c r="J19" t="n">
-        <v>1.673320712505534</v>
+        <v>-0.6778984925130661</v>
       </c>
       <c r="K19" t="n">
         <v>-1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.351849678482909</v>
+        <v>-0.7426363372361536</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8598311601239029</v>
+        <v>-0.9493836171272525</v>
       </c>
       <c r="N19" t="n">
-        <v>-2.586170289419946</v>
+        <v>-1.546072899838679</v>
       </c>
       <c r="O19" t="n">
-        <v>1.740149561703439</v>
+        <v>-1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8882979635951747</v>
+        <v>-1.414117020388449</v>
       </c>
       <c r="Q19" t="n">
         <v>-1</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7037274859505334</v>
+        <v>0.006942935872741806</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8443840574650611</v>
+        <v>-0.3582872137488968</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.8378933964212774</v>
+        <v>-1.001107606412261</v>
       </c>
       <c r="U19" t="n">
-        <v>-3.791825150869536</v>
+        <v>-3.644142462376769</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.634468115767979</v>
+        <v>-1.179720194883617</v>
       </c>
       <c r="W19" t="n">
-        <v>-5.286946728162029</v>
+        <v>-0.3071675225644728</v>
       </c>
       <c r="X19" t="n">
-        <v>0.407353597084503</v>
+        <v>-0.3909749964265669</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.713286451015043</v>
+        <v>-0.9632654711622134</v>
       </c>
       <c r="Z19" t="n">
-        <v>-4.511054026059783</v>
+        <v>-0.6896634886162697</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.547547187207019</v>
+        <v>-1.160428196562778</v>
       </c>
       <c r="AB19" t="n">
         <v>-1</v>
@@ -2860,676 +2860,676 @@
         <v>-1</v>
       </c>
       <c r="AD19" t="n">
-        <v>-1</v>
+        <v>-5.732631798601899</v>
       </c>
       <c r="AE19" t="n">
-        <v>-3.62589417184039</v>
+        <v>-1.555224959612515</v>
       </c>
       <c r="AF19" t="n">
         <v>-1</v>
       </c>
       <c r="AG19" t="n">
-        <v>-1.858460189944186</v>
+        <v>-0.4783176813946343</v>
       </c>
       <c r="AH19" t="n">
-        <v>-26.64798075582873</v>
+        <v>-2.118321077944016</v>
       </c>
       <c r="AI19" t="n">
-        <v>-5.164318549809432</v>
+        <v>-1.108975074309913</v>
       </c>
       <c r="AJ19" t="n">
         <v>-1</v>
       </c>
       <c r="AK19" t="n">
-        <v>4.035461236253815</v>
+        <v>-1</v>
       </c>
       <c r="AL19" t="n">
-        <v>-1</v>
+        <v>1.494224866830735</v>
       </c>
       <c r="AM19" t="n">
-        <v>-1</v>
+        <v>-0.7978947274618411</v>
       </c>
       <c r="AN19" t="n">
         <v>-1</v>
       </c>
       <c r="AO19" t="n">
-        <v>-2.275056502749146</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44821</v>
+        <v>44826</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9358524806968435</v>
+        <v>-3.496582212767787</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.858156743941452</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.858156743941452</v>
+        <v>-1</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.147794346546032</v>
+        <v>-0.6660880836720533</v>
       </c>
       <c r="G20" t="n">
-        <v>4.148940463648728</v>
+        <v>15.42451053240941</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.858156743941452</v>
+        <v>-1</v>
       </c>
       <c r="I20" t="n">
         <v>-1</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.5727541775129807</v>
+        <v>0.2466797151105928</v>
       </c>
       <c r="K20" t="n">
         <v>-1</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.1196495471635073</v>
+        <v>1.096746025413978</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.7002329182122329</v>
+        <v>-0.3829790318772879</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.858156743941452</v>
+        <v>-1</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.7455641993356034</v>
+        <v>-1</v>
       </c>
       <c r="P20" t="n">
-        <v>-1</v>
+        <v>-3.535501111873967</v>
       </c>
       <c r="Q20" t="n">
         <v>-1</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.8082541338838376</v>
+        <v>1.784778602380835</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.7032813970100744</v>
+        <v>1.183817601515897</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.043835973847317</v>
+        <v>-1.11405180113705</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.440967193360343</v>
+        <v>12.05354112182756</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.871832548625773</v>
+        <v>-2.889545459480725</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2439946598221138</v>
+        <v>-2.068356296246786</v>
       </c>
       <c r="X20" t="n">
-        <v>0.03469357588141817</v>
+        <v>0.6795316215080068</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.453533615969059</v>
+        <v>-4.45214908057169</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.08031903955841804</v>
+        <v>-1.313274042852486</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.8562693138226101</v>
+        <v>-2.118944756465834</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.7954860096214298</v>
+        <v>-1</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1</v>
+        <v>-1.574857868634327</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.753198788202829</v>
+        <v>21.99431474537314</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1.226465936539678</v>
+        <v>-0.9530919731836606</v>
       </c>
       <c r="AF20" t="n">
-        <v>-1</v>
+        <v>12.52606749727833</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.7253785056541395</v>
+        <v>-0.942790724634161</v>
       </c>
       <c r="AH20" t="n">
-        <v>-2.992727349853906</v>
+        <v>-6.156087610080998</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.5811095739126202</v>
+        <v>-1.042716542346956</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-1</v>
+        <v>-2.29181543513332</v>
       </c>
       <c r="AK20" t="n">
-        <v>1.421097537162489</v>
+        <v>-1</v>
       </c>
       <c r="AL20" t="n">
-        <v>-1</v>
+        <v>-7.127011766008513</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1</v>
+        <v>0.6366060316991521</v>
       </c>
       <c r="AN20" t="n">
         <v>-1</v>
       </c>
       <c r="AO20" t="n">
-        <v>-1.276999961651988</v>
+        <v>-1.36498912294244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44822</v>
+        <v>44827</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1.451803659127537</v>
+        <v>-1.212622968573877</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.152820128972818</v>
+        <v>-1.559086105336108</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.152820128972818</v>
+        <v>-1.559086105336108</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7764247702753461</v>
+        <v>-1.627375042884918</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.033737181507427</v>
+        <v>-1</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.152820128972818</v>
+        <v>-1.559086105336108</v>
       </c>
       <c r="I21" t="n">
         <v>-1</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.4100559243667122</v>
+        <v>-1.190242267847859</v>
       </c>
       <c r="K21" t="n">
         <v>-1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9429552735496943</v>
+        <v>-1.086783514858139</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.2197494896968984</v>
+        <v>-1.9846293619823</v>
       </c>
       <c r="N21" t="n">
-        <v>-2.152820128972818</v>
+        <v>-1.559086105336108</v>
       </c>
       <c r="O21" t="n">
-        <v>1.398330112474838</v>
+        <v>-1.745448140448143</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4058782060644128</v>
+        <v>-1.279703433076928</v>
       </c>
       <c r="Q21" t="n">
         <v>-1</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.3727855663912815</v>
+        <v>-2.17861395178963</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.03286901931811036</v>
+        <v>-1.38169554675025</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.8995317257600157</v>
+        <v>-1.003896234077347</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.1211028241630275</v>
+        <v>2.906973257842824</v>
       </c>
       <c r="V21" t="n">
-        <v>1.556657544092957</v>
+        <v>-1.186601267506274</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.7117949677567954</v>
+        <v>-1.723143816130479</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1115345596156696</v>
+        <v>0.3663305341895425</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.751200540621979</v>
+        <v>-1.039154851821519</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.861120049191273</v>
+        <v>-1.712949038957214</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.5765150546630501</v>
+        <v>-1.380343123172236</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.334282556681503</v>
+        <v>-1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1</v>
+        <v>-0.4156285934175358</v>
       </c>
       <c r="AD21" t="n">
         <v>-1</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.485803800169153</v>
+        <v>-1.481161233042647</v>
       </c>
       <c r="AF21" t="n">
-        <v>-1</v>
+        <v>-2.530130393551447</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.056922475986859</v>
+        <v>-1.514127896665435</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.749620692498634</v>
+        <v>0.04015648191217518</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.336515643231192</v>
+        <v>-2.1572749591109</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2668353065635455</v>
+        <v>-1</v>
       </c>
       <c r="AK21" t="n">
-        <v>-4.873111105244654</v>
+        <v>-1</v>
       </c>
       <c r="AL21" t="n">
-        <v>-1</v>
+        <v>0.3257807318719336</v>
       </c>
       <c r="AM21" t="n">
-        <v>-0.4098190466009408</v>
+        <v>-1.51004346451715</v>
       </c>
       <c r="AN21" t="n">
         <v>-1</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.4685606738507242</v>
+        <v>-2.203637602570723</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44823</v>
+        <v>44828</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.04553693879662</v>
+        <v>0.2962818879617383</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.607852683879538</v>
+        <v>-2.077804770052367</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.607852683879538</v>
+        <v>-2.077804770052367</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.181132470396477</v>
+        <v>-0.5488988348118282</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>1.284946112511003</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.21570536775908</v>
+        <v>-2.077804770052367</v>
       </c>
       <c r="I22" t="n">
         <v>-1</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.961693935991896</v>
+        <v>1.224283826338154</v>
       </c>
       <c r="K22" t="n">
         <v>-1</v>
       </c>
       <c r="L22" t="n">
-        <v>0.171530027360856</v>
+        <v>-0.659978257066815</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.3608147035493522</v>
+        <v>0.9265987457934243</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.607852683879538</v>
+        <v>-2.077804770052367</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.009808587575693</v>
+        <v>-1</v>
       </c>
       <c r="P22" t="n">
-        <v>-1</v>
+        <v>0.3962219471407938</v>
       </c>
       <c r="Q22" t="n">
         <v>-1</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.5225447565566648</v>
+        <v>-0.8139294696652227</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.1506715923874949</v>
+        <v>-0.5080847981677067</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.07887943169364</v>
+        <v>-1</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.680010679901368</v>
+        <v>0.04814041858302886</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.791501792626125</v>
+        <v>0.311512437028003</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4020320698528078</v>
+        <v>-0.1773551930720853</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6771642115419733</v>
+        <v>-1.696629912350918</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3130961292646419</v>
+        <v>0.5624214578544268</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2.276725328302972</v>
+        <v>3.697170390440403</v>
       </c>
       <c r="AA22" t="n">
-        <v>-1.790308464813776</v>
+        <v>-0.1233041975422155</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.7061565224847731</v>
+        <v>-1</v>
       </c>
       <c r="AC22" t="n">
-        <v>-1</v>
+        <v>-0.1256583753146593</v>
       </c>
       <c r="AD22" t="n">
         <v>-1</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.5392885200907653</v>
+        <v>-0.6231746112242851</v>
       </c>
       <c r="AF22" t="n">
-        <v>-3.066699125190433</v>
+        <v>-1</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.458713316084215</v>
+        <v>1.414070831399833</v>
       </c>
       <c r="AH22" t="n">
-        <v>-4.269920290448757</v>
+        <v>-5.91913382215509</v>
       </c>
       <c r="AI22" t="n">
-        <v>-2.202202616121698</v>
+        <v>3.558974945772718</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.6516799227207142</v>
+        <v>-0.3581612043508332</v>
       </c>
       <c r="AK22" t="n">
-        <v>-4.111573032349912</v>
+        <v>-1</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1</v>
+        <v>-1.582894416456883</v>
       </c>
       <c r="AM22" t="n">
-        <v>-0.4636593965768812</v>
+        <v>-1.191690110109978</v>
       </c>
       <c r="AN22" t="n">
         <v>-1</v>
       </c>
       <c r="AO22" t="n">
-        <v>-2.514681769276381</v>
+        <v>-2.219102346614107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44824</v>
+        <v>44829</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.495048324536894</v>
+        <v>2.465446132729449</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.284059167988855</v>
+        <v>-3.418697263123786</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.284059167988855</v>
+        <v>-3.418697263123786</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.735063199576499</v>
+        <v>-0.775360397077465</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.637175439185785</v>
+        <v>-1</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.629682861225306</v>
+        <v>-3.418697263123786</v>
       </c>
       <c r="I23" t="n">
         <v>-1</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.8444488893885239</v>
+        <v>1.898629884755421</v>
       </c>
       <c r="K23" t="n">
         <v>-1</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.299483312046183</v>
+        <v>1.985691577031142</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.058158985406245</v>
+        <v>2.320719674783787</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.284059167988855</v>
+        <v>-3.418697263123786</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.559260740090656</v>
+        <v>-1</v>
       </c>
       <c r="P23" t="n">
-        <v>-1</v>
+        <v>2.434306555609509</v>
       </c>
       <c r="Q23" t="n">
         <v>-1</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.037040168307372</v>
+        <v>0.6334059439277402</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.116524942290806</v>
+        <v>0.2093486315618883</v>
       </c>
       <c r="T23" t="n">
-        <v>-1</v>
+        <v>-1.132258994540379</v>
       </c>
       <c r="U23" t="n">
-        <v>-2.114307890545301</v>
+        <v>-6.076010399739585</v>
       </c>
       <c r="V23" t="n">
-        <v>-2.238199911989249</v>
+        <v>-1</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.04207820047639996</v>
+        <v>1.221047486774319</v>
       </c>
       <c r="X23" t="n">
-        <v>-1.58275432763009</v>
+        <v>-5.975982909673461</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.7481268555098769</v>
+        <v>-0.4241950269607179</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.362093917233229</v>
+        <v>-3.157857362198666</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.8947154058401395</v>
+        <v>-0.1989028173093248</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.8410509282343898</v>
+        <v>-1</v>
       </c>
       <c r="AC23" t="n">
-        <v>-7.548701756743156</v>
+        <v>-0.3615621437439797</v>
       </c>
       <c r="AD23" t="n">
         <v>-1</v>
       </c>
       <c r="AE23" t="n">
-        <v>-2.209713310454346</v>
+        <v>-0.7480187170780729</v>
       </c>
       <c r="AF23" t="n">
-        <v>-3.046469298982238</v>
+        <v>-7.288612884121799</v>
       </c>
       <c r="AG23" t="n">
-        <v>-2.024123645711357</v>
+        <v>4.809754296224789</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.907170464788434</v>
+        <v>9.460510668304396</v>
       </c>
       <c r="AI23" t="n">
-        <v>-1.132418601698847</v>
+        <v>-5.191716886957949</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-1.752724339855533</v>
+        <v>1.794939059609708</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.7841014401383584</v>
+        <v>-1</v>
       </c>
       <c r="AL23" t="n">
-        <v>-1</v>
+        <v>-4.457656568589305</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.8838882667244093</v>
+        <v>-6.523781587404295</v>
       </c>
       <c r="AN23" t="n">
         <v>-1</v>
       </c>
       <c r="AO23" t="n">
-        <v>-1</v>
+        <v>0.9651915262880729</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44825</v>
+        <v>44830</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.399732612116823</v>
+        <v>-0.304732986272885</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.071539275155148</v>
+        <v>-2.290869190621366</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.071539275155148</v>
+        <v>-2.290869190621366</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.159085701194052</v>
+        <v>-1.964998882351803</v>
       </c>
       <c r="G24" t="n">
-        <v>-1</v>
+        <v>-6.06785682243941</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.535769637577576</v>
+        <v>-2.290869190621366</v>
       </c>
       <c r="I24" t="n">
-        <v>0.234599599635279</v>
+        <v>-3.850669462622172</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.6778984925130661</v>
+        <v>-0.05142367968204458</v>
       </c>
       <c r="K24" t="n">
         <v>-1</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.7426363372361536</v>
+        <v>1.073214154634311</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.9493836171272525</v>
+        <v>-2.507472664979866</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.546072899838679</v>
+        <v>-2.290869190621366</v>
       </c>
       <c r="O24" t="n">
-        <v>-1.414117020388449</v>
+        <v>-2.710401677573309</v>
       </c>
       <c r="P24" t="n">
-        <v>-1</v>
+        <v>-0.4312737632168713</v>
       </c>
       <c r="Q24" t="n">
         <v>-1</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.3582872137488968</v>
+        <v>0.1252642615613739</v>
       </c>
       <c r="S24" t="n">
-        <v>0.006942935872741806</v>
+        <v>-1.813596473656494</v>
       </c>
       <c r="T24" t="n">
-        <v>-1.001107606412261</v>
+        <v>-1.003831299757761</v>
       </c>
       <c r="U24" t="n">
-        <v>-1.179720194883617</v>
+        <v>-6.034948661254745</v>
       </c>
       <c r="V24" t="n">
-        <v>-3.644142462376769</v>
+        <v>-1.255920450509718</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.6896634886162697</v>
+        <v>-2.828920541619011</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.3071675225644728</v>
+        <v>-3.85438611120447</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.9632654711622134</v>
+        <v>-2.891688491325309</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.3909749964265669</v>
+        <v>-1.826281003658593</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.160428196562778</v>
+        <v>-1.109553350044718</v>
       </c>
       <c r="AB24" t="n">
         <v>-1</v>
       </c>
       <c r="AC24" t="n">
-        <v>-5.732631798601899</v>
+        <v>-3.094369401110161</v>
       </c>
       <c r="AD24" t="n">
         <v>-1</v>
       </c>
       <c r="AE24" t="n">
-        <v>-1.555224959612515</v>
+        <v>-0.05878791083183488</v>
       </c>
       <c r="AF24" t="n">
-        <v>-1</v>
+        <v>-7.515815914564955</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.4783176813946343</v>
+        <v>-0.7733816922725</v>
       </c>
       <c r="AH24" t="n">
-        <v>-2.118321077944016</v>
+        <v>24.87867475096346</v>
       </c>
       <c r="AI24" t="n">
-        <v>-1.108975074309913</v>
+        <v>-1.688092628908797</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-1</v>
+        <v>-3.332365923963588</v>
       </c>
       <c r="AK24" t="n">
-        <v>1.494224866830735</v>
+        <v>-1</v>
       </c>
       <c r="AL24" t="n">
-        <v>-1</v>
+        <v>-2.855350972282912</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.7978947274618411</v>
+        <v>-3.878345865171898</v>
       </c>
       <c r="AN24" t="n">
         <v>-1</v>
       </c>
       <c r="AO24" t="n">
-        <v>-1</v>
+        <v>0.9363037859320411</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44826</v>
+        <v>44831</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.496582212767787</v>
+        <v>-0.4126085879732418</v>
       </c>
       <c r="D25" t="n">
         <v>-1</v>
@@ -3538,10 +3538,10 @@
         <v>-1</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6660880836720533</v>
+        <v>-0.2906188493419356</v>
       </c>
       <c r="G25" t="n">
-        <v>15.42451053240941</v>
+        <v>11.50256994144447</v>
       </c>
       <c r="H25" t="n">
         <v>-1</v>
@@ -3550,611 +3550,611 @@
         <v>-1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2466797151105928</v>
+        <v>2.998121428119667</v>
       </c>
       <c r="K25" t="n">
         <v>-1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.096746025413978</v>
+        <v>2.208137448317864</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.3829790318772879</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
         <v>-1</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.535501111873967</v>
+        <v>-1</v>
       </c>
       <c r="P25" t="n">
-        <v>-1</v>
+        <v>-1.142878737902898</v>
       </c>
       <c r="Q25" t="n">
         <v>-1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.183817601515897</v>
+        <v>-11.65559938191288</v>
       </c>
       <c r="S25" t="n">
-        <v>1.784778602380835</v>
+        <v>0.8849817620050672</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.11405180113705</v>
+        <v>-1.306914516016776</v>
       </c>
       <c r="U25" t="n">
-        <v>-2.889545459480725</v>
+        <v>-1</v>
       </c>
       <c r="V25" t="n">
-        <v>12.05354112182756</v>
+        <v>-1.586791455324358</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.313274042852486</v>
+        <v>0.1279835746521558</v>
       </c>
       <c r="X25" t="n">
-        <v>-2.068356296246786</v>
+        <v>4.780297746900694</v>
       </c>
       <c r="Y25" t="n">
-        <v>-4.45214908057169</v>
+        <v>-0.2598275575937983</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6795316215080068</v>
+        <v>0.143527738546736</v>
       </c>
       <c r="AA25" t="n">
-        <v>-2.118944756465834</v>
+        <v>0.9908550862172654</v>
       </c>
       <c r="AB25" t="n">
-        <v>-1.574857868634327</v>
+        <v>-1</v>
       </c>
       <c r="AC25" t="n">
-        <v>21.99431474537314</v>
+        <v>0.6450749922953415</v>
       </c>
       <c r="AD25" t="n">
         <v>-1</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.9530919731836606</v>
+        <v>-0.5053710955514401</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.52606749727833</v>
+        <v>7.225374961476623</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.942790724634161</v>
+        <v>0.06226244943473541</v>
       </c>
       <c r="AH25" t="n">
-        <v>-6.156087610080998</v>
+        <v>11.92221823126789</v>
       </c>
       <c r="AI25" t="n">
-        <v>-1.042716542346956</v>
+        <v>-12.19155877111396</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-2.29181543513332</v>
+        <v>-1</v>
       </c>
       <c r="AK25" t="n">
-        <v>-7.127011766008513</v>
+        <v>-1</v>
       </c>
       <c r="AL25" t="n">
-        <v>-1</v>
+        <v>0.6393229818327629</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.6366060316991521</v>
+        <v>-2.589309738319192</v>
       </c>
       <c r="AN25" t="n">
         <v>-1</v>
       </c>
       <c r="AO25" t="n">
-        <v>-1.36498912294244</v>
+        <v>0.4515367579076216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44827</v>
+        <v>44832</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.212622968573877</v>
+        <v>-1.638242766779315</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.559086105336108</v>
+        <v>-1.700863878322505</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.559086105336108</v>
+        <v>-1.700863878322505</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.627375042884918</v>
+        <v>-0.8899022318442383</v>
       </c>
       <c r="G26" t="n">
-        <v>-1</v>
+        <v>-2.58456181185958</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.559086105336108</v>
+        <v>-1.700863878322505</v>
       </c>
       <c r="I26" t="n">
-        <v>-1</v>
+        <v>-2.58456181185958</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.190242267847859</v>
+        <v>-0.9147487212332837</v>
       </c>
       <c r="K26" t="n">
         <v>-1</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.086783514858139</v>
+        <v>-1.437776836910159</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.9846293619823</v>
+        <v>-1.315267488518773</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.559086105336108</v>
+        <v>-2.375280063123409</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.279703433076928</v>
+        <v>-1.934485171096673</v>
       </c>
       <c r="P26" t="n">
-        <v>-1.745448140448143</v>
+        <v>-1.68713413672875</v>
       </c>
       <c r="Q26" t="n">
         <v>-1</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.38169554675025</v>
+        <v>-1.440422014172456</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.17861395178963</v>
+        <v>-1.527012215512808</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.003896234077347</v>
+        <v>-1</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.186601267506274</v>
+        <v>-0.8296966276973354</v>
       </c>
       <c r="V26" t="n">
-        <v>2.906973257842824</v>
+        <v>-1.633824724743833</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.712949038957214</v>
+        <v>-1.066408384972247</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.723143816130479</v>
+        <v>-2.81964658851207</v>
       </c>
       <c r="Y26" t="n">
-        <v>-1.039154851821519</v>
+        <v>-2.382734155606464</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.3663305341895425</v>
+        <v>-1.178651576827305</v>
       </c>
       <c r="AA26" t="n">
-        <v>-1.380343123172236</v>
+        <v>-1.352692790381651</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.4156285934175358</v>
+        <v>-1</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1</v>
+        <v>-1.77542386537809</v>
       </c>
       <c r="AD26" t="n">
         <v>-1</v>
       </c>
       <c r="AE26" t="n">
-        <v>-1.481161233042647</v>
+        <v>-1.009670935829315</v>
       </c>
       <c r="AF26" t="n">
-        <v>-2.530130393551447</v>
+        <v>-1</v>
       </c>
       <c r="AG26" t="n">
-        <v>-1.514127896665435</v>
+        <v>-1.864258329581398</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.04015648191217518</v>
+        <v>-1.752535106602382</v>
       </c>
       <c r="AI26" t="n">
-        <v>-2.1572749591109</v>
+        <v>-0.1975828016111232</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-1</v>
+        <v>-1.847556317971407</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.3257807318719336</v>
+        <v>-1</v>
       </c>
       <c r="AL26" t="n">
-        <v>-1</v>
+        <v>-1.901464493672765</v>
       </c>
       <c r="AM26" t="n">
-        <v>-1.51004346451715</v>
+        <v>-0.6318694780528293</v>
       </c>
       <c r="AN26" t="n">
         <v>-1</v>
       </c>
       <c r="AO26" t="n">
-        <v>-2.203637602570723</v>
+        <v>-2.142474033629167</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44828</v>
+        <v>44833</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2962818879617383</v>
+        <v>-1.469840515294679</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.077804770052367</v>
+        <v>-2.579942345107106</v>
       </c>
       <c r="E27" t="n">
-        <v>-2.077804770052367</v>
+        <v>-2.579942345107106</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5488988348118282</v>
+        <v>-2.690900803031532</v>
       </c>
       <c r="G27" t="n">
-        <v>1.284946112511003</v>
+        <v>-4.662593618202851</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.077804770052367</v>
+        <v>-2.579942345107106</v>
       </c>
       <c r="I27" t="n">
         <v>-1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.224283826338154</v>
+        <v>-2.123677763167402</v>
       </c>
       <c r="K27" t="n">
         <v>-1</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.659978257066815</v>
+        <v>-1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9265987457934243</v>
+        <v>-0.7187537186720336</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.077804770052367</v>
+        <v>-2.579942345107106</v>
       </c>
       <c r="O27" t="n">
-        <v>0.3962219471407938</v>
+        <v>-3.120448936854275</v>
       </c>
       <c r="P27" t="n">
-        <v>-1</v>
+        <v>-1.577079280368436</v>
       </c>
       <c r="Q27" t="n">
         <v>-1</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.5080847981677067</v>
+        <v>-0.7558270921198043</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.8139294696652227</v>
+        <v>-1.181889525057482</v>
       </c>
       <c r="T27" t="n">
-        <v>-1</v>
+        <v>-0.8811291045206676</v>
       </c>
       <c r="U27" t="n">
-        <v>0.311512437028003</v>
+        <v>-2.124331064192509</v>
       </c>
       <c r="V27" t="n">
-        <v>0.04814041858302886</v>
+        <v>-2.828987481473302</v>
       </c>
       <c r="W27" t="n">
-        <v>3.697170390440403</v>
+        <v>-1.588368452723351</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.1773551930720853</v>
+        <v>0.6963591494834264</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.5624214578544268</v>
+        <v>-1.056824442595526</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1.696629912350918</v>
+        <v>-0.404603007878351</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.1233041975422155</v>
+        <v>-1.719438032146984</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.1256583753146593</v>
+        <v>-1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1</v>
+        <v>-1.440311801095423</v>
       </c>
       <c r="AD27" t="n">
         <v>-1</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.6231746112242851</v>
+        <v>-2.254159368531877</v>
       </c>
       <c r="AF27" t="n">
         <v>-1</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.414070831399833</v>
+        <v>-3.218349281066085</v>
       </c>
       <c r="AH27" t="n">
-        <v>-5.91913382215509</v>
+        <v>-1.986262297359567</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.558974945772718</v>
+        <v>-1.281246281327964</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-0.3581612043508332</v>
+        <v>-5.796253547646587</v>
       </c>
       <c r="AK27" t="n">
-        <v>-1.582894416456883</v>
+        <v>-1</v>
       </c>
       <c r="AL27" t="n">
-        <v>-1</v>
+        <v>-1.583891736235235</v>
       </c>
       <c r="AM27" t="n">
-        <v>-1.191690110109978</v>
+        <v>0.6008687337840363</v>
       </c>
       <c r="AN27" t="n">
         <v>-1</v>
       </c>
       <c r="AO27" t="n">
-        <v>-2.219102346614107</v>
+        <v>-2.56460309903812</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44829</v>
+        <v>44834</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2.465446132729449</v>
+        <v>-1.222783586231298</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.418697263123786</v>
+        <v>-2.338824193165702</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.418697263123786</v>
+        <v>-2.338824193165702</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.775360397077465</v>
+        <v>-1.172051821899236</v>
       </c>
       <c r="G28" t="n">
-        <v>-1</v>
+        <v>5.053813743010149</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.418697263123786</v>
+        <v>-2.338824193165702</v>
       </c>
       <c r="I28" t="n">
         <v>-1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.898629884755421</v>
+        <v>-1.79838139959423</v>
       </c>
       <c r="K28" t="n">
         <v>-1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.985691577031142</v>
+        <v>-1.84642988504093</v>
       </c>
       <c r="M28" t="n">
-        <v>2.320719674783787</v>
+        <v>-0.7548631758992379</v>
       </c>
       <c r="N28" t="n">
-        <v>-3.418697263123786</v>
+        <v>-1</v>
       </c>
       <c r="O28" t="n">
-        <v>2.434306555609509</v>
+        <v>0.7850989242209476</v>
       </c>
       <c r="P28" t="n">
-        <v>-1</v>
+        <v>-1.177718297368622</v>
       </c>
       <c r="Q28" t="n">
         <v>-1</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2093486315618883</v>
+        <v>-1</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6334059439277402</v>
+        <v>-1.939737116462773</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.132258994540379</v>
+        <v>-1</v>
       </c>
       <c r="U28" t="n">
-        <v>-1</v>
+        <v>3.1707149980646</v>
       </c>
       <c r="V28" t="n">
-        <v>-6.076010399739585</v>
+        <v>0.5509151544592827</v>
       </c>
       <c r="W28" t="n">
-        <v>-3.157857362198666</v>
+        <v>-1.47770252901688</v>
       </c>
       <c r="X28" t="n">
-        <v>1.221047486774319</v>
+        <v>0.07270967711274059</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.4241950269607179</v>
+        <v>-1.147082094460456</v>
       </c>
       <c r="Z28" t="n">
-        <v>-5.975982909673461</v>
+        <v>-3.929506402867539</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.1989028173093248</v>
+        <v>-0.8881624770367575</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.3615621437439797</v>
+        <v>-1</v>
       </c>
       <c r="AC28" t="n">
-        <v>-1</v>
+        <v>-1.760861836553186</v>
       </c>
       <c r="AD28" t="n">
         <v>-1</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.7480187170780729</v>
+        <v>-1.902719966786779</v>
       </c>
       <c r="AF28" t="n">
-        <v>-7.288612884121799</v>
+        <v>-1</v>
       </c>
       <c r="AG28" t="n">
-        <v>4.809754296224789</v>
+        <v>2.26974746958671</v>
       </c>
       <c r="AH28" t="n">
-        <v>9.460510668304396</v>
+        <v>4.184279765140888</v>
       </c>
       <c r="AI28" t="n">
-        <v>-5.191716886957949</v>
+        <v>3.60072220556855</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.794939059609708</v>
+        <v>-4.094171468649631</v>
       </c>
       <c r="AK28" t="n">
-        <v>-4.457656568589305</v>
+        <v>-1</v>
       </c>
       <c r="AL28" t="n">
-        <v>-1</v>
+        <v>-1.250427546923074</v>
       </c>
       <c r="AM28" t="n">
-        <v>-6.523781587404295</v>
+        <v>-2.179980644824015</v>
       </c>
       <c r="AN28" t="n">
         <v>-1</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.9651915262880729</v>
+        <v>-1.886864433689382</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44830</v>
+        <v>44835</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.304732986272885</v>
+        <v>-0.8560665873255158</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.290869190621366</v>
+        <v>-1.999388921652443</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.290869190621366</v>
+        <v>-1.999388921652443</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.964998882351803</v>
+        <v>-0.8487989027123978</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.06785682243941</v>
+        <v>-1</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.290869190621366</v>
+        <v>-1.999388921652443</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.850669462622172</v>
+        <v>-1</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.05142367968204458</v>
+        <v>-0.1721998955222196</v>
       </c>
       <c r="K29" t="n">
         <v>-1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.073214154634311</v>
+        <v>-1.796388046941786</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.507472664979866</v>
+        <v>-1.715352070235432</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.290869190621366</v>
+        <v>-1.999388921652443</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.4312737632168713</v>
+        <v>-1</v>
       </c>
       <c r="P29" t="n">
-        <v>-2.710401677573309</v>
+        <v>-0.6191248245345821</v>
       </c>
       <c r="Q29" t="n">
         <v>-1</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.813596473656494</v>
+        <v>-2.881926215542455</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1252642615613739</v>
+        <v>-1.231940091031966</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.003831299757761</v>
+        <v>-1</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.255920450509718</v>
+        <v>2.767261717707263</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.034948661254745</v>
+        <v>-1.123261995173575</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.826281003658593</v>
+        <v>-0.7594937005242937</v>
       </c>
       <c r="X29" t="n">
-        <v>-2.828920541619011</v>
+        <v>-0.8448437290585208</v>
       </c>
       <c r="Y29" t="n">
-        <v>-2.891688491325309</v>
+        <v>-1.360713623526361</v>
       </c>
       <c r="Z29" t="n">
-        <v>-3.85438611120447</v>
+        <v>-0.7352268311466256</v>
       </c>
       <c r="AA29" t="n">
-        <v>-1.109553350044718</v>
+        <v>-1.328037554331614</v>
       </c>
       <c r="AB29" t="n">
-        <v>-3.094369401110161</v>
+        <v>-1</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1</v>
+        <v>-1.560097087959061</v>
       </c>
       <c r="AD29" t="n">
         <v>-1</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.05878791083183488</v>
+        <v>-0.8511858831991957</v>
       </c>
       <c r="AF29" t="n">
-        <v>-7.515815914564955</v>
+        <v>-3.83160194468193</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.7733816922725</v>
+        <v>0.5543744987731886</v>
       </c>
       <c r="AH29" t="n">
-        <v>24.87867475096346</v>
+        <v>-1.848160489257874</v>
       </c>
       <c r="AI29" t="n">
-        <v>-1.688092628908797</v>
+        <v>-1.650906832369972</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-3.332365923963588</v>
+        <v>-1.592660872142728</v>
       </c>
       <c r="AK29" t="n">
-        <v>-2.855350972282912</v>
+        <v>-1</v>
       </c>
       <c r="AL29" t="n">
-        <v>-1</v>
+        <v>-0.2666354675643946</v>
       </c>
       <c r="AM29" t="n">
-        <v>-3.878345865171898</v>
+        <v>-0.8242453965369795</v>
       </c>
       <c r="AN29" t="n">
         <v>-1</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.9363037859320411</v>
+        <v>-1.326723301309452</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44831</v>
+        <v>44836</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4126085879732418</v>
+        <v>1.282496129795428</v>
       </c>
       <c r="D30" t="n">
         <v>-1</v>
@@ -4163,10 +4163,10 @@
         <v>-1</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2906188493419356</v>
+        <v>-4.115983874724233</v>
       </c>
       <c r="G30" t="n">
-        <v>11.50256994144447</v>
+        <v>9.30704089815562</v>
       </c>
       <c r="H30" t="n">
         <v>-1</v>
@@ -4175,13 +4175,13 @@
         <v>-1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.998121428119667</v>
+        <v>-0.8478890068158981</v>
       </c>
       <c r="K30" t="n">
         <v>-1</v>
       </c>
       <c r="L30" t="n">
-        <v>2.208137448317864</v>
+        <v>-1</v>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
@@ -4190,46 +4190,46 @@
         <v>-1</v>
       </c>
       <c r="O30" t="n">
-        <v>-1.142878737902898</v>
+        <v>-1</v>
       </c>
       <c r="P30" t="n">
-        <v>-1</v>
+        <v>1.381675234031615</v>
       </c>
       <c r="Q30" t="n">
         <v>-1</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8849817620050672</v>
+        <v>7.435822163669026</v>
       </c>
       <c r="S30" t="n">
-        <v>-11.65559938191288</v>
+        <v>1.337197482574962</v>
       </c>
       <c r="T30" t="n">
-        <v>-1.306914516016776</v>
+        <v>-1.070627172763932</v>
       </c>
       <c r="U30" t="n">
-        <v>-1.586791455324358</v>
+        <v>-1</v>
       </c>
       <c r="V30" t="n">
-        <v>-1</v>
+        <v>3.035889508313942</v>
       </c>
       <c r="W30" t="n">
-        <v>0.143527738546736</v>
+        <v>-1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1279835746521558</v>
+        <v>1.353205684510429</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.2598275575937983</v>
+        <v>0.8044539387527383</v>
       </c>
       <c r="Z30" t="n">
-        <v>4.780297746900694</v>
+        <v>1.01835004533071</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.9908550862172654</v>
+        <v>-2.438382900460326</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.6450749922953415</v>
+        <v>-1</v>
       </c>
       <c r="AC30" t="n">
         <v>-1</v>
@@ -4238,287 +4238,287 @@
         <v>-1</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.5053710955514401</v>
+        <v>6.40231691049878</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.225374961476623</v>
+        <v>-1</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.06226244943473541</v>
+        <v>-0.7873609321225616</v>
       </c>
       <c r="AH30" t="n">
-        <v>11.92221823126789</v>
+        <v>-35.08229253481377</v>
       </c>
       <c r="AI30" t="n">
-        <v>-12.19155877111396</v>
+        <v>12.12501766353791</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-1</v>
+        <v>4.856273237588401</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.6393229818327629</v>
+        <v>-1</v>
       </c>
       <c r="AL30" t="n">
-        <v>-1</v>
+        <v>3.736691589225938</v>
       </c>
       <c r="AM30" t="n">
-        <v>-2.589309738319192</v>
+        <v>4.33122805077013</v>
       </c>
       <c r="AN30" t="n">
         <v>-1</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.4515367579076216</v>
+        <v>0.6412485506617173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44832</v>
+        <v>44837</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.638242766779315</v>
+        <v>-1.400308775996011</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.700863878322505</v>
+        <v>-2.088104439137364</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.700863878322505</v>
+        <v>-2.088104439137364</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.8899022318442383</v>
+        <v>-1.794886001515417</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.58456181185958</v>
+        <v>-3.357559618130963</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.700863878322505</v>
+        <v>-2.088104439137364</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.58456181185958</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.9147487212332837</v>
+        <v>-1.699358474124781</v>
       </c>
       <c r="K31" t="n">
         <v>-1</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.437776836910159</v>
+        <v>-1.692127594313675</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.315267488518773</v>
+        <v>-2.174700986196739</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.375280063123409</v>
+        <v>-2.088104439137364</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.68713413672875</v>
+        <v>0.4145357708785734</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.934485171096673</v>
+        <v>-1.753850134304319</v>
       </c>
       <c r="Q31" t="n">
         <v>-1</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.527012215512808</v>
+        <v>-0.8269681014215765</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.440422014172456</v>
+        <v>-1.516725395754737</v>
       </c>
       <c r="T31" t="n">
-        <v>-1</v>
+        <v>-1.008997365234036</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.633824724743833</v>
+        <v>-1.265640520352784</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.8296966276973354</v>
+        <v>-2.731377932531923</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.178651576827305</v>
+        <v>-1.123450394549402</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.066408384972247</v>
+        <v>-1</v>
       </c>
       <c r="Y31" t="n">
-        <v>-2.382734155606464</v>
+        <v>-2.114121000973283</v>
       </c>
       <c r="Z31" t="n">
-        <v>-2.81964658851207</v>
+        <v>-2.782092309768281</v>
       </c>
       <c r="AA31" t="n">
-        <v>-1.352692790381651</v>
+        <v>-1.08981179497642</v>
       </c>
       <c r="AB31" t="n">
-        <v>-1.77542386537809</v>
+        <v>-1</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1</v>
+        <v>-2.230031105111803</v>
       </c>
       <c r="AD31" t="n">
         <v>-1</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1.009670935829315</v>
+        <v>-2.021297534560222</v>
       </c>
       <c r="AF31" t="n">
-        <v>-1</v>
+        <v>-3.977970043954902</v>
       </c>
       <c r="AG31" t="n">
-        <v>-1.864258329581398</v>
+        <v>-2.541346555687407</v>
       </c>
       <c r="AH31" t="n">
-        <v>-1.752535106602382</v>
+        <v>-7.088178559082425</v>
       </c>
       <c r="AI31" t="n">
-        <v>-0.1975828016111232</v>
+        <v>0.6546175301561286</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-1.847556317971407</v>
+        <v>-1.657923614362127</v>
       </c>
       <c r="AK31" t="n">
-        <v>-1.901464493672765</v>
+        <v>-1</v>
       </c>
       <c r="AL31" t="n">
-        <v>-1</v>
+        <v>-1.63813643799034</v>
       </c>
       <c r="AM31" t="n">
-        <v>-0.6318694780528293</v>
+        <v>-1.597691170793769</v>
       </c>
       <c r="AN31" t="n">
         <v>-1</v>
       </c>
       <c r="AO31" t="n">
-        <v>-2.142474033629167</v>
+        <v>-1.544052219568687</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44833</v>
+        <v>44838</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.641270432629027</v>
+        <v>-0.0435740729100212</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.870454099059624</v>
+        <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.870454099059624</v>
+        <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.121923935265047</v>
+        <v>-0.8917316198105022</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.336052684183689</v>
+        <v>12.79904042119596</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.870454099059624</v>
+        <v>-1</v>
       </c>
       <c r="I32" t="n">
         <v>-1</v>
       </c>
       <c r="J32" t="n">
-        <v>-3.383443253479228</v>
+        <v>1.451522926879136</v>
       </c>
       <c r="K32" t="n">
         <v>-1</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.289948811708339</v>
+        <v>0.959123022762382</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.8335197922302954</v>
+        <v>-1.55876396071744</v>
       </c>
       <c r="N32" t="n">
-        <v>-2.870454099059624</v>
+        <v>-1</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.811987734633375</v>
+        <v>-1</v>
       </c>
       <c r="P32" t="n">
-        <v>-3.51034629084318</v>
+        <v>-0.7064953590885986</v>
       </c>
       <c r="Q32" t="n">
         <v>-1</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.215334444812739</v>
+        <v>5.671608131569219</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.4218596421088436</v>
+        <v>0.09566604034815135</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.015837893492959</v>
+        <v>-0.9787342539059363</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.165292387057679</v>
+        <v>-2.49003722857984</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.443689111869957</v>
+        <v>0.2098269238405452</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.2951244405021551</v>
+        <v>0.04058337602460005</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.905521042480127</v>
+        <v>1.430152600976269</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.403638190629224</v>
+        <v>-0.3199044363839221</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.1393098431394736</v>
+        <v>0.715556376689221</v>
       </c>
       <c r="AA32" t="n">
-        <v>-2.084013171045914</v>
+        <v>0.2574402919472814</v>
       </c>
       <c r="AB32" t="n">
-        <v>-2.042548186361102</v>
+        <v>-1</v>
       </c>
       <c r="AC32" t="n">
-        <v>-1</v>
+        <v>0.7534692247928502</v>
       </c>
       <c r="AD32" t="n">
         <v>-1</v>
       </c>
       <c r="AE32" t="n">
-        <v>-3.499993658806984</v>
+        <v>-2.838603178879366</v>
       </c>
       <c r="AF32" t="n">
         <v>-1</v>
       </c>
       <c r="AG32" t="n">
-        <v>-3.446814955165212</v>
+        <v>0.07331055017757064</v>
       </c>
       <c r="AH32" t="n">
-        <v>-2.478074277090492</v>
+        <v>-2.76789832969368</v>
       </c>
       <c r="AI32" t="n">
-        <v>-2.068247999855606</v>
+        <v>2.305554791959932</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-7.813797075145803</v>
+        <v>-1</v>
       </c>
       <c r="AK32" t="n">
-        <v>-2.036882163609149</v>
+        <v>-1</v>
       </c>
       <c r="AL32" t="n">
-        <v>-1</v>
+        <v>2.620280566777667</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.2634855503581736</v>
+        <v>0.1254536513741038</v>
       </c>
       <c r="AN32" t="n">
         <v>-1</v>
       </c>
       <c r="AO32" t="n">
-        <v>-2.23486290035006</v>
+        <v>0.02711304105991763</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/correlation.xlsx
+++ b/Bot_screening/correlation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -514,16 +514,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6438720181551419</v>
+        <v>0.1513560054718786</v>
       </c>
       <c r="D2" t="n">
-        <v>-11.06008232959217</v>
+        <v>-6.294687658057581</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>-6.294687658057581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2445906649195572</v>
+        <v>-0.8269167698135087</v>
       </c>
       <c r="G2" t="n">
         <v>-1</v>
@@ -532,19 +532,19 @@
         <v>-1</v>
       </c>
       <c r="I2" t="n">
-        <v>20.37767495038343</v>
+        <v>10.2512112733724</v>
       </c>
       <c r="J2" t="n">
-        <v>7.485794636793413</v>
+        <v>-0.1524511281828686</v>
       </c>
       <c r="K2" t="n">
         <v>-1</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>-0.2622156542051112</v>
       </c>
       <c r="M2" t="n">
-        <v>17.17618739742738</v>
+        <v>8.566247266248954</v>
       </c>
     </row>
     <row r="3">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4150175407439368</v>
+        <v>-0.5024491423859256</v>
       </c>
       <c r="D32" t="n">
         <v>-1</v>
@@ -1753,10 +1753,10 @@
         <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.86727630754145</v>
+        <v>-1.348648551689004</v>
       </c>
       <c r="G32" t="n">
-        <v>17.42270846323888</v>
+        <v>5.534708212411552</v>
       </c>
       <c r="H32" t="n">
         <v>-1</v>
@@ -1765,13 +1765,13 @@
         <v>-1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.007064277253669342</v>
+        <v>-0.8213924077415695</v>
       </c>
       <c r="K32" t="n">
         <v>-1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.615569720089462</v>
+        <v>-1</v>
       </c>
       <c r="M32" t="n">
         <v>-1</v>

--- a/Bot_screening/correlation.xlsx
+++ b/Bot_screening/correlation.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MC26"/>
+  <dimension ref="A1:MG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,1367 +775,1387 @@
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
+          <t>NANOBTC</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
           <t>BLZBTC</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>ZILBTC</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>ONTBTC</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>XEMBTC</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>WANBTC</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>QLCBTC</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>SYSBTC</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>GRSBTC</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>LOOMBTC</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>REPBTC</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>ZENBTC</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>CVCBTC</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>THETABTC</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>IOTXBTC</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>QKCBTC</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>NXSBTC</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>DATABTC</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>SCBTC</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>NASBTC</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>ARDRBTC</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>VETBTC</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>DOCKBTC</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>POLYBTC</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>GOBTC</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>RVNBTC</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>DCRBTC</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>MITHBTC</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>RENBTC</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>ONGBTC</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>FETBTC</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>CELRBTC</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>MATICBTC</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>ATOMBTC</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>PHBBTC</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>TFUELBTC</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>ONEBTC</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>FTMBTC</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>ALGOBTC</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>DOGEBTC</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>DUSKBTC</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>ANKRBTC</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>COSBTC</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>TOMOBTC</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>PERLBTC</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>CHZBTC</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>BANDBTC</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>BEAMBTC</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>XTZBTC</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>HBARBTC</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>NKNBTC</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>STXBTC</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>KAVABTC</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>ARPABTC</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>CTXCBTC</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>BCHBTC</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>VITEBTC</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>FTTBTC</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>OGNBTC</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>DREPBTC</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>TCTBTC</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>WRXBTC</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>LTOBTC</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>COTIBTC</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>STPTBTC</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>SOLBTC</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>CTSIBTC</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>HIVEBTC</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>CHRBTC</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>MDTBTC</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>STMXBTC</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>PNTBTC</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>DGBBTC</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>COMPBTC</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>SXPBTC</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>SNXBTC</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>IRISBTC</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>MKRBTC</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>RUNEBTC</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>FIOBTC</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>AVABTC</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>BALBTC</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>YFIBTC</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>JSTBTC</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>SRMBTC</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>ANTBTC</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>CRVBTC</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>SANDBTC</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>OCEANBTC</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>NMRBTC</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>DOTBTC</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>LUNABTC</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>IDEXBTC</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>RSRBTC</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>PAXGBTC</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>WNXMBTC</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>TRBBTC</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>WBTCBTC</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>SUSHIBTC</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>YFIIBTC</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>KSMBTC</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>EGLDBTC</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>DIABTC</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>UMABTC</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>BELBTC</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>WINGBTC</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>UNIBTC</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>OXTBTC</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>AVAXBTC</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>HNTBTC</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>FLMBTC</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>SCRTBTC</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>ORNBTC</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>UTKBTC</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>XVSBTC</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>ALPHABTC</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>VIDTBTC</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>AAVEBTC</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>NEARBTC</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>FILBTC</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>INJBTC</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>AERGOBTC</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>AUDIOBTC</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>CTKBTC</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>AKROBTC</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>AXSBTC</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>HARDBTC</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>RENBTCBTC</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>STRAXBTC</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>FORBTC</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>UNFIBTC</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>ROSEBTC</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>SKLBTC</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>GLMBTC</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>GRTBTC</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>JUVBTC</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>PSGBTC</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>1INCHBTC</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>REEFBTC</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>OGBTC</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>ATMBTC</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>ASRBTC</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>CELOBTC</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>RIFBTC</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>BTCSTBTC</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>TRUBTC</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>CKBBTC</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>TWTBTC</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>FIROBTC</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>LITBTC</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>SFPBTC</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>FXSBTC</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>DODOBTC</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>FRONTBTC</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>CAKEBTC</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>ACMBTC</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>AUCTIONBTC</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>PHABTC</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>TVKBTC</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>BADGERBTC</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>FISBTC</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>OMBTC</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>PONDBTC</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>DEGOBTC</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>ALICEBTC</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>LINABTC</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>PERPBTC</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>RAMPBTC</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>SUPERBTC</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>CFXBTC</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>EPSBTC</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>AUTOBTC</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>TKOBTC</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>TLMBTC</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>MIRBTC</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>BARBTC</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>FORTHBTC</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>EZBTC</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>ICPBTC</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>ARBTC</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>POLSBTC</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>MDXBTC</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>LPTBTC</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>AGIXBTC</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>NUBTC</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>ATABTC</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>GTCBTC</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>TORNBTC</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>BAKEBTC</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>KEEPBTC</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>KLAYBTC</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>BONDBTC</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>MLNBTC</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>QUICKBTC</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>C98BTC</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>CLVBTC</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>QNTBTC</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>FLOWBTC</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>MINABTC</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>FARMBTC</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>ALPACABTC</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>MBOXBTC</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>VGXBTC</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>WAXPBTC</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>TRIBEBTC</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>GNOBTC</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>PROMBTC</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>DYDXBTC</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>GALABTC</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>ILVBTC</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>YGGBTC</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>FIDABTC</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>AGLDBTC</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>RADBTC</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>BETABTC</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>RAREBTC</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>SSVBTC</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>LAZIOBTC</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>CHESSBTC</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>DARBTC</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>BNXBTC</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>RGTBTC</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>MOVRBTC</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>CITYBTC</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>ENSBTC</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>QIBTC</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>PORTOBTC</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>JASMYBTC</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>AMPBTC</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>PLABTC</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>PYRBTC</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>RNDRBTC</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>ALCXBTC</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>SANTOSBTC</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>MCBTC</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>ANYBTC</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>BICOBTC</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>FLUXBTC</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>VOXELBTC</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>HIGHBTC</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>CVXBTC</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>PEOPLEBTC</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>SPELLBTC</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>USTBTC</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>JOEBTC</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>ACHBTC</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>IMXBTC</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>GLMRBTC</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>LOKABTC</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>API3BTC</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>ACABTC</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>ANCBTC</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>XNOBTC</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>WOOBTC</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>ALPINEBTC</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>GMTBTC</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>KDABTC</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>APEBTC</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>MULTIBTC</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>ASTRBTC</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>MOBBTC</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>NEXOBTC</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>GALBTC</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>LDOBTC</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>OPBTC</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>STGBTC</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>GMXBTC</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>POLYXBTC</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>APTBTC</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>OSMOBTC</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>HFTBTC</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>HOOKBTC</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>MAGICBTC</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>RPLBTC</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>GNSBTC</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>SYNBTC</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>LQTYBTC</t>
         </is>
       </c>
     </row>
@@ -2144,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004532767654247372</v>
+        <v>0.02627141987958549</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -2485,20 +2505,24 @@
       <c r="LY2" t="inlineStr"/>
       <c r="LZ2" t="inlineStr"/>
       <c r="MA2" t="inlineStr"/>
-      <c r="MB2" t="n">
-        <v>9.361460224239988</v>
-      </c>
+      <c r="MB2" t="inlineStr"/>
       <c r="MC2" t="inlineStr"/>
+      <c r="MD2" t="n">
+        <v>0.1581547940916322</v>
+      </c>
+      <c r="ME2" t="inlineStr"/>
+      <c r="MF2" t="inlineStr"/>
+      <c r="MG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44928</v>
+        <v>44959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003351954634874695</v>
+        <v>-0.01021726058417941</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -2836,20 +2860,24 @@
       <c r="LY3" t="inlineStr"/>
       <c r="LZ3" t="inlineStr"/>
       <c r="MA3" t="inlineStr"/>
-      <c r="MB3" t="n">
-        <v>1.747251202219582</v>
-      </c>
+      <c r="MB3" t="inlineStr"/>
       <c r="MC3" t="inlineStr"/>
+      <c r="MD3" t="n">
+        <v>-1.756969376110138</v>
+      </c>
+      <c r="ME3" t="inlineStr"/>
+      <c r="MF3" t="inlineStr"/>
+      <c r="MG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44929</v>
+        <v>44960</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000143947200167066</v>
+        <v>-0.00244493989398592</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -3187,20 +3215,24 @@
       <c r="LY4" t="inlineStr"/>
       <c r="LZ4" t="inlineStr"/>
       <c r="MA4" t="inlineStr"/>
-      <c r="MB4" t="n">
-        <v>-4.516379597007608</v>
-      </c>
+      <c r="MB4" t="inlineStr"/>
       <c r="MC4" t="inlineStr"/>
+      <c r="MD4" t="n">
+        <v>-0.3535583072592632</v>
+      </c>
+      <c r="ME4" t="inlineStr"/>
+      <c r="MF4" t="inlineStr"/>
+      <c r="MG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44930</v>
+        <v>44961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01047695292237479</v>
+        <v>-0.004483631288969367</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -3538,20 +3570,24 @@
       <c r="LY5" t="inlineStr"/>
       <c r="LZ5" t="inlineStr"/>
       <c r="MA5" t="inlineStr"/>
-      <c r="MB5" t="n">
-        <v>-2.36896661581755</v>
-      </c>
+      <c r="MB5" t="inlineStr"/>
       <c r="MC5" t="inlineStr"/>
+      <c r="MD5" t="n">
+        <v>-6.811629440918499</v>
+      </c>
+      <c r="ME5" t="inlineStr"/>
+      <c r="MF5" t="inlineStr"/>
+      <c r="MG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44931</v>
+        <v>44962</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.001098492851191431</v>
+        <v>-0.01692197159938031</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3889,20 +3925,24 @@
       <c r="LY6" t="inlineStr"/>
       <c r="LZ6" t="inlineStr"/>
       <c r="MA6" t="inlineStr"/>
-      <c r="MB6" t="n">
-        <v>-10.55200774294258</v>
-      </c>
+      <c r="MB6" t="inlineStr"/>
       <c r="MC6" t="inlineStr"/>
+      <c r="MD6" t="n">
+        <v>1.499109592376993</v>
+      </c>
+      <c r="ME6" t="inlineStr"/>
+      <c r="MF6" t="inlineStr"/>
+      <c r="MG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44932</v>
+        <v>44963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007058047689351018</v>
+        <v>-0.007429933663019627</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -4242,16 +4282,22 @@
       <c r="MA7" t="inlineStr"/>
       <c r="MB7" t="inlineStr"/>
       <c r="MC7" t="inlineStr"/>
+      <c r="MD7" t="n">
+        <v>2.36983026479364</v>
+      </c>
+      <c r="ME7" t="inlineStr"/>
+      <c r="MF7" t="inlineStr"/>
+      <c r="MG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44933</v>
+        <v>44964</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0003976328456530647</v>
+        <v>0.02099679648826223</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -4591,16 +4637,22 @@
       <c r="MA8" t="inlineStr"/>
       <c r="MB8" t="inlineStr"/>
       <c r="MC8" t="inlineStr"/>
+      <c r="MD8" t="n">
+        <v>-2.379173496588441</v>
+      </c>
+      <c r="ME8" t="inlineStr"/>
+      <c r="MF8" t="inlineStr"/>
+      <c r="MG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44934</v>
+        <v>44965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01085941018057901</v>
+        <v>-0.01202198394143115</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -4940,16 +4992,22 @@
       <c r="MA9" t="inlineStr"/>
       <c r="MB9" t="inlineStr"/>
       <c r="MC9" t="inlineStr"/>
+      <c r="MD9" t="n">
+        <v>2.698956568531373</v>
+      </c>
+      <c r="ME9" t="inlineStr"/>
+      <c r="MF9" t="inlineStr"/>
+      <c r="MG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44935</v>
+        <v>44966</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002944330951439654</v>
+        <v>-0.05075810529203875</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -5289,16 +5347,22 @@
       <c r="MA10" t="inlineStr"/>
       <c r="MB10" t="inlineStr"/>
       <c r="MC10" t="inlineStr"/>
+      <c r="MD10" t="n">
+        <v>-24.85547817771864</v>
+      </c>
+      <c r="ME10" t="inlineStr"/>
+      <c r="MF10" t="inlineStr"/>
+      <c r="MG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44936</v>
+        <v>44967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01522902327487444</v>
+        <v>-0.007920054427436264</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -5638,16 +5702,22 @@
       <c r="MA11" t="inlineStr"/>
       <c r="MB11" t="inlineStr"/>
       <c r="MC11" t="inlineStr"/>
+      <c r="MD11" t="n">
+        <v>1.974987379184179</v>
+      </c>
+      <c r="ME11" t="inlineStr"/>
+      <c r="MF11" t="inlineStr"/>
+      <c r="MG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44937</v>
+        <v>44968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02881889655425483</v>
+        <v>0.01097608853378863</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -5987,16 +6057,22 @@
       <c r="MA12" t="inlineStr"/>
       <c r="MB12" t="inlineStr"/>
       <c r="MC12" t="inlineStr"/>
+      <c r="MD12" t="n">
+        <v>-6.546393413662738</v>
+      </c>
+      <c r="ME12" t="inlineStr"/>
+      <c r="MF12" t="inlineStr"/>
+      <c r="MG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44938</v>
+        <v>44969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05034536644957498</v>
+        <v>-0.003589787220028138</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -6336,16 +6412,22 @@
       <c r="MA13" t="inlineStr"/>
       <c r="MB13" t="inlineStr"/>
       <c r="MC13" t="inlineStr"/>
+      <c r="MD13" t="n">
+        <v>0.1371073305171607</v>
+      </c>
+      <c r="ME13" t="inlineStr"/>
+      <c r="MF13" t="inlineStr"/>
+      <c r="MG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44939</v>
+        <v>44970</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05748457813655709</v>
+        <v>-0.0003856329683132651</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -6685,16 +6767,22 @@
       <c r="MA14" t="inlineStr"/>
       <c r="MB14" t="inlineStr"/>
       <c r="MC14" t="inlineStr"/>
+      <c r="MD14" t="n">
+        <v>35.80319816930084</v>
+      </c>
+      <c r="ME14" t="inlineStr"/>
+      <c r="MF14" t="inlineStr"/>
+      <c r="MG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44940</v>
+        <v>44971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05142546340920049</v>
+        <v>0.01952777153963117</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -7034,16 +7122,22 @@
       <c r="MA15" t="inlineStr"/>
       <c r="MB15" t="inlineStr"/>
       <c r="MC15" t="inlineStr"/>
+      <c r="MD15" t="n">
+        <v>-0.1747150249110009</v>
+      </c>
+      <c r="ME15" t="inlineStr"/>
+      <c r="MF15" t="inlineStr"/>
+      <c r="MG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44941</v>
+        <v>44972</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00387824802078573</v>
+        <v>0.09568582476270095</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -7383,16 +7477,22 @@
       <c r="MA16" t="inlineStr"/>
       <c r="MB16" t="inlineStr"/>
       <c r="MC16" t="inlineStr"/>
+      <c r="MD16" t="n">
+        <v>0.8407850541991484</v>
+      </c>
+      <c r="ME16" t="inlineStr"/>
+      <c r="MF16" t="inlineStr"/>
+      <c r="MG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44942</v>
+        <v>44973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01497916685630568</v>
+        <v>-0.0331025902782031</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -7732,16 +7832,22 @@
       <c r="MA17" t="inlineStr"/>
       <c r="MB17" t="inlineStr"/>
       <c r="MC17" t="inlineStr"/>
+      <c r="MD17" t="n">
+        <v>-2.970508945244937</v>
+      </c>
+      <c r="ME17" t="inlineStr"/>
+      <c r="MF17" t="inlineStr"/>
+      <c r="MG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44943</v>
+        <v>44974</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.002399737558205679</v>
+        <v>0.04474285772600405</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -8081,16 +8187,24 @@
       <c r="MA18" t="inlineStr"/>
       <c r="MB18" t="inlineStr"/>
       <c r="MC18" t="inlineStr"/>
+      <c r="MD18" t="n">
+        <v>-1.315401254816422</v>
+      </c>
+      <c r="ME18" t="n">
+        <v>23.98952692604539</v>
+      </c>
+      <c r="MF18" t="inlineStr"/>
+      <c r="MG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44944</v>
+        <v>44975</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02152251365091051</v>
+        <v>0.002593185348238177</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -8429,19 +8543,25 @@
       <c r="LZ19" t="inlineStr"/>
       <c r="MA19" t="inlineStr"/>
       <c r="MB19" t="inlineStr"/>
-      <c r="MC19" t="n">
-        <v>56.19972888620837</v>
-      </c>
+      <c r="MC19" t="inlineStr"/>
+      <c r="MD19" t="n">
+        <v>-116.5612711990149</v>
+      </c>
+      <c r="ME19" t="n">
+        <v>-0.9171240057103376</v>
+      </c>
+      <c r="MF19" t="inlineStr"/>
+      <c r="MG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44945</v>
+        <v>44976</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01906035893172612</v>
+        <v>-0.01462687839623584</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -8780,19 +8900,25 @@
       <c r="LZ20" t="inlineStr"/>
       <c r="MA20" t="inlineStr"/>
       <c r="MB20" t="inlineStr"/>
-      <c r="MC20" t="n">
-        <v>1.759502318872591</v>
-      </c>
+      <c r="MC20" t="inlineStr"/>
+      <c r="MD20" t="n">
+        <v>-9.573633879421033</v>
+      </c>
+      <c r="ME20" t="n">
+        <v>44.80265111606106</v>
+      </c>
+      <c r="MF20" t="inlineStr"/>
+      <c r="MG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44946</v>
+        <v>44977</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0757237588620507</v>
+        <v>0.02347058462433438</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -9131,19 +9257,25 @@
       <c r="LZ21" t="inlineStr"/>
       <c r="MA21" t="inlineStr"/>
       <c r="MB21" t="inlineStr"/>
-      <c r="MC21" t="n">
-        <v>471.820261966078</v>
-      </c>
+      <c r="MC21" t="inlineStr"/>
+      <c r="MD21" t="n">
+        <v>51.76592802480403</v>
+      </c>
+      <c r="ME21" t="n">
+        <v>-3.484898510374967</v>
+      </c>
+      <c r="MF21" t="inlineStr"/>
+      <c r="MG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44947</v>
+        <v>44978</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005186181946527807</v>
+        <v>-0.01576765957344037</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -9482,19 +9614,25 @@
       <c r="LZ22" t="inlineStr"/>
       <c r="MA22" t="inlineStr"/>
       <c r="MB22" t="inlineStr"/>
-      <c r="MC22" t="n">
-        <v>-7.276017441490968</v>
-      </c>
+      <c r="MC22" t="inlineStr"/>
+      <c r="MD22" t="n">
+        <v>2.325739305083216</v>
+      </c>
+      <c r="ME22" t="n">
+        <v>1.3923265483297</v>
+      </c>
+      <c r="MF22" t="inlineStr"/>
+      <c r="MG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44948</v>
+        <v>44979</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.003312506720916702</v>
+        <v>-0.01097965822613446</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -9833,19 +9971,27 @@
       <c r="LZ23" t="inlineStr"/>
       <c r="MA23" t="inlineStr"/>
       <c r="MB23" t="inlineStr"/>
-      <c r="MC23" t="n">
-        <v>17.07620159865857</v>
-      </c>
+      <c r="MC23" t="inlineStr"/>
+      <c r="MD23" t="n">
+        <v>-2.084735796622583</v>
+      </c>
+      <c r="ME23" t="n">
+        <v>3.840173712674515</v>
+      </c>
+      <c r="MF23" t="n">
+        <v>25.83297695618528</v>
+      </c>
+      <c r="MG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44949</v>
+        <v>44980</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00926758630530583</v>
+        <v>-0.01000777017485161</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -10184,19 +10330,27 @@
       <c r="LZ24" t="inlineStr"/>
       <c r="MA24" t="inlineStr"/>
       <c r="MB24" t="inlineStr"/>
-      <c r="MC24" t="n">
-        <v>7.767256170244747</v>
-      </c>
+      <c r="MC24" t="inlineStr"/>
+      <c r="MD24" t="n">
+        <v>-0.07068042508158177</v>
+      </c>
+      <c r="ME24" t="n">
+        <v>4.528092376142098</v>
+      </c>
+      <c r="MF24" t="n">
+        <v>9.609879504327997</v>
+      </c>
+      <c r="MG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44950</v>
+        <v>44981</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01243225247089499</v>
+        <v>-0.0315331534406563</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -10535,19 +10689,25 @@
       <c r="LZ25" t="inlineStr"/>
       <c r="MA25" t="inlineStr"/>
       <c r="MB25" t="inlineStr"/>
-      <c r="MC25" t="n">
-        <v>-32.96662832437927</v>
-      </c>
+      <c r="MC25" t="inlineStr"/>
+      <c r="MD25" t="inlineStr"/>
+      <c r="ME25" t="n">
+        <v>5.416332535356447</v>
+      </c>
+      <c r="MF25" t="n">
+        <v>25.08225734368349</v>
+      </c>
+      <c r="MG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44951</v>
+        <v>44982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003708475720596657</v>
+        <v>-0.001163300270358452</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -10886,8 +11046,4318 @@
       <c r="LZ26" t="inlineStr"/>
       <c r="MA26" t="inlineStr"/>
       <c r="MB26" t="inlineStr"/>
-      <c r="MC26" t="n">
-        <v>-0.4525112167503582</v>
+      <c r="MC26" t="inlineStr"/>
+      <c r="MD26" t="inlineStr"/>
+      <c r="ME26" t="n">
+        <v>0.2683054649980726</v>
+      </c>
+      <c r="MF26" t="n">
+        <v>0.46619091725622</v>
+      </c>
+      <c r="MG26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01717747538872573</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr"/>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr"/>
+      <c r="CW27" t="inlineStr"/>
+      <c r="CX27" t="inlineStr"/>
+      <c r="CY27" t="inlineStr"/>
+      <c r="CZ27" t="inlineStr"/>
+      <c r="DA27" t="inlineStr"/>
+      <c r="DB27" t="inlineStr"/>
+      <c r="DC27" t="inlineStr"/>
+      <c r="DD27" t="inlineStr"/>
+      <c r="DE27" t="inlineStr"/>
+      <c r="DF27" t="inlineStr"/>
+      <c r="DG27" t="inlineStr"/>
+      <c r="DH27" t="inlineStr"/>
+      <c r="DI27" t="inlineStr"/>
+      <c r="DJ27" t="inlineStr"/>
+      <c r="DK27" t="inlineStr"/>
+      <c r="DL27" t="inlineStr"/>
+      <c r="DM27" t="inlineStr"/>
+      <c r="DN27" t="inlineStr"/>
+      <c r="DO27" t="inlineStr"/>
+      <c r="DP27" t="inlineStr"/>
+      <c r="DQ27" t="inlineStr"/>
+      <c r="DR27" t="inlineStr"/>
+      <c r="DS27" t="inlineStr"/>
+      <c r="DT27" t="inlineStr"/>
+      <c r="DU27" t="inlineStr"/>
+      <c r="DV27" t="inlineStr"/>
+      <c r="DW27" t="inlineStr"/>
+      <c r="DX27" t="inlineStr"/>
+      <c r="DY27" t="inlineStr"/>
+      <c r="DZ27" t="inlineStr"/>
+      <c r="EA27" t="inlineStr"/>
+      <c r="EB27" t="inlineStr"/>
+      <c r="EC27" t="inlineStr"/>
+      <c r="ED27" t="inlineStr"/>
+      <c r="EE27" t="inlineStr"/>
+      <c r="EF27" t="inlineStr"/>
+      <c r="EG27" t="inlineStr"/>
+      <c r="EH27" t="inlineStr"/>
+      <c r="EI27" t="inlineStr"/>
+      <c r="EJ27" t="inlineStr"/>
+      <c r="EK27" t="inlineStr"/>
+      <c r="EL27" t="inlineStr"/>
+      <c r="EM27" t="inlineStr"/>
+      <c r="EN27" t="inlineStr"/>
+      <c r="EO27" t="inlineStr"/>
+      <c r="EP27" t="inlineStr"/>
+      <c r="EQ27" t="inlineStr"/>
+      <c r="ER27" t="inlineStr"/>
+      <c r="ES27" t="inlineStr"/>
+      <c r="ET27" t="inlineStr"/>
+      <c r="EU27" t="inlineStr"/>
+      <c r="EV27" t="inlineStr"/>
+      <c r="EW27" t="inlineStr"/>
+      <c r="EX27" t="inlineStr"/>
+      <c r="EY27" t="inlineStr"/>
+      <c r="EZ27" t="inlineStr"/>
+      <c r="FA27" t="inlineStr"/>
+      <c r="FB27" t="inlineStr"/>
+      <c r="FC27" t="inlineStr"/>
+      <c r="FD27" t="inlineStr"/>
+      <c r="FE27" t="inlineStr"/>
+      <c r="FF27" t="inlineStr"/>
+      <c r="FG27" t="inlineStr"/>
+      <c r="FH27" t="inlineStr"/>
+      <c r="FI27" t="inlineStr"/>
+      <c r="FJ27" t="inlineStr"/>
+      <c r="FK27" t="inlineStr"/>
+      <c r="FL27" t="inlineStr"/>
+      <c r="FM27" t="inlineStr"/>
+      <c r="FN27" t="inlineStr"/>
+      <c r="FO27" t="inlineStr"/>
+      <c r="FP27" t="inlineStr"/>
+      <c r="FQ27" t="inlineStr"/>
+      <c r="FR27" t="inlineStr"/>
+      <c r="FS27" t="inlineStr"/>
+      <c r="FT27" t="inlineStr"/>
+      <c r="FU27" t="inlineStr"/>
+      <c r="FV27" t="inlineStr"/>
+      <c r="FW27" t="inlineStr"/>
+      <c r="FX27" t="inlineStr"/>
+      <c r="FY27" t="inlineStr"/>
+      <c r="FZ27" t="inlineStr"/>
+      <c r="GA27" t="inlineStr"/>
+      <c r="GB27" t="inlineStr"/>
+      <c r="GC27" t="inlineStr"/>
+      <c r="GD27" t="inlineStr"/>
+      <c r="GE27" t="inlineStr"/>
+      <c r="GF27" t="inlineStr"/>
+      <c r="GG27" t="inlineStr"/>
+      <c r="GH27" t="inlineStr"/>
+      <c r="GI27" t="inlineStr"/>
+      <c r="GJ27" t="inlineStr"/>
+      <c r="GK27" t="inlineStr"/>
+      <c r="GL27" t="inlineStr"/>
+      <c r="GM27" t="inlineStr"/>
+      <c r="GN27" t="inlineStr"/>
+      <c r="GO27" t="inlineStr"/>
+      <c r="GP27" t="inlineStr"/>
+      <c r="GQ27" t="inlineStr"/>
+      <c r="GR27" t="inlineStr"/>
+      <c r="GS27" t="inlineStr"/>
+      <c r="GT27" t="inlineStr"/>
+      <c r="GU27" t="inlineStr"/>
+      <c r="GV27" t="inlineStr"/>
+      <c r="GW27" t="inlineStr"/>
+      <c r="GX27" t="inlineStr"/>
+      <c r="GY27" t="inlineStr"/>
+      <c r="GZ27" t="inlineStr"/>
+      <c r="HA27" t="inlineStr"/>
+      <c r="HB27" t="inlineStr"/>
+      <c r="HC27" t="inlineStr"/>
+      <c r="HD27" t="inlineStr"/>
+      <c r="HE27" t="inlineStr"/>
+      <c r="HF27" t="inlineStr"/>
+      <c r="HG27" t="inlineStr"/>
+      <c r="HH27" t="inlineStr"/>
+      <c r="HI27" t="inlineStr"/>
+      <c r="HJ27" t="inlineStr"/>
+      <c r="HK27" t="inlineStr"/>
+      <c r="HL27" t="inlineStr"/>
+      <c r="HM27" t="inlineStr"/>
+      <c r="HN27" t="inlineStr"/>
+      <c r="HO27" t="inlineStr"/>
+      <c r="HP27" t="inlineStr"/>
+      <c r="HQ27" t="inlineStr"/>
+      <c r="HR27" t="inlineStr"/>
+      <c r="HS27" t="inlineStr"/>
+      <c r="HT27" t="inlineStr"/>
+      <c r="HU27" t="inlineStr"/>
+      <c r="HV27" t="inlineStr"/>
+      <c r="HW27" t="inlineStr"/>
+      <c r="HX27" t="inlineStr"/>
+      <c r="HY27" t="inlineStr"/>
+      <c r="HZ27" t="inlineStr"/>
+      <c r="IA27" t="inlineStr"/>
+      <c r="IB27" t="inlineStr"/>
+      <c r="IC27" t="inlineStr"/>
+      <c r="ID27" t="inlineStr"/>
+      <c r="IE27" t="inlineStr"/>
+      <c r="IF27" t="inlineStr"/>
+      <c r="IG27" t="inlineStr"/>
+      <c r="IH27" t="inlineStr"/>
+      <c r="II27" t="inlineStr"/>
+      <c r="IJ27" t="inlineStr"/>
+      <c r="IK27" t="inlineStr"/>
+      <c r="IL27" t="inlineStr"/>
+      <c r="IM27" t="inlineStr"/>
+      <c r="IN27" t="inlineStr"/>
+      <c r="IO27" t="inlineStr"/>
+      <c r="IP27" t="inlineStr"/>
+      <c r="IQ27" t="inlineStr"/>
+      <c r="IR27" t="inlineStr"/>
+      <c r="IS27" t="inlineStr"/>
+      <c r="IT27" t="inlineStr"/>
+      <c r="IU27" t="inlineStr"/>
+      <c r="IV27" t="inlineStr"/>
+      <c r="IW27" t="inlineStr"/>
+      <c r="IX27" t="inlineStr"/>
+      <c r="IY27" t="inlineStr"/>
+      <c r="IZ27" t="inlineStr"/>
+      <c r="JA27" t="inlineStr"/>
+      <c r="JB27" t="inlineStr"/>
+      <c r="JC27" t="inlineStr"/>
+      <c r="JD27" t="inlineStr"/>
+      <c r="JE27" t="inlineStr"/>
+      <c r="JF27" t="inlineStr"/>
+      <c r="JG27" t="inlineStr"/>
+      <c r="JH27" t="inlineStr"/>
+      <c r="JI27" t="inlineStr"/>
+      <c r="JJ27" t="inlineStr"/>
+      <c r="JK27" t="inlineStr"/>
+      <c r="JL27" t="inlineStr"/>
+      <c r="JM27" t="inlineStr"/>
+      <c r="JN27" t="inlineStr"/>
+      <c r="JO27" t="inlineStr"/>
+      <c r="JP27" t="inlineStr"/>
+      <c r="JQ27" t="inlineStr"/>
+      <c r="JR27" t="inlineStr"/>
+      <c r="JS27" t="inlineStr"/>
+      <c r="JT27" t="inlineStr"/>
+      <c r="JU27" t="inlineStr"/>
+      <c r="JV27" t="inlineStr"/>
+      <c r="JW27" t="inlineStr"/>
+      <c r="JX27" t="inlineStr"/>
+      <c r="JY27" t="inlineStr"/>
+      <c r="JZ27" t="inlineStr"/>
+      <c r="KA27" t="inlineStr"/>
+      <c r="KB27" t="inlineStr"/>
+      <c r="KC27" t="inlineStr"/>
+      <c r="KD27" t="inlineStr"/>
+      <c r="KE27" t="inlineStr"/>
+      <c r="KF27" t="inlineStr"/>
+      <c r="KG27" t="inlineStr"/>
+      <c r="KH27" t="inlineStr"/>
+      <c r="KI27" t="inlineStr"/>
+      <c r="KJ27" t="inlineStr"/>
+      <c r="KK27" t="inlineStr"/>
+      <c r="KL27" t="inlineStr"/>
+      <c r="KM27" t="inlineStr"/>
+      <c r="KN27" t="inlineStr"/>
+      <c r="KO27" t="inlineStr"/>
+      <c r="KP27" t="inlineStr"/>
+      <c r="KQ27" t="inlineStr"/>
+      <c r="KR27" t="inlineStr"/>
+      <c r="KS27" t="inlineStr"/>
+      <c r="KT27" t="inlineStr"/>
+      <c r="KU27" t="inlineStr"/>
+      <c r="KV27" t="inlineStr"/>
+      <c r="KW27" t="inlineStr"/>
+      <c r="KX27" t="inlineStr"/>
+      <c r="KY27" t="inlineStr"/>
+      <c r="KZ27" t="inlineStr"/>
+      <c r="LA27" t="inlineStr"/>
+      <c r="LB27" t="inlineStr"/>
+      <c r="LC27" t="inlineStr"/>
+      <c r="LD27" t="inlineStr"/>
+      <c r="LE27" t="inlineStr"/>
+      <c r="LF27" t="inlineStr"/>
+      <c r="LG27" t="inlineStr"/>
+      <c r="LH27" t="inlineStr"/>
+      <c r="LI27" t="inlineStr"/>
+      <c r="LJ27" t="inlineStr"/>
+      <c r="LK27" t="inlineStr"/>
+      <c r="LL27" t="inlineStr"/>
+      <c r="LM27" t="inlineStr"/>
+      <c r="LN27" t="inlineStr"/>
+      <c r="LO27" t="inlineStr"/>
+      <c r="LP27" t="inlineStr"/>
+      <c r="LQ27" t="inlineStr"/>
+      <c r="LR27" t="inlineStr"/>
+      <c r="LS27" t="inlineStr"/>
+      <c r="LT27" t="inlineStr"/>
+      <c r="LU27" t="inlineStr"/>
+      <c r="LV27" t="inlineStr"/>
+      <c r="LW27" t="inlineStr"/>
+      <c r="LX27" t="inlineStr"/>
+      <c r="LY27" t="inlineStr"/>
+      <c r="LZ27" t="inlineStr"/>
+      <c r="MA27" t="inlineStr"/>
+      <c r="MB27" t="inlineStr"/>
+      <c r="MC27" t="inlineStr"/>
+      <c r="MD27" t="inlineStr"/>
+      <c r="ME27" t="n">
+        <v>-3.625759959014781</v>
+      </c>
+      <c r="MF27" t="n">
+        <v>-0.6727075262114754</v>
+      </c>
+      <c r="MG27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.002664419429544166</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
+      <c r="CW28" t="inlineStr"/>
+      <c r="CX28" t="inlineStr"/>
+      <c r="CY28" t="inlineStr"/>
+      <c r="CZ28" t="inlineStr"/>
+      <c r="DA28" t="inlineStr"/>
+      <c r="DB28" t="inlineStr"/>
+      <c r="DC28" t="inlineStr"/>
+      <c r="DD28" t="inlineStr"/>
+      <c r="DE28" t="inlineStr"/>
+      <c r="DF28" t="inlineStr"/>
+      <c r="DG28" t="inlineStr"/>
+      <c r="DH28" t="inlineStr"/>
+      <c r="DI28" t="inlineStr"/>
+      <c r="DJ28" t="inlineStr"/>
+      <c r="DK28" t="inlineStr"/>
+      <c r="DL28" t="inlineStr"/>
+      <c r="DM28" t="inlineStr"/>
+      <c r="DN28" t="inlineStr"/>
+      <c r="DO28" t="inlineStr"/>
+      <c r="DP28" t="inlineStr"/>
+      <c r="DQ28" t="inlineStr"/>
+      <c r="DR28" t="inlineStr"/>
+      <c r="DS28" t="inlineStr"/>
+      <c r="DT28" t="inlineStr"/>
+      <c r="DU28" t="inlineStr"/>
+      <c r="DV28" t="inlineStr"/>
+      <c r="DW28" t="inlineStr"/>
+      <c r="DX28" t="inlineStr"/>
+      <c r="DY28" t="inlineStr"/>
+      <c r="DZ28" t="inlineStr"/>
+      <c r="EA28" t="inlineStr"/>
+      <c r="EB28" t="inlineStr"/>
+      <c r="EC28" t="inlineStr"/>
+      <c r="ED28" t="inlineStr"/>
+      <c r="EE28" t="inlineStr"/>
+      <c r="EF28" t="inlineStr"/>
+      <c r="EG28" t="inlineStr"/>
+      <c r="EH28" t="inlineStr"/>
+      <c r="EI28" t="inlineStr"/>
+      <c r="EJ28" t="inlineStr"/>
+      <c r="EK28" t="inlineStr"/>
+      <c r="EL28" t="inlineStr"/>
+      <c r="EM28" t="inlineStr"/>
+      <c r="EN28" t="inlineStr"/>
+      <c r="EO28" t="inlineStr"/>
+      <c r="EP28" t="inlineStr"/>
+      <c r="EQ28" t="inlineStr"/>
+      <c r="ER28" t="inlineStr"/>
+      <c r="ES28" t="inlineStr"/>
+      <c r="ET28" t="inlineStr"/>
+      <c r="EU28" t="inlineStr"/>
+      <c r="EV28" t="inlineStr"/>
+      <c r="EW28" t="inlineStr"/>
+      <c r="EX28" t="inlineStr"/>
+      <c r="EY28" t="inlineStr"/>
+      <c r="EZ28" t="inlineStr"/>
+      <c r="FA28" t="inlineStr"/>
+      <c r="FB28" t="inlineStr"/>
+      <c r="FC28" t="inlineStr"/>
+      <c r="FD28" t="inlineStr"/>
+      <c r="FE28" t="inlineStr"/>
+      <c r="FF28" t="inlineStr"/>
+      <c r="FG28" t="inlineStr"/>
+      <c r="FH28" t="inlineStr"/>
+      <c r="FI28" t="inlineStr"/>
+      <c r="FJ28" t="inlineStr"/>
+      <c r="FK28" t="inlineStr"/>
+      <c r="FL28" t="inlineStr"/>
+      <c r="FM28" t="inlineStr"/>
+      <c r="FN28" t="inlineStr"/>
+      <c r="FO28" t="inlineStr"/>
+      <c r="FP28" t="inlineStr"/>
+      <c r="FQ28" t="inlineStr"/>
+      <c r="FR28" t="inlineStr"/>
+      <c r="FS28" t="inlineStr"/>
+      <c r="FT28" t="inlineStr"/>
+      <c r="FU28" t="inlineStr"/>
+      <c r="FV28" t="inlineStr"/>
+      <c r="FW28" t="inlineStr"/>
+      <c r="FX28" t="inlineStr"/>
+      <c r="FY28" t="inlineStr"/>
+      <c r="FZ28" t="inlineStr"/>
+      <c r="GA28" t="inlineStr"/>
+      <c r="GB28" t="inlineStr"/>
+      <c r="GC28" t="inlineStr"/>
+      <c r="GD28" t="inlineStr"/>
+      <c r="GE28" t="inlineStr"/>
+      <c r="GF28" t="inlineStr"/>
+      <c r="GG28" t="inlineStr"/>
+      <c r="GH28" t="inlineStr"/>
+      <c r="GI28" t="inlineStr"/>
+      <c r="GJ28" t="inlineStr"/>
+      <c r="GK28" t="inlineStr"/>
+      <c r="GL28" t="inlineStr"/>
+      <c r="GM28" t="inlineStr"/>
+      <c r="GN28" t="inlineStr"/>
+      <c r="GO28" t="inlineStr"/>
+      <c r="GP28" t="inlineStr"/>
+      <c r="GQ28" t="inlineStr"/>
+      <c r="GR28" t="inlineStr"/>
+      <c r="GS28" t="inlineStr"/>
+      <c r="GT28" t="inlineStr"/>
+      <c r="GU28" t="inlineStr"/>
+      <c r="GV28" t="inlineStr"/>
+      <c r="GW28" t="inlineStr"/>
+      <c r="GX28" t="inlineStr"/>
+      <c r="GY28" t="inlineStr"/>
+      <c r="GZ28" t="inlineStr"/>
+      <c r="HA28" t="inlineStr"/>
+      <c r="HB28" t="inlineStr"/>
+      <c r="HC28" t="inlineStr"/>
+      <c r="HD28" t="inlineStr"/>
+      <c r="HE28" t="inlineStr"/>
+      <c r="HF28" t="inlineStr"/>
+      <c r="HG28" t="inlineStr"/>
+      <c r="HH28" t="inlineStr"/>
+      <c r="HI28" t="inlineStr"/>
+      <c r="HJ28" t="inlineStr"/>
+      <c r="HK28" t="inlineStr"/>
+      <c r="HL28" t="inlineStr"/>
+      <c r="HM28" t="inlineStr"/>
+      <c r="HN28" t="inlineStr"/>
+      <c r="HO28" t="inlineStr"/>
+      <c r="HP28" t="inlineStr"/>
+      <c r="HQ28" t="inlineStr"/>
+      <c r="HR28" t="inlineStr"/>
+      <c r="HS28" t="inlineStr"/>
+      <c r="HT28" t="inlineStr"/>
+      <c r="HU28" t="inlineStr"/>
+      <c r="HV28" t="inlineStr"/>
+      <c r="HW28" t="inlineStr"/>
+      <c r="HX28" t="inlineStr"/>
+      <c r="HY28" t="inlineStr"/>
+      <c r="HZ28" t="inlineStr"/>
+      <c r="IA28" t="inlineStr"/>
+      <c r="IB28" t="inlineStr"/>
+      <c r="IC28" t="inlineStr"/>
+      <c r="ID28" t="inlineStr"/>
+      <c r="IE28" t="inlineStr"/>
+      <c r="IF28" t="inlineStr"/>
+      <c r="IG28" t="inlineStr"/>
+      <c r="IH28" t="inlineStr"/>
+      <c r="II28" t="inlineStr"/>
+      <c r="IJ28" t="inlineStr"/>
+      <c r="IK28" t="inlineStr"/>
+      <c r="IL28" t="inlineStr"/>
+      <c r="IM28" t="inlineStr"/>
+      <c r="IN28" t="inlineStr"/>
+      <c r="IO28" t="inlineStr"/>
+      <c r="IP28" t="inlineStr"/>
+      <c r="IQ28" t="inlineStr"/>
+      <c r="IR28" t="inlineStr"/>
+      <c r="IS28" t="inlineStr"/>
+      <c r="IT28" t="inlineStr"/>
+      <c r="IU28" t="inlineStr"/>
+      <c r="IV28" t="inlineStr"/>
+      <c r="IW28" t="inlineStr"/>
+      <c r="IX28" t="inlineStr"/>
+      <c r="IY28" t="inlineStr"/>
+      <c r="IZ28" t="inlineStr"/>
+      <c r="JA28" t="inlineStr"/>
+      <c r="JB28" t="inlineStr"/>
+      <c r="JC28" t="inlineStr"/>
+      <c r="JD28" t="inlineStr"/>
+      <c r="JE28" t="inlineStr"/>
+      <c r="JF28" t="inlineStr"/>
+      <c r="JG28" t="inlineStr"/>
+      <c r="JH28" t="inlineStr"/>
+      <c r="JI28" t="inlineStr"/>
+      <c r="JJ28" t="inlineStr"/>
+      <c r="JK28" t="inlineStr"/>
+      <c r="JL28" t="inlineStr"/>
+      <c r="JM28" t="inlineStr"/>
+      <c r="JN28" t="inlineStr"/>
+      <c r="JO28" t="inlineStr"/>
+      <c r="JP28" t="inlineStr"/>
+      <c r="JQ28" t="inlineStr"/>
+      <c r="JR28" t="inlineStr"/>
+      <c r="JS28" t="inlineStr"/>
+      <c r="JT28" t="inlineStr"/>
+      <c r="JU28" t="inlineStr"/>
+      <c r="JV28" t="inlineStr"/>
+      <c r="JW28" t="inlineStr"/>
+      <c r="JX28" t="inlineStr"/>
+      <c r="JY28" t="inlineStr"/>
+      <c r="JZ28" t="inlineStr"/>
+      <c r="KA28" t="inlineStr"/>
+      <c r="KB28" t="inlineStr"/>
+      <c r="KC28" t="inlineStr"/>
+      <c r="KD28" t="inlineStr"/>
+      <c r="KE28" t="inlineStr"/>
+      <c r="KF28" t="inlineStr"/>
+      <c r="KG28" t="inlineStr"/>
+      <c r="KH28" t="inlineStr"/>
+      <c r="KI28" t="inlineStr"/>
+      <c r="KJ28" t="inlineStr"/>
+      <c r="KK28" t="inlineStr"/>
+      <c r="KL28" t="inlineStr"/>
+      <c r="KM28" t="inlineStr"/>
+      <c r="KN28" t="inlineStr"/>
+      <c r="KO28" t="inlineStr"/>
+      <c r="KP28" t="inlineStr"/>
+      <c r="KQ28" t="inlineStr"/>
+      <c r="KR28" t="inlineStr"/>
+      <c r="KS28" t="inlineStr"/>
+      <c r="KT28" t="inlineStr"/>
+      <c r="KU28" t="inlineStr"/>
+      <c r="KV28" t="inlineStr"/>
+      <c r="KW28" t="inlineStr"/>
+      <c r="KX28" t="inlineStr"/>
+      <c r="KY28" t="inlineStr"/>
+      <c r="KZ28" t="inlineStr"/>
+      <c r="LA28" t="inlineStr"/>
+      <c r="LB28" t="inlineStr"/>
+      <c r="LC28" t="inlineStr"/>
+      <c r="LD28" t="inlineStr"/>
+      <c r="LE28" t="inlineStr"/>
+      <c r="LF28" t="inlineStr"/>
+      <c r="LG28" t="inlineStr"/>
+      <c r="LH28" t="inlineStr"/>
+      <c r="LI28" t="inlineStr"/>
+      <c r="LJ28" t="inlineStr"/>
+      <c r="LK28" t="inlineStr"/>
+      <c r="LL28" t="inlineStr"/>
+      <c r="LM28" t="inlineStr"/>
+      <c r="LN28" t="inlineStr"/>
+      <c r="LO28" t="inlineStr"/>
+      <c r="LP28" t="inlineStr"/>
+      <c r="LQ28" t="inlineStr"/>
+      <c r="LR28" t="inlineStr"/>
+      <c r="LS28" t="inlineStr"/>
+      <c r="LT28" t="inlineStr"/>
+      <c r="LU28" t="inlineStr"/>
+      <c r="LV28" t="inlineStr"/>
+      <c r="LW28" t="inlineStr"/>
+      <c r="LX28" t="inlineStr"/>
+      <c r="LY28" t="inlineStr"/>
+      <c r="LZ28" t="inlineStr"/>
+      <c r="MA28" t="inlineStr"/>
+      <c r="MB28" t="inlineStr"/>
+      <c r="MC28" t="inlineStr"/>
+      <c r="MD28" t="inlineStr"/>
+      <c r="ME28" t="n">
+        <v>-3.852047520451819</v>
+      </c>
+      <c r="MF28" t="n">
+        <v>4.374663259301742</v>
+      </c>
+      <c r="MG28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.01492076694751299</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr"/>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr"/>
+      <c r="CW29" t="inlineStr"/>
+      <c r="CX29" t="inlineStr"/>
+      <c r="CY29" t="inlineStr"/>
+      <c r="CZ29" t="inlineStr"/>
+      <c r="DA29" t="inlineStr"/>
+      <c r="DB29" t="inlineStr"/>
+      <c r="DC29" t="inlineStr"/>
+      <c r="DD29" t="inlineStr"/>
+      <c r="DE29" t="inlineStr"/>
+      <c r="DF29" t="inlineStr"/>
+      <c r="DG29" t="inlineStr"/>
+      <c r="DH29" t="inlineStr"/>
+      <c r="DI29" t="inlineStr"/>
+      <c r="DJ29" t="inlineStr"/>
+      <c r="DK29" t="inlineStr"/>
+      <c r="DL29" t="inlineStr"/>
+      <c r="DM29" t="inlineStr"/>
+      <c r="DN29" t="inlineStr"/>
+      <c r="DO29" t="inlineStr"/>
+      <c r="DP29" t="inlineStr"/>
+      <c r="DQ29" t="inlineStr"/>
+      <c r="DR29" t="inlineStr"/>
+      <c r="DS29" t="inlineStr"/>
+      <c r="DT29" t="inlineStr"/>
+      <c r="DU29" t="inlineStr"/>
+      <c r="DV29" t="inlineStr"/>
+      <c r="DW29" t="inlineStr"/>
+      <c r="DX29" t="inlineStr"/>
+      <c r="DY29" t="inlineStr"/>
+      <c r="DZ29" t="inlineStr"/>
+      <c r="EA29" t="inlineStr"/>
+      <c r="EB29" t="inlineStr"/>
+      <c r="EC29" t="inlineStr"/>
+      <c r="ED29" t="inlineStr"/>
+      <c r="EE29" t="inlineStr"/>
+      <c r="EF29" t="inlineStr"/>
+      <c r="EG29" t="inlineStr"/>
+      <c r="EH29" t="inlineStr"/>
+      <c r="EI29" t="inlineStr"/>
+      <c r="EJ29" t="inlineStr"/>
+      <c r="EK29" t="inlineStr"/>
+      <c r="EL29" t="inlineStr"/>
+      <c r="EM29" t="inlineStr"/>
+      <c r="EN29" t="inlineStr"/>
+      <c r="EO29" t="inlineStr"/>
+      <c r="EP29" t="inlineStr"/>
+      <c r="EQ29" t="inlineStr"/>
+      <c r="ER29" t="inlineStr"/>
+      <c r="ES29" t="inlineStr"/>
+      <c r="ET29" t="inlineStr"/>
+      <c r="EU29" t="inlineStr"/>
+      <c r="EV29" t="inlineStr"/>
+      <c r="EW29" t="inlineStr"/>
+      <c r="EX29" t="inlineStr"/>
+      <c r="EY29" t="inlineStr"/>
+      <c r="EZ29" t="inlineStr"/>
+      <c r="FA29" t="inlineStr"/>
+      <c r="FB29" t="inlineStr"/>
+      <c r="FC29" t="inlineStr"/>
+      <c r="FD29" t="inlineStr"/>
+      <c r="FE29" t="inlineStr"/>
+      <c r="FF29" t="inlineStr"/>
+      <c r="FG29" t="inlineStr"/>
+      <c r="FH29" t="inlineStr"/>
+      <c r="FI29" t="inlineStr"/>
+      <c r="FJ29" t="inlineStr"/>
+      <c r="FK29" t="inlineStr"/>
+      <c r="FL29" t="inlineStr"/>
+      <c r="FM29" t="inlineStr"/>
+      <c r="FN29" t="inlineStr"/>
+      <c r="FO29" t="inlineStr"/>
+      <c r="FP29" t="inlineStr"/>
+      <c r="FQ29" t="inlineStr"/>
+      <c r="FR29" t="inlineStr"/>
+      <c r="FS29" t="inlineStr"/>
+      <c r="FT29" t="inlineStr"/>
+      <c r="FU29" t="inlineStr"/>
+      <c r="FV29" t="inlineStr"/>
+      <c r="FW29" t="inlineStr"/>
+      <c r="FX29" t="inlineStr"/>
+      <c r="FY29" t="inlineStr"/>
+      <c r="FZ29" t="inlineStr"/>
+      <c r="GA29" t="inlineStr"/>
+      <c r="GB29" t="inlineStr"/>
+      <c r="GC29" t="inlineStr"/>
+      <c r="GD29" t="inlineStr"/>
+      <c r="GE29" t="inlineStr"/>
+      <c r="GF29" t="inlineStr"/>
+      <c r="GG29" t="inlineStr"/>
+      <c r="GH29" t="inlineStr"/>
+      <c r="GI29" t="inlineStr"/>
+      <c r="GJ29" t="inlineStr"/>
+      <c r="GK29" t="inlineStr"/>
+      <c r="GL29" t="inlineStr"/>
+      <c r="GM29" t="inlineStr"/>
+      <c r="GN29" t="inlineStr"/>
+      <c r="GO29" t="inlineStr"/>
+      <c r="GP29" t="inlineStr"/>
+      <c r="GQ29" t="inlineStr"/>
+      <c r="GR29" t="inlineStr"/>
+      <c r="GS29" t="inlineStr"/>
+      <c r="GT29" t="inlineStr"/>
+      <c r="GU29" t="inlineStr"/>
+      <c r="GV29" t="inlineStr"/>
+      <c r="GW29" t="inlineStr"/>
+      <c r="GX29" t="inlineStr"/>
+      <c r="GY29" t="inlineStr"/>
+      <c r="GZ29" t="inlineStr"/>
+      <c r="HA29" t="inlineStr"/>
+      <c r="HB29" t="inlineStr"/>
+      <c r="HC29" t="inlineStr"/>
+      <c r="HD29" t="inlineStr"/>
+      <c r="HE29" t="inlineStr"/>
+      <c r="HF29" t="inlineStr"/>
+      <c r="HG29" t="inlineStr"/>
+      <c r="HH29" t="inlineStr"/>
+      <c r="HI29" t="inlineStr"/>
+      <c r="HJ29" t="inlineStr"/>
+      <c r="HK29" t="inlineStr"/>
+      <c r="HL29" t="inlineStr"/>
+      <c r="HM29" t="inlineStr"/>
+      <c r="HN29" t="inlineStr"/>
+      <c r="HO29" t="inlineStr"/>
+      <c r="HP29" t="inlineStr"/>
+      <c r="HQ29" t="inlineStr"/>
+      <c r="HR29" t="inlineStr"/>
+      <c r="HS29" t="inlineStr"/>
+      <c r="HT29" t="inlineStr"/>
+      <c r="HU29" t="inlineStr"/>
+      <c r="HV29" t="inlineStr"/>
+      <c r="HW29" t="inlineStr"/>
+      <c r="HX29" t="inlineStr"/>
+      <c r="HY29" t="inlineStr"/>
+      <c r="HZ29" t="inlineStr"/>
+      <c r="IA29" t="inlineStr"/>
+      <c r="IB29" t="inlineStr"/>
+      <c r="IC29" t="inlineStr"/>
+      <c r="ID29" t="inlineStr"/>
+      <c r="IE29" t="inlineStr"/>
+      <c r="IF29" t="inlineStr"/>
+      <c r="IG29" t="inlineStr"/>
+      <c r="IH29" t="inlineStr"/>
+      <c r="II29" t="inlineStr"/>
+      <c r="IJ29" t="inlineStr"/>
+      <c r="IK29" t="inlineStr"/>
+      <c r="IL29" t="inlineStr"/>
+      <c r="IM29" t="inlineStr"/>
+      <c r="IN29" t="inlineStr"/>
+      <c r="IO29" t="inlineStr"/>
+      <c r="IP29" t="inlineStr"/>
+      <c r="IQ29" t="inlineStr"/>
+      <c r="IR29" t="inlineStr"/>
+      <c r="IS29" t="inlineStr"/>
+      <c r="IT29" t="inlineStr"/>
+      <c r="IU29" t="inlineStr"/>
+      <c r="IV29" t="inlineStr"/>
+      <c r="IW29" t="inlineStr"/>
+      <c r="IX29" t="inlineStr"/>
+      <c r="IY29" t="inlineStr"/>
+      <c r="IZ29" t="inlineStr"/>
+      <c r="JA29" t="inlineStr"/>
+      <c r="JB29" t="inlineStr"/>
+      <c r="JC29" t="inlineStr"/>
+      <c r="JD29" t="inlineStr"/>
+      <c r="JE29" t="inlineStr"/>
+      <c r="JF29" t="inlineStr"/>
+      <c r="JG29" t="inlineStr"/>
+      <c r="JH29" t="inlineStr"/>
+      <c r="JI29" t="inlineStr"/>
+      <c r="JJ29" t="inlineStr"/>
+      <c r="JK29" t="inlineStr"/>
+      <c r="JL29" t="inlineStr"/>
+      <c r="JM29" t="inlineStr"/>
+      <c r="JN29" t="inlineStr"/>
+      <c r="JO29" t="inlineStr"/>
+      <c r="JP29" t="inlineStr"/>
+      <c r="JQ29" t="inlineStr"/>
+      <c r="JR29" t="inlineStr"/>
+      <c r="JS29" t="inlineStr"/>
+      <c r="JT29" t="inlineStr"/>
+      <c r="JU29" t="inlineStr"/>
+      <c r="JV29" t="inlineStr"/>
+      <c r="JW29" t="inlineStr"/>
+      <c r="JX29" t="inlineStr"/>
+      <c r="JY29" t="inlineStr"/>
+      <c r="JZ29" t="inlineStr"/>
+      <c r="KA29" t="inlineStr"/>
+      <c r="KB29" t="inlineStr"/>
+      <c r="KC29" t="inlineStr"/>
+      <c r="KD29" t="inlineStr"/>
+      <c r="KE29" t="inlineStr"/>
+      <c r="KF29" t="inlineStr"/>
+      <c r="KG29" t="inlineStr"/>
+      <c r="KH29" t="inlineStr"/>
+      <c r="KI29" t="inlineStr"/>
+      <c r="KJ29" t="inlineStr"/>
+      <c r="KK29" t="inlineStr"/>
+      <c r="KL29" t="inlineStr"/>
+      <c r="KM29" t="inlineStr"/>
+      <c r="KN29" t="inlineStr"/>
+      <c r="KO29" t="inlineStr"/>
+      <c r="KP29" t="inlineStr"/>
+      <c r="KQ29" t="inlineStr"/>
+      <c r="KR29" t="inlineStr"/>
+      <c r="KS29" t="inlineStr"/>
+      <c r="KT29" t="inlineStr"/>
+      <c r="KU29" t="inlineStr"/>
+      <c r="KV29" t="inlineStr"/>
+      <c r="KW29" t="inlineStr"/>
+      <c r="KX29" t="inlineStr"/>
+      <c r="KY29" t="inlineStr"/>
+      <c r="KZ29" t="inlineStr"/>
+      <c r="LA29" t="inlineStr"/>
+      <c r="LB29" t="inlineStr"/>
+      <c r="LC29" t="inlineStr"/>
+      <c r="LD29" t="inlineStr"/>
+      <c r="LE29" t="inlineStr"/>
+      <c r="LF29" t="inlineStr"/>
+      <c r="LG29" t="inlineStr"/>
+      <c r="LH29" t="inlineStr"/>
+      <c r="LI29" t="inlineStr"/>
+      <c r="LJ29" t="inlineStr"/>
+      <c r="LK29" t="inlineStr"/>
+      <c r="LL29" t="inlineStr"/>
+      <c r="LM29" t="inlineStr"/>
+      <c r="LN29" t="inlineStr"/>
+      <c r="LO29" t="inlineStr"/>
+      <c r="LP29" t="inlineStr"/>
+      <c r="LQ29" t="inlineStr"/>
+      <c r="LR29" t="inlineStr"/>
+      <c r="LS29" t="inlineStr"/>
+      <c r="LT29" t="inlineStr"/>
+      <c r="LU29" t="inlineStr"/>
+      <c r="LV29" t="inlineStr"/>
+      <c r="LW29" t="inlineStr"/>
+      <c r="LX29" t="inlineStr"/>
+      <c r="LY29" t="inlineStr"/>
+      <c r="LZ29" t="inlineStr"/>
+      <c r="MA29" t="inlineStr"/>
+      <c r="MB29" t="inlineStr"/>
+      <c r="MC29" t="inlineStr"/>
+      <c r="MD29" t="inlineStr"/>
+      <c r="ME29" t="n">
+        <v>12.36505024645541</v>
+      </c>
+      <c r="MF29" t="n">
+        <v>0.1450720873942396</v>
+      </c>
+      <c r="MG29" t="n">
+        <v>44.55690724786012</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02106166521977556</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
+      <c r="CX30" t="inlineStr"/>
+      <c r="CY30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr"/>
+      <c r="DA30" t="inlineStr"/>
+      <c r="DB30" t="inlineStr"/>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="inlineStr"/>
+      <c r="DE30" t="inlineStr"/>
+      <c r="DF30" t="inlineStr"/>
+      <c r="DG30" t="inlineStr"/>
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="inlineStr"/>
+      <c r="DJ30" t="inlineStr"/>
+      <c r="DK30" t="inlineStr"/>
+      <c r="DL30" t="inlineStr"/>
+      <c r="DM30" t="inlineStr"/>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr"/>
+      <c r="DQ30" t="inlineStr"/>
+      <c r="DR30" t="inlineStr"/>
+      <c r="DS30" t="inlineStr"/>
+      <c r="DT30" t="inlineStr"/>
+      <c r="DU30" t="inlineStr"/>
+      <c r="DV30" t="inlineStr"/>
+      <c r="DW30" t="inlineStr"/>
+      <c r="DX30" t="inlineStr"/>
+      <c r="DY30" t="inlineStr"/>
+      <c r="DZ30" t="inlineStr"/>
+      <c r="EA30" t="inlineStr"/>
+      <c r="EB30" t="inlineStr"/>
+      <c r="EC30" t="inlineStr"/>
+      <c r="ED30" t="inlineStr"/>
+      <c r="EE30" t="inlineStr"/>
+      <c r="EF30" t="inlineStr"/>
+      <c r="EG30" t="inlineStr"/>
+      <c r="EH30" t="inlineStr"/>
+      <c r="EI30" t="inlineStr"/>
+      <c r="EJ30" t="inlineStr"/>
+      <c r="EK30" t="inlineStr"/>
+      <c r="EL30" t="inlineStr"/>
+      <c r="EM30" t="inlineStr"/>
+      <c r="EN30" t="inlineStr"/>
+      <c r="EO30" t="inlineStr"/>
+      <c r="EP30" t="inlineStr"/>
+      <c r="EQ30" t="inlineStr"/>
+      <c r="ER30" t="inlineStr"/>
+      <c r="ES30" t="inlineStr"/>
+      <c r="ET30" t="inlineStr"/>
+      <c r="EU30" t="inlineStr"/>
+      <c r="EV30" t="inlineStr"/>
+      <c r="EW30" t="inlineStr"/>
+      <c r="EX30" t="inlineStr"/>
+      <c r="EY30" t="inlineStr"/>
+      <c r="EZ30" t="inlineStr"/>
+      <c r="FA30" t="inlineStr"/>
+      <c r="FB30" t="inlineStr"/>
+      <c r="FC30" t="inlineStr"/>
+      <c r="FD30" t="inlineStr"/>
+      <c r="FE30" t="inlineStr"/>
+      <c r="FF30" t="inlineStr"/>
+      <c r="FG30" t="inlineStr"/>
+      <c r="FH30" t="inlineStr"/>
+      <c r="FI30" t="inlineStr"/>
+      <c r="FJ30" t="inlineStr"/>
+      <c r="FK30" t="inlineStr"/>
+      <c r="FL30" t="inlineStr"/>
+      <c r="FM30" t="inlineStr"/>
+      <c r="FN30" t="inlineStr"/>
+      <c r="FO30" t="inlineStr"/>
+      <c r="FP30" t="inlineStr"/>
+      <c r="FQ30" t="inlineStr"/>
+      <c r="FR30" t="inlineStr"/>
+      <c r="FS30" t="inlineStr"/>
+      <c r="FT30" t="inlineStr"/>
+      <c r="FU30" t="inlineStr"/>
+      <c r="FV30" t="inlineStr"/>
+      <c r="FW30" t="inlineStr"/>
+      <c r="FX30" t="inlineStr"/>
+      <c r="FY30" t="inlineStr"/>
+      <c r="FZ30" t="inlineStr"/>
+      <c r="GA30" t="inlineStr"/>
+      <c r="GB30" t="inlineStr"/>
+      <c r="GC30" t="inlineStr"/>
+      <c r="GD30" t="inlineStr"/>
+      <c r="GE30" t="inlineStr"/>
+      <c r="GF30" t="inlineStr"/>
+      <c r="GG30" t="inlineStr"/>
+      <c r="GH30" t="inlineStr"/>
+      <c r="GI30" t="inlineStr"/>
+      <c r="GJ30" t="inlineStr"/>
+      <c r="GK30" t="inlineStr"/>
+      <c r="GL30" t="inlineStr"/>
+      <c r="GM30" t="inlineStr"/>
+      <c r="GN30" t="inlineStr"/>
+      <c r="GO30" t="inlineStr"/>
+      <c r="GP30" t="inlineStr"/>
+      <c r="GQ30" t="inlineStr"/>
+      <c r="GR30" t="inlineStr"/>
+      <c r="GS30" t="inlineStr"/>
+      <c r="GT30" t="inlineStr"/>
+      <c r="GU30" t="inlineStr"/>
+      <c r="GV30" t="inlineStr"/>
+      <c r="GW30" t="inlineStr"/>
+      <c r="GX30" t="inlineStr"/>
+      <c r="GY30" t="inlineStr"/>
+      <c r="GZ30" t="inlineStr"/>
+      <c r="HA30" t="inlineStr"/>
+      <c r="HB30" t="inlineStr"/>
+      <c r="HC30" t="inlineStr"/>
+      <c r="HD30" t="inlineStr"/>
+      <c r="HE30" t="inlineStr"/>
+      <c r="HF30" t="inlineStr"/>
+      <c r="HG30" t="inlineStr"/>
+      <c r="HH30" t="inlineStr"/>
+      <c r="HI30" t="inlineStr"/>
+      <c r="HJ30" t="inlineStr"/>
+      <c r="HK30" t="inlineStr"/>
+      <c r="HL30" t="inlineStr"/>
+      <c r="HM30" t="inlineStr"/>
+      <c r="HN30" t="inlineStr"/>
+      <c r="HO30" t="inlineStr"/>
+      <c r="HP30" t="inlineStr"/>
+      <c r="HQ30" t="inlineStr"/>
+      <c r="HR30" t="inlineStr"/>
+      <c r="HS30" t="inlineStr"/>
+      <c r="HT30" t="inlineStr"/>
+      <c r="HU30" t="inlineStr"/>
+      <c r="HV30" t="inlineStr"/>
+      <c r="HW30" t="inlineStr"/>
+      <c r="HX30" t="inlineStr"/>
+      <c r="HY30" t="inlineStr"/>
+      <c r="HZ30" t="inlineStr"/>
+      <c r="IA30" t="inlineStr"/>
+      <c r="IB30" t="inlineStr"/>
+      <c r="IC30" t="inlineStr"/>
+      <c r="ID30" t="inlineStr"/>
+      <c r="IE30" t="inlineStr"/>
+      <c r="IF30" t="inlineStr"/>
+      <c r="IG30" t="inlineStr"/>
+      <c r="IH30" t="inlineStr"/>
+      <c r="II30" t="inlineStr"/>
+      <c r="IJ30" t="inlineStr"/>
+      <c r="IK30" t="inlineStr"/>
+      <c r="IL30" t="inlineStr"/>
+      <c r="IM30" t="inlineStr"/>
+      <c r="IN30" t="inlineStr"/>
+      <c r="IO30" t="inlineStr"/>
+      <c r="IP30" t="inlineStr"/>
+      <c r="IQ30" t="inlineStr"/>
+      <c r="IR30" t="inlineStr"/>
+      <c r="IS30" t="inlineStr"/>
+      <c r="IT30" t="inlineStr"/>
+      <c r="IU30" t="inlineStr"/>
+      <c r="IV30" t="inlineStr"/>
+      <c r="IW30" t="inlineStr"/>
+      <c r="IX30" t="inlineStr"/>
+      <c r="IY30" t="inlineStr"/>
+      <c r="IZ30" t="inlineStr"/>
+      <c r="JA30" t="inlineStr"/>
+      <c r="JB30" t="inlineStr"/>
+      <c r="JC30" t="inlineStr"/>
+      <c r="JD30" t="inlineStr"/>
+      <c r="JE30" t="inlineStr"/>
+      <c r="JF30" t="inlineStr"/>
+      <c r="JG30" t="inlineStr"/>
+      <c r="JH30" t="inlineStr"/>
+      <c r="JI30" t="inlineStr"/>
+      <c r="JJ30" t="inlineStr"/>
+      <c r="JK30" t="inlineStr"/>
+      <c r="JL30" t="inlineStr"/>
+      <c r="JM30" t="inlineStr"/>
+      <c r="JN30" t="inlineStr"/>
+      <c r="JO30" t="inlineStr"/>
+      <c r="JP30" t="inlineStr"/>
+      <c r="JQ30" t="inlineStr"/>
+      <c r="JR30" t="inlineStr"/>
+      <c r="JS30" t="inlineStr"/>
+      <c r="JT30" t="inlineStr"/>
+      <c r="JU30" t="inlineStr"/>
+      <c r="JV30" t="inlineStr"/>
+      <c r="JW30" t="inlineStr"/>
+      <c r="JX30" t="inlineStr"/>
+      <c r="JY30" t="inlineStr"/>
+      <c r="JZ30" t="inlineStr"/>
+      <c r="KA30" t="inlineStr"/>
+      <c r="KB30" t="inlineStr"/>
+      <c r="KC30" t="inlineStr"/>
+      <c r="KD30" t="inlineStr"/>
+      <c r="KE30" t="inlineStr"/>
+      <c r="KF30" t="inlineStr"/>
+      <c r="KG30" t="inlineStr"/>
+      <c r="KH30" t="inlineStr"/>
+      <c r="KI30" t="inlineStr"/>
+      <c r="KJ30" t="inlineStr"/>
+      <c r="KK30" t="inlineStr"/>
+      <c r="KL30" t="inlineStr"/>
+      <c r="KM30" t="inlineStr"/>
+      <c r="KN30" t="inlineStr"/>
+      <c r="KO30" t="inlineStr"/>
+      <c r="KP30" t="inlineStr"/>
+      <c r="KQ30" t="inlineStr"/>
+      <c r="KR30" t="inlineStr"/>
+      <c r="KS30" t="inlineStr"/>
+      <c r="KT30" t="inlineStr"/>
+      <c r="KU30" t="inlineStr"/>
+      <c r="KV30" t="inlineStr"/>
+      <c r="KW30" t="inlineStr"/>
+      <c r="KX30" t="inlineStr"/>
+      <c r="KY30" t="inlineStr"/>
+      <c r="KZ30" t="inlineStr"/>
+      <c r="LA30" t="inlineStr"/>
+      <c r="LB30" t="inlineStr"/>
+      <c r="LC30" t="inlineStr"/>
+      <c r="LD30" t="inlineStr"/>
+      <c r="LE30" t="inlineStr"/>
+      <c r="LF30" t="inlineStr"/>
+      <c r="LG30" t="inlineStr"/>
+      <c r="LH30" t="inlineStr"/>
+      <c r="LI30" t="inlineStr"/>
+      <c r="LJ30" t="inlineStr"/>
+      <c r="LK30" t="inlineStr"/>
+      <c r="LL30" t="inlineStr"/>
+      <c r="LM30" t="inlineStr"/>
+      <c r="LN30" t="inlineStr"/>
+      <c r="LO30" t="inlineStr"/>
+      <c r="LP30" t="inlineStr"/>
+      <c r="LQ30" t="inlineStr"/>
+      <c r="LR30" t="inlineStr"/>
+      <c r="LS30" t="inlineStr"/>
+      <c r="LT30" t="inlineStr"/>
+      <c r="LU30" t="inlineStr"/>
+      <c r="LV30" t="inlineStr"/>
+      <c r="LW30" t="inlineStr"/>
+      <c r="LX30" t="inlineStr"/>
+      <c r="LY30" t="inlineStr"/>
+      <c r="LZ30" t="inlineStr"/>
+      <c r="MA30" t="inlineStr"/>
+      <c r="MB30" t="inlineStr"/>
+      <c r="MC30" t="inlineStr"/>
+      <c r="MD30" t="inlineStr"/>
+      <c r="ME30" t="n">
+        <v>65.37964777821352</v>
+      </c>
+      <c r="MF30" t="n">
+        <v>1.056553481619606</v>
+      </c>
+      <c r="MG30" t="n">
+        <v>12.70881853376235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.006959021166528932</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
+      <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr"/>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
+      <c r="CW31" t="inlineStr"/>
+      <c r="CX31" t="inlineStr"/>
+      <c r="CY31" t="inlineStr"/>
+      <c r="CZ31" t="inlineStr"/>
+      <c r="DA31" t="inlineStr"/>
+      <c r="DB31" t="inlineStr"/>
+      <c r="DC31" t="inlineStr"/>
+      <c r="DD31" t="inlineStr"/>
+      <c r="DE31" t="inlineStr"/>
+      <c r="DF31" t="inlineStr"/>
+      <c r="DG31" t="inlineStr"/>
+      <c r="DH31" t="inlineStr"/>
+      <c r="DI31" t="inlineStr"/>
+      <c r="DJ31" t="inlineStr"/>
+      <c r="DK31" t="inlineStr"/>
+      <c r="DL31" t="inlineStr"/>
+      <c r="DM31" t="inlineStr"/>
+      <c r="DN31" t="inlineStr"/>
+      <c r="DO31" t="inlineStr"/>
+      <c r="DP31" t="inlineStr"/>
+      <c r="DQ31" t="inlineStr"/>
+      <c r="DR31" t="inlineStr"/>
+      <c r="DS31" t="inlineStr"/>
+      <c r="DT31" t="inlineStr"/>
+      <c r="DU31" t="inlineStr"/>
+      <c r="DV31" t="inlineStr"/>
+      <c r="DW31" t="inlineStr"/>
+      <c r="DX31" t="inlineStr"/>
+      <c r="DY31" t="inlineStr"/>
+      <c r="DZ31" t="inlineStr"/>
+      <c r="EA31" t="inlineStr"/>
+      <c r="EB31" t="inlineStr"/>
+      <c r="EC31" t="inlineStr"/>
+      <c r="ED31" t="inlineStr"/>
+      <c r="EE31" t="inlineStr"/>
+      <c r="EF31" t="inlineStr"/>
+      <c r="EG31" t="inlineStr"/>
+      <c r="EH31" t="inlineStr"/>
+      <c r="EI31" t="inlineStr"/>
+      <c r="EJ31" t="inlineStr"/>
+      <c r="EK31" t="inlineStr"/>
+      <c r="EL31" t="inlineStr"/>
+      <c r="EM31" t="inlineStr"/>
+      <c r="EN31" t="inlineStr"/>
+      <c r="EO31" t="inlineStr"/>
+      <c r="EP31" t="inlineStr"/>
+      <c r="EQ31" t="inlineStr"/>
+      <c r="ER31" t="inlineStr"/>
+      <c r="ES31" t="inlineStr"/>
+      <c r="ET31" t="inlineStr"/>
+      <c r="EU31" t="inlineStr"/>
+      <c r="EV31" t="inlineStr"/>
+      <c r="EW31" t="inlineStr"/>
+      <c r="EX31" t="inlineStr"/>
+      <c r="EY31" t="inlineStr"/>
+      <c r="EZ31" t="inlineStr"/>
+      <c r="FA31" t="inlineStr"/>
+      <c r="FB31" t="inlineStr"/>
+      <c r="FC31" t="inlineStr"/>
+      <c r="FD31" t="inlineStr"/>
+      <c r="FE31" t="inlineStr"/>
+      <c r="FF31" t="inlineStr"/>
+      <c r="FG31" t="inlineStr"/>
+      <c r="FH31" t="inlineStr"/>
+      <c r="FI31" t="inlineStr"/>
+      <c r="FJ31" t="inlineStr"/>
+      <c r="FK31" t="inlineStr"/>
+      <c r="FL31" t="inlineStr"/>
+      <c r="FM31" t="inlineStr"/>
+      <c r="FN31" t="inlineStr"/>
+      <c r="FO31" t="inlineStr"/>
+      <c r="FP31" t="inlineStr"/>
+      <c r="FQ31" t="inlineStr"/>
+      <c r="FR31" t="inlineStr"/>
+      <c r="FS31" t="inlineStr"/>
+      <c r="FT31" t="inlineStr"/>
+      <c r="FU31" t="inlineStr"/>
+      <c r="FV31" t="inlineStr"/>
+      <c r="FW31" t="inlineStr"/>
+      <c r="FX31" t="inlineStr"/>
+      <c r="FY31" t="inlineStr"/>
+      <c r="FZ31" t="inlineStr"/>
+      <c r="GA31" t="inlineStr"/>
+      <c r="GB31" t="inlineStr"/>
+      <c r="GC31" t="inlineStr"/>
+      <c r="GD31" t="inlineStr"/>
+      <c r="GE31" t="inlineStr"/>
+      <c r="GF31" t="inlineStr"/>
+      <c r="GG31" t="inlineStr"/>
+      <c r="GH31" t="inlineStr"/>
+      <c r="GI31" t="inlineStr"/>
+      <c r="GJ31" t="inlineStr"/>
+      <c r="GK31" t="inlineStr"/>
+      <c r="GL31" t="inlineStr"/>
+      <c r="GM31" t="inlineStr"/>
+      <c r="GN31" t="inlineStr"/>
+      <c r="GO31" t="inlineStr"/>
+      <c r="GP31" t="inlineStr"/>
+      <c r="GQ31" t="inlineStr"/>
+      <c r="GR31" t="inlineStr"/>
+      <c r="GS31" t="inlineStr"/>
+      <c r="GT31" t="inlineStr"/>
+      <c r="GU31" t="inlineStr"/>
+      <c r="GV31" t="inlineStr"/>
+      <c r="GW31" t="inlineStr"/>
+      <c r="GX31" t="inlineStr"/>
+      <c r="GY31" t="inlineStr"/>
+      <c r="GZ31" t="inlineStr"/>
+      <c r="HA31" t="inlineStr"/>
+      <c r="HB31" t="inlineStr"/>
+      <c r="HC31" t="inlineStr"/>
+      <c r="HD31" t="inlineStr"/>
+      <c r="HE31" t="inlineStr"/>
+      <c r="HF31" t="inlineStr"/>
+      <c r="HG31" t="inlineStr"/>
+      <c r="HH31" t="inlineStr"/>
+      <c r="HI31" t="inlineStr"/>
+      <c r="HJ31" t="inlineStr"/>
+      <c r="HK31" t="inlineStr"/>
+      <c r="HL31" t="inlineStr"/>
+      <c r="HM31" t="inlineStr"/>
+      <c r="HN31" t="inlineStr"/>
+      <c r="HO31" t="inlineStr"/>
+      <c r="HP31" t="inlineStr"/>
+      <c r="HQ31" t="inlineStr"/>
+      <c r="HR31" t="inlineStr"/>
+      <c r="HS31" t="inlineStr"/>
+      <c r="HT31" t="inlineStr"/>
+      <c r="HU31" t="inlineStr"/>
+      <c r="HV31" t="inlineStr"/>
+      <c r="HW31" t="inlineStr"/>
+      <c r="HX31" t="inlineStr"/>
+      <c r="HY31" t="inlineStr"/>
+      <c r="HZ31" t="inlineStr"/>
+      <c r="IA31" t="inlineStr"/>
+      <c r="IB31" t="inlineStr"/>
+      <c r="IC31" t="inlineStr"/>
+      <c r="ID31" t="inlineStr"/>
+      <c r="IE31" t="inlineStr"/>
+      <c r="IF31" t="inlineStr"/>
+      <c r="IG31" t="inlineStr"/>
+      <c r="IH31" t="inlineStr"/>
+      <c r="II31" t="inlineStr"/>
+      <c r="IJ31" t="inlineStr"/>
+      <c r="IK31" t="inlineStr"/>
+      <c r="IL31" t="inlineStr"/>
+      <c r="IM31" t="inlineStr"/>
+      <c r="IN31" t="inlineStr"/>
+      <c r="IO31" t="inlineStr"/>
+      <c r="IP31" t="inlineStr"/>
+      <c r="IQ31" t="inlineStr"/>
+      <c r="IR31" t="inlineStr"/>
+      <c r="IS31" t="inlineStr"/>
+      <c r="IT31" t="inlineStr"/>
+      <c r="IU31" t="inlineStr"/>
+      <c r="IV31" t="inlineStr"/>
+      <c r="IW31" t="inlineStr"/>
+      <c r="IX31" t="inlineStr"/>
+      <c r="IY31" t="inlineStr"/>
+      <c r="IZ31" t="inlineStr"/>
+      <c r="JA31" t="inlineStr"/>
+      <c r="JB31" t="inlineStr"/>
+      <c r="JC31" t="inlineStr"/>
+      <c r="JD31" t="inlineStr"/>
+      <c r="JE31" t="inlineStr"/>
+      <c r="JF31" t="inlineStr"/>
+      <c r="JG31" t="inlineStr"/>
+      <c r="JH31" t="inlineStr"/>
+      <c r="JI31" t="inlineStr"/>
+      <c r="JJ31" t="inlineStr"/>
+      <c r="JK31" t="inlineStr"/>
+      <c r="JL31" t="inlineStr"/>
+      <c r="JM31" t="inlineStr"/>
+      <c r="JN31" t="inlineStr"/>
+      <c r="JO31" t="inlineStr"/>
+      <c r="JP31" t="inlineStr"/>
+      <c r="JQ31" t="inlineStr"/>
+      <c r="JR31" t="inlineStr"/>
+      <c r="JS31" t="inlineStr"/>
+      <c r="JT31" t="inlineStr"/>
+      <c r="JU31" t="inlineStr"/>
+      <c r="JV31" t="inlineStr"/>
+      <c r="JW31" t="inlineStr"/>
+      <c r="JX31" t="inlineStr"/>
+      <c r="JY31" t="inlineStr"/>
+      <c r="JZ31" t="inlineStr"/>
+      <c r="KA31" t="inlineStr"/>
+      <c r="KB31" t="inlineStr"/>
+      <c r="KC31" t="inlineStr"/>
+      <c r="KD31" t="inlineStr"/>
+      <c r="KE31" t="inlineStr"/>
+      <c r="KF31" t="inlineStr"/>
+      <c r="KG31" t="inlineStr"/>
+      <c r="KH31" t="inlineStr"/>
+      <c r="KI31" t="inlineStr"/>
+      <c r="KJ31" t="inlineStr"/>
+      <c r="KK31" t="inlineStr"/>
+      <c r="KL31" t="inlineStr"/>
+      <c r="KM31" t="inlineStr"/>
+      <c r="KN31" t="inlineStr"/>
+      <c r="KO31" t="inlineStr"/>
+      <c r="KP31" t="inlineStr"/>
+      <c r="KQ31" t="inlineStr"/>
+      <c r="KR31" t="inlineStr"/>
+      <c r="KS31" t="inlineStr"/>
+      <c r="KT31" t="inlineStr"/>
+      <c r="KU31" t="inlineStr"/>
+      <c r="KV31" t="inlineStr"/>
+      <c r="KW31" t="inlineStr"/>
+      <c r="KX31" t="inlineStr"/>
+      <c r="KY31" t="inlineStr"/>
+      <c r="KZ31" t="inlineStr"/>
+      <c r="LA31" t="inlineStr"/>
+      <c r="LB31" t="inlineStr"/>
+      <c r="LC31" t="inlineStr"/>
+      <c r="LD31" t="inlineStr"/>
+      <c r="LE31" t="inlineStr"/>
+      <c r="LF31" t="inlineStr"/>
+      <c r="LG31" t="inlineStr"/>
+      <c r="LH31" t="inlineStr"/>
+      <c r="LI31" t="inlineStr"/>
+      <c r="LJ31" t="inlineStr"/>
+      <c r="LK31" t="inlineStr"/>
+      <c r="LL31" t="inlineStr"/>
+      <c r="LM31" t="inlineStr"/>
+      <c r="LN31" t="inlineStr"/>
+      <c r="LO31" t="inlineStr"/>
+      <c r="LP31" t="inlineStr"/>
+      <c r="LQ31" t="inlineStr"/>
+      <c r="LR31" t="inlineStr"/>
+      <c r="LS31" t="inlineStr"/>
+      <c r="LT31" t="inlineStr"/>
+      <c r="LU31" t="inlineStr"/>
+      <c r="LV31" t="inlineStr"/>
+      <c r="LW31" t="inlineStr"/>
+      <c r="LX31" t="inlineStr"/>
+      <c r="LY31" t="inlineStr"/>
+      <c r="LZ31" t="inlineStr"/>
+      <c r="MA31" t="inlineStr"/>
+      <c r="MB31" t="inlineStr"/>
+      <c r="MC31" t="inlineStr"/>
+      <c r="MD31" t="inlineStr"/>
+      <c r="ME31" t="n">
+        <v>-3.171976474532944</v>
+      </c>
+      <c r="MF31" t="n">
+        <v>1.307639511269875</v>
+      </c>
+      <c r="MG31" t="n">
+        <v>22.24666866708855</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.04734561471993561</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr"/>
+      <c r="BM32" t="inlineStr"/>
+      <c r="BN32" t="inlineStr"/>
+      <c r="BO32" t="inlineStr"/>
+      <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
+      <c r="CC32" t="inlineStr"/>
+      <c r="CD32" t="inlineStr"/>
+      <c r="CE32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
+      <c r="CG32" t="inlineStr"/>
+      <c r="CH32" t="inlineStr"/>
+      <c r="CI32" t="inlineStr"/>
+      <c r="CJ32" t="inlineStr"/>
+      <c r="CK32" t="inlineStr"/>
+      <c r="CL32" t="inlineStr"/>
+      <c r="CM32" t="inlineStr"/>
+      <c r="CN32" t="inlineStr"/>
+      <c r="CO32" t="inlineStr"/>
+      <c r="CP32" t="inlineStr"/>
+      <c r="CQ32" t="inlineStr"/>
+      <c r="CR32" t="inlineStr"/>
+      <c r="CS32" t="inlineStr"/>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="inlineStr"/>
+      <c r="CW32" t="inlineStr"/>
+      <c r="CX32" t="inlineStr"/>
+      <c r="CY32" t="inlineStr"/>
+      <c r="CZ32" t="inlineStr"/>
+      <c r="DA32" t="inlineStr"/>
+      <c r="DB32" t="inlineStr"/>
+      <c r="DC32" t="inlineStr"/>
+      <c r="DD32" t="inlineStr"/>
+      <c r="DE32" t="inlineStr"/>
+      <c r="DF32" t="inlineStr"/>
+      <c r="DG32" t="inlineStr"/>
+      <c r="DH32" t="inlineStr"/>
+      <c r="DI32" t="inlineStr"/>
+      <c r="DJ32" t="inlineStr"/>
+      <c r="DK32" t="inlineStr"/>
+      <c r="DL32" t="inlineStr"/>
+      <c r="DM32" t="inlineStr"/>
+      <c r="DN32" t="inlineStr"/>
+      <c r="DO32" t="inlineStr"/>
+      <c r="DP32" t="inlineStr"/>
+      <c r="DQ32" t="inlineStr"/>
+      <c r="DR32" t="inlineStr"/>
+      <c r="DS32" t="inlineStr"/>
+      <c r="DT32" t="inlineStr"/>
+      <c r="DU32" t="inlineStr"/>
+      <c r="DV32" t="inlineStr"/>
+      <c r="DW32" t="inlineStr"/>
+      <c r="DX32" t="inlineStr"/>
+      <c r="DY32" t="inlineStr"/>
+      <c r="DZ32" t="inlineStr"/>
+      <c r="EA32" t="inlineStr"/>
+      <c r="EB32" t="inlineStr"/>
+      <c r="EC32" t="inlineStr"/>
+      <c r="ED32" t="inlineStr"/>
+      <c r="EE32" t="inlineStr"/>
+      <c r="EF32" t="inlineStr"/>
+      <c r="EG32" t="inlineStr"/>
+      <c r="EH32" t="inlineStr"/>
+      <c r="EI32" t="inlineStr"/>
+      <c r="EJ32" t="inlineStr"/>
+      <c r="EK32" t="inlineStr"/>
+      <c r="EL32" t="inlineStr"/>
+      <c r="EM32" t="inlineStr"/>
+      <c r="EN32" t="inlineStr"/>
+      <c r="EO32" t="inlineStr"/>
+      <c r="EP32" t="inlineStr"/>
+      <c r="EQ32" t="inlineStr"/>
+      <c r="ER32" t="inlineStr"/>
+      <c r="ES32" t="inlineStr"/>
+      <c r="ET32" t="inlineStr"/>
+      <c r="EU32" t="inlineStr"/>
+      <c r="EV32" t="inlineStr"/>
+      <c r="EW32" t="inlineStr"/>
+      <c r="EX32" t="inlineStr"/>
+      <c r="EY32" t="inlineStr"/>
+      <c r="EZ32" t="inlineStr"/>
+      <c r="FA32" t="inlineStr"/>
+      <c r="FB32" t="inlineStr"/>
+      <c r="FC32" t="inlineStr"/>
+      <c r="FD32" t="inlineStr"/>
+      <c r="FE32" t="inlineStr"/>
+      <c r="FF32" t="inlineStr"/>
+      <c r="FG32" t="inlineStr"/>
+      <c r="FH32" t="inlineStr"/>
+      <c r="FI32" t="inlineStr"/>
+      <c r="FJ32" t="inlineStr"/>
+      <c r="FK32" t="inlineStr"/>
+      <c r="FL32" t="inlineStr"/>
+      <c r="FM32" t="inlineStr"/>
+      <c r="FN32" t="inlineStr"/>
+      <c r="FO32" t="inlineStr"/>
+      <c r="FP32" t="inlineStr"/>
+      <c r="FQ32" t="inlineStr"/>
+      <c r="FR32" t="inlineStr"/>
+      <c r="FS32" t="inlineStr"/>
+      <c r="FT32" t="inlineStr"/>
+      <c r="FU32" t="inlineStr"/>
+      <c r="FV32" t="inlineStr"/>
+      <c r="FW32" t="inlineStr"/>
+      <c r="FX32" t="inlineStr"/>
+      <c r="FY32" t="inlineStr"/>
+      <c r="FZ32" t="inlineStr"/>
+      <c r="GA32" t="inlineStr"/>
+      <c r="GB32" t="inlineStr"/>
+      <c r="GC32" t="inlineStr"/>
+      <c r="GD32" t="inlineStr"/>
+      <c r="GE32" t="inlineStr"/>
+      <c r="GF32" t="inlineStr"/>
+      <c r="GG32" t="inlineStr"/>
+      <c r="GH32" t="inlineStr"/>
+      <c r="GI32" t="inlineStr"/>
+      <c r="GJ32" t="inlineStr"/>
+      <c r="GK32" t="inlineStr"/>
+      <c r="GL32" t="inlineStr"/>
+      <c r="GM32" t="inlineStr"/>
+      <c r="GN32" t="inlineStr"/>
+      <c r="GO32" t="inlineStr"/>
+      <c r="GP32" t="inlineStr"/>
+      <c r="GQ32" t="inlineStr"/>
+      <c r="GR32" t="inlineStr"/>
+      <c r="GS32" t="inlineStr"/>
+      <c r="GT32" t="inlineStr"/>
+      <c r="GU32" t="inlineStr"/>
+      <c r="GV32" t="inlineStr"/>
+      <c r="GW32" t="inlineStr"/>
+      <c r="GX32" t="inlineStr"/>
+      <c r="GY32" t="inlineStr"/>
+      <c r="GZ32" t="inlineStr"/>
+      <c r="HA32" t="inlineStr"/>
+      <c r="HB32" t="inlineStr"/>
+      <c r="HC32" t="inlineStr"/>
+      <c r="HD32" t="inlineStr"/>
+      <c r="HE32" t="inlineStr"/>
+      <c r="HF32" t="inlineStr"/>
+      <c r="HG32" t="inlineStr"/>
+      <c r="HH32" t="inlineStr"/>
+      <c r="HI32" t="inlineStr"/>
+      <c r="HJ32" t="inlineStr"/>
+      <c r="HK32" t="inlineStr"/>
+      <c r="HL32" t="inlineStr"/>
+      <c r="HM32" t="inlineStr"/>
+      <c r="HN32" t="inlineStr"/>
+      <c r="HO32" t="inlineStr"/>
+      <c r="HP32" t="inlineStr"/>
+      <c r="HQ32" t="inlineStr"/>
+      <c r="HR32" t="inlineStr"/>
+      <c r="HS32" t="inlineStr"/>
+      <c r="HT32" t="inlineStr"/>
+      <c r="HU32" t="inlineStr"/>
+      <c r="HV32" t="inlineStr"/>
+      <c r="HW32" t="inlineStr"/>
+      <c r="HX32" t="inlineStr"/>
+      <c r="HY32" t="inlineStr"/>
+      <c r="HZ32" t="inlineStr"/>
+      <c r="IA32" t="inlineStr"/>
+      <c r="IB32" t="inlineStr"/>
+      <c r="IC32" t="inlineStr"/>
+      <c r="ID32" t="inlineStr"/>
+      <c r="IE32" t="inlineStr"/>
+      <c r="IF32" t="inlineStr"/>
+      <c r="IG32" t="inlineStr"/>
+      <c r="IH32" t="inlineStr"/>
+      <c r="II32" t="inlineStr"/>
+      <c r="IJ32" t="inlineStr"/>
+      <c r="IK32" t="inlineStr"/>
+      <c r="IL32" t="inlineStr"/>
+      <c r="IM32" t="inlineStr"/>
+      <c r="IN32" t="inlineStr"/>
+      <c r="IO32" t="inlineStr"/>
+      <c r="IP32" t="inlineStr"/>
+      <c r="IQ32" t="inlineStr"/>
+      <c r="IR32" t="inlineStr"/>
+      <c r="IS32" t="inlineStr"/>
+      <c r="IT32" t="inlineStr"/>
+      <c r="IU32" t="inlineStr"/>
+      <c r="IV32" t="inlineStr"/>
+      <c r="IW32" t="inlineStr"/>
+      <c r="IX32" t="inlineStr"/>
+      <c r="IY32" t="inlineStr"/>
+      <c r="IZ32" t="inlineStr"/>
+      <c r="JA32" t="inlineStr"/>
+      <c r="JB32" t="inlineStr"/>
+      <c r="JC32" t="inlineStr"/>
+      <c r="JD32" t="inlineStr"/>
+      <c r="JE32" t="inlineStr"/>
+      <c r="JF32" t="inlineStr"/>
+      <c r="JG32" t="inlineStr"/>
+      <c r="JH32" t="inlineStr"/>
+      <c r="JI32" t="inlineStr"/>
+      <c r="JJ32" t="inlineStr"/>
+      <c r="JK32" t="inlineStr"/>
+      <c r="JL32" t="inlineStr"/>
+      <c r="JM32" t="inlineStr"/>
+      <c r="JN32" t="inlineStr"/>
+      <c r="JO32" t="inlineStr"/>
+      <c r="JP32" t="inlineStr"/>
+      <c r="JQ32" t="inlineStr"/>
+      <c r="JR32" t="inlineStr"/>
+      <c r="JS32" t="inlineStr"/>
+      <c r="JT32" t="inlineStr"/>
+      <c r="JU32" t="inlineStr"/>
+      <c r="JV32" t="inlineStr"/>
+      <c r="JW32" t="inlineStr"/>
+      <c r="JX32" t="inlineStr"/>
+      <c r="JY32" t="inlineStr"/>
+      <c r="JZ32" t="inlineStr"/>
+      <c r="KA32" t="inlineStr"/>
+      <c r="KB32" t="inlineStr"/>
+      <c r="KC32" t="inlineStr"/>
+      <c r="KD32" t="inlineStr"/>
+      <c r="KE32" t="inlineStr"/>
+      <c r="KF32" t="inlineStr"/>
+      <c r="KG32" t="inlineStr"/>
+      <c r="KH32" t="inlineStr"/>
+      <c r="KI32" t="inlineStr"/>
+      <c r="KJ32" t="inlineStr"/>
+      <c r="KK32" t="inlineStr"/>
+      <c r="KL32" t="inlineStr"/>
+      <c r="KM32" t="inlineStr"/>
+      <c r="KN32" t="inlineStr"/>
+      <c r="KO32" t="inlineStr"/>
+      <c r="KP32" t="inlineStr"/>
+      <c r="KQ32" t="inlineStr"/>
+      <c r="KR32" t="inlineStr"/>
+      <c r="KS32" t="inlineStr"/>
+      <c r="KT32" t="inlineStr"/>
+      <c r="KU32" t="inlineStr"/>
+      <c r="KV32" t="inlineStr"/>
+      <c r="KW32" t="inlineStr"/>
+      <c r="KX32" t="inlineStr"/>
+      <c r="KY32" t="inlineStr"/>
+      <c r="KZ32" t="inlineStr"/>
+      <c r="LA32" t="inlineStr"/>
+      <c r="LB32" t="inlineStr"/>
+      <c r="LC32" t="inlineStr"/>
+      <c r="LD32" t="inlineStr"/>
+      <c r="LE32" t="inlineStr"/>
+      <c r="LF32" t="inlineStr"/>
+      <c r="LG32" t="inlineStr"/>
+      <c r="LH32" t="inlineStr"/>
+      <c r="LI32" t="inlineStr"/>
+      <c r="LJ32" t="inlineStr"/>
+      <c r="LK32" t="inlineStr"/>
+      <c r="LL32" t="inlineStr"/>
+      <c r="LM32" t="inlineStr"/>
+      <c r="LN32" t="inlineStr"/>
+      <c r="LO32" t="inlineStr"/>
+      <c r="LP32" t="inlineStr"/>
+      <c r="LQ32" t="inlineStr"/>
+      <c r="LR32" t="inlineStr"/>
+      <c r="LS32" t="inlineStr"/>
+      <c r="LT32" t="inlineStr"/>
+      <c r="LU32" t="inlineStr"/>
+      <c r="LV32" t="inlineStr"/>
+      <c r="LW32" t="inlineStr"/>
+      <c r="LX32" t="inlineStr"/>
+      <c r="LY32" t="inlineStr"/>
+      <c r="LZ32" t="inlineStr"/>
+      <c r="MA32" t="inlineStr"/>
+      <c r="MB32" t="inlineStr"/>
+      <c r="MC32" t="inlineStr"/>
+      <c r="MD32" t="inlineStr"/>
+      <c r="ME32" t="n">
+        <v>0.4318540823791331</v>
+      </c>
+      <c r="MF32" t="n">
+        <v>6.487564083924895</v>
+      </c>
+      <c r="MG32" t="n">
+        <v>-33.52546943898703</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.0003475835117476265</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="inlineStr"/>
+      <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr"/>
+      <c r="CD33" t="inlineStr"/>
+      <c r="CE33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
+      <c r="CG33" t="inlineStr"/>
+      <c r="CH33" t="inlineStr"/>
+      <c r="CI33" t="inlineStr"/>
+      <c r="CJ33" t="inlineStr"/>
+      <c r="CK33" t="inlineStr"/>
+      <c r="CL33" t="inlineStr"/>
+      <c r="CM33" t="inlineStr"/>
+      <c r="CN33" t="inlineStr"/>
+      <c r="CO33" t="inlineStr"/>
+      <c r="CP33" t="inlineStr"/>
+      <c r="CQ33" t="inlineStr"/>
+      <c r="CR33" t="inlineStr"/>
+      <c r="CS33" t="inlineStr"/>
+      <c r="CT33" t="inlineStr"/>
+      <c r="CU33" t="inlineStr"/>
+      <c r="CV33" t="inlineStr"/>
+      <c r="CW33" t="inlineStr"/>
+      <c r="CX33" t="inlineStr"/>
+      <c r="CY33" t="inlineStr"/>
+      <c r="CZ33" t="inlineStr"/>
+      <c r="DA33" t="inlineStr"/>
+      <c r="DB33" t="inlineStr"/>
+      <c r="DC33" t="inlineStr"/>
+      <c r="DD33" t="inlineStr"/>
+      <c r="DE33" t="inlineStr"/>
+      <c r="DF33" t="inlineStr"/>
+      <c r="DG33" t="inlineStr"/>
+      <c r="DH33" t="inlineStr"/>
+      <c r="DI33" t="inlineStr"/>
+      <c r="DJ33" t="inlineStr"/>
+      <c r="DK33" t="inlineStr"/>
+      <c r="DL33" t="inlineStr"/>
+      <c r="DM33" t="inlineStr"/>
+      <c r="DN33" t="inlineStr"/>
+      <c r="DO33" t="inlineStr"/>
+      <c r="DP33" t="inlineStr"/>
+      <c r="DQ33" t="inlineStr"/>
+      <c r="DR33" t="inlineStr"/>
+      <c r="DS33" t="inlineStr"/>
+      <c r="DT33" t="inlineStr"/>
+      <c r="DU33" t="inlineStr"/>
+      <c r="DV33" t="inlineStr"/>
+      <c r="DW33" t="inlineStr"/>
+      <c r="DX33" t="inlineStr"/>
+      <c r="DY33" t="inlineStr"/>
+      <c r="DZ33" t="inlineStr"/>
+      <c r="EA33" t="inlineStr"/>
+      <c r="EB33" t="inlineStr"/>
+      <c r="EC33" t="inlineStr"/>
+      <c r="ED33" t="inlineStr"/>
+      <c r="EE33" t="inlineStr"/>
+      <c r="EF33" t="inlineStr"/>
+      <c r="EG33" t="inlineStr"/>
+      <c r="EH33" t="inlineStr"/>
+      <c r="EI33" t="inlineStr"/>
+      <c r="EJ33" t="inlineStr"/>
+      <c r="EK33" t="inlineStr"/>
+      <c r="EL33" t="inlineStr"/>
+      <c r="EM33" t="inlineStr"/>
+      <c r="EN33" t="inlineStr"/>
+      <c r="EO33" t="inlineStr"/>
+      <c r="EP33" t="inlineStr"/>
+      <c r="EQ33" t="inlineStr"/>
+      <c r="ER33" t="inlineStr"/>
+      <c r="ES33" t="inlineStr"/>
+      <c r="ET33" t="inlineStr"/>
+      <c r="EU33" t="inlineStr"/>
+      <c r="EV33" t="inlineStr"/>
+      <c r="EW33" t="inlineStr"/>
+      <c r="EX33" t="inlineStr"/>
+      <c r="EY33" t="inlineStr"/>
+      <c r="EZ33" t="inlineStr"/>
+      <c r="FA33" t="inlineStr"/>
+      <c r="FB33" t="inlineStr"/>
+      <c r="FC33" t="inlineStr"/>
+      <c r="FD33" t="inlineStr"/>
+      <c r="FE33" t="inlineStr"/>
+      <c r="FF33" t="inlineStr"/>
+      <c r="FG33" t="inlineStr"/>
+      <c r="FH33" t="inlineStr"/>
+      <c r="FI33" t="inlineStr"/>
+      <c r="FJ33" t="inlineStr"/>
+      <c r="FK33" t="inlineStr"/>
+      <c r="FL33" t="inlineStr"/>
+      <c r="FM33" t="inlineStr"/>
+      <c r="FN33" t="inlineStr"/>
+      <c r="FO33" t="inlineStr"/>
+      <c r="FP33" t="inlineStr"/>
+      <c r="FQ33" t="inlineStr"/>
+      <c r="FR33" t="inlineStr"/>
+      <c r="FS33" t="inlineStr"/>
+      <c r="FT33" t="inlineStr"/>
+      <c r="FU33" t="inlineStr"/>
+      <c r="FV33" t="inlineStr"/>
+      <c r="FW33" t="inlineStr"/>
+      <c r="FX33" t="inlineStr"/>
+      <c r="FY33" t="inlineStr"/>
+      <c r="FZ33" t="inlineStr"/>
+      <c r="GA33" t="inlineStr"/>
+      <c r="GB33" t="inlineStr"/>
+      <c r="GC33" t="inlineStr"/>
+      <c r="GD33" t="inlineStr"/>
+      <c r="GE33" t="inlineStr"/>
+      <c r="GF33" t="inlineStr"/>
+      <c r="GG33" t="inlineStr"/>
+      <c r="GH33" t="inlineStr"/>
+      <c r="GI33" t="inlineStr"/>
+      <c r="GJ33" t="inlineStr"/>
+      <c r="GK33" t="inlineStr"/>
+      <c r="GL33" t="inlineStr"/>
+      <c r="GM33" t="inlineStr"/>
+      <c r="GN33" t="inlineStr"/>
+      <c r="GO33" t="inlineStr"/>
+      <c r="GP33" t="inlineStr"/>
+      <c r="GQ33" t="inlineStr"/>
+      <c r="GR33" t="inlineStr"/>
+      <c r="GS33" t="inlineStr"/>
+      <c r="GT33" t="inlineStr"/>
+      <c r="GU33" t="inlineStr"/>
+      <c r="GV33" t="inlineStr"/>
+      <c r="GW33" t="inlineStr"/>
+      <c r="GX33" t="inlineStr"/>
+      <c r="GY33" t="inlineStr"/>
+      <c r="GZ33" t="inlineStr"/>
+      <c r="HA33" t="inlineStr"/>
+      <c r="HB33" t="inlineStr"/>
+      <c r="HC33" t="inlineStr"/>
+      <c r="HD33" t="inlineStr"/>
+      <c r="HE33" t="inlineStr"/>
+      <c r="HF33" t="inlineStr"/>
+      <c r="HG33" t="inlineStr"/>
+      <c r="HH33" t="inlineStr"/>
+      <c r="HI33" t="inlineStr"/>
+      <c r="HJ33" t="inlineStr"/>
+      <c r="HK33" t="inlineStr"/>
+      <c r="HL33" t="inlineStr"/>
+      <c r="HM33" t="inlineStr"/>
+      <c r="HN33" t="inlineStr"/>
+      <c r="HO33" t="inlineStr"/>
+      <c r="HP33" t="inlineStr"/>
+      <c r="HQ33" t="inlineStr"/>
+      <c r="HR33" t="inlineStr"/>
+      <c r="HS33" t="inlineStr"/>
+      <c r="HT33" t="inlineStr"/>
+      <c r="HU33" t="inlineStr"/>
+      <c r="HV33" t="inlineStr"/>
+      <c r="HW33" t="inlineStr"/>
+      <c r="HX33" t="inlineStr"/>
+      <c r="HY33" t="inlineStr"/>
+      <c r="HZ33" t="inlineStr"/>
+      <c r="IA33" t="inlineStr"/>
+      <c r="IB33" t="inlineStr"/>
+      <c r="IC33" t="inlineStr"/>
+      <c r="ID33" t="inlineStr"/>
+      <c r="IE33" t="inlineStr"/>
+      <c r="IF33" t="inlineStr"/>
+      <c r="IG33" t="inlineStr"/>
+      <c r="IH33" t="inlineStr"/>
+      <c r="II33" t="inlineStr"/>
+      <c r="IJ33" t="inlineStr"/>
+      <c r="IK33" t="inlineStr"/>
+      <c r="IL33" t="inlineStr"/>
+      <c r="IM33" t="inlineStr"/>
+      <c r="IN33" t="inlineStr"/>
+      <c r="IO33" t="inlineStr"/>
+      <c r="IP33" t="inlineStr"/>
+      <c r="IQ33" t="inlineStr"/>
+      <c r="IR33" t="inlineStr"/>
+      <c r="IS33" t="inlineStr"/>
+      <c r="IT33" t="inlineStr"/>
+      <c r="IU33" t="inlineStr"/>
+      <c r="IV33" t="inlineStr"/>
+      <c r="IW33" t="inlineStr"/>
+      <c r="IX33" t="inlineStr"/>
+      <c r="IY33" t="inlineStr"/>
+      <c r="IZ33" t="inlineStr"/>
+      <c r="JA33" t="inlineStr"/>
+      <c r="JB33" t="inlineStr"/>
+      <c r="JC33" t="inlineStr"/>
+      <c r="JD33" t="inlineStr"/>
+      <c r="JE33" t="inlineStr"/>
+      <c r="JF33" t="inlineStr"/>
+      <c r="JG33" t="inlineStr"/>
+      <c r="JH33" t="inlineStr"/>
+      <c r="JI33" t="inlineStr"/>
+      <c r="JJ33" t="inlineStr"/>
+      <c r="JK33" t="inlineStr"/>
+      <c r="JL33" t="inlineStr"/>
+      <c r="JM33" t="inlineStr"/>
+      <c r="JN33" t="inlineStr"/>
+      <c r="JO33" t="inlineStr"/>
+      <c r="JP33" t="inlineStr"/>
+      <c r="JQ33" t="inlineStr"/>
+      <c r="JR33" t="inlineStr"/>
+      <c r="JS33" t="inlineStr"/>
+      <c r="JT33" t="inlineStr"/>
+      <c r="JU33" t="inlineStr"/>
+      <c r="JV33" t="inlineStr"/>
+      <c r="JW33" t="inlineStr"/>
+      <c r="JX33" t="inlineStr"/>
+      <c r="JY33" t="inlineStr"/>
+      <c r="JZ33" t="inlineStr"/>
+      <c r="KA33" t="inlineStr"/>
+      <c r="KB33" t="inlineStr"/>
+      <c r="KC33" t="inlineStr"/>
+      <c r="KD33" t="inlineStr"/>
+      <c r="KE33" t="inlineStr"/>
+      <c r="KF33" t="inlineStr"/>
+      <c r="KG33" t="inlineStr"/>
+      <c r="KH33" t="inlineStr"/>
+      <c r="KI33" t="inlineStr"/>
+      <c r="KJ33" t="inlineStr"/>
+      <c r="KK33" t="inlineStr"/>
+      <c r="KL33" t="inlineStr"/>
+      <c r="KM33" t="inlineStr"/>
+      <c r="KN33" t="inlineStr"/>
+      <c r="KO33" t="inlineStr"/>
+      <c r="KP33" t="inlineStr"/>
+      <c r="KQ33" t="inlineStr"/>
+      <c r="KR33" t="inlineStr"/>
+      <c r="KS33" t="inlineStr"/>
+      <c r="KT33" t="inlineStr"/>
+      <c r="KU33" t="inlineStr"/>
+      <c r="KV33" t="inlineStr"/>
+      <c r="KW33" t="inlineStr"/>
+      <c r="KX33" t="inlineStr"/>
+      <c r="KY33" t="inlineStr"/>
+      <c r="KZ33" t="inlineStr"/>
+      <c r="LA33" t="inlineStr"/>
+      <c r="LB33" t="inlineStr"/>
+      <c r="LC33" t="inlineStr"/>
+      <c r="LD33" t="inlineStr"/>
+      <c r="LE33" t="inlineStr"/>
+      <c r="LF33" t="inlineStr"/>
+      <c r="LG33" t="inlineStr"/>
+      <c r="LH33" t="inlineStr"/>
+      <c r="LI33" t="inlineStr"/>
+      <c r="LJ33" t="inlineStr"/>
+      <c r="LK33" t="inlineStr"/>
+      <c r="LL33" t="inlineStr"/>
+      <c r="LM33" t="inlineStr"/>
+      <c r="LN33" t="inlineStr"/>
+      <c r="LO33" t="inlineStr"/>
+      <c r="LP33" t="inlineStr"/>
+      <c r="LQ33" t="inlineStr"/>
+      <c r="LR33" t="inlineStr"/>
+      <c r="LS33" t="inlineStr"/>
+      <c r="LT33" t="inlineStr"/>
+      <c r="LU33" t="inlineStr"/>
+      <c r="LV33" t="inlineStr"/>
+      <c r="LW33" t="inlineStr"/>
+      <c r="LX33" t="inlineStr"/>
+      <c r="LY33" t="inlineStr"/>
+      <c r="LZ33" t="inlineStr"/>
+      <c r="MA33" t="inlineStr"/>
+      <c r="MB33" t="inlineStr"/>
+      <c r="MC33" t="inlineStr"/>
+      <c r="MD33" t="inlineStr"/>
+      <c r="ME33" t="n">
+        <v>1.694141237953796</v>
+      </c>
+      <c r="MF33" t="n">
+        <v>-2.856432773831816</v>
+      </c>
+      <c r="MG33" t="n">
+        <v>2.086165211804005</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.003744198774129627</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="inlineStr"/>
+      <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="inlineStr"/>
+      <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr"/>
+      <c r="BY34" t="inlineStr"/>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
+      <c r="CC34" t="inlineStr"/>
+      <c r="CD34" t="inlineStr"/>
+      <c r="CE34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
+      <c r="CG34" t="inlineStr"/>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="inlineStr"/>
+      <c r="CJ34" t="inlineStr"/>
+      <c r="CK34" t="inlineStr"/>
+      <c r="CL34" t="inlineStr"/>
+      <c r="CM34" t="inlineStr"/>
+      <c r="CN34" t="inlineStr"/>
+      <c r="CO34" t="inlineStr"/>
+      <c r="CP34" t="inlineStr"/>
+      <c r="CQ34" t="inlineStr"/>
+      <c r="CR34" t="inlineStr"/>
+      <c r="CS34" t="inlineStr"/>
+      <c r="CT34" t="inlineStr"/>
+      <c r="CU34" t="inlineStr"/>
+      <c r="CV34" t="inlineStr"/>
+      <c r="CW34" t="inlineStr"/>
+      <c r="CX34" t="inlineStr"/>
+      <c r="CY34" t="inlineStr"/>
+      <c r="CZ34" t="inlineStr"/>
+      <c r="DA34" t="inlineStr"/>
+      <c r="DB34" t="inlineStr"/>
+      <c r="DC34" t="inlineStr"/>
+      <c r="DD34" t="inlineStr"/>
+      <c r="DE34" t="inlineStr"/>
+      <c r="DF34" t="inlineStr"/>
+      <c r="DG34" t="inlineStr"/>
+      <c r="DH34" t="inlineStr"/>
+      <c r="DI34" t="inlineStr"/>
+      <c r="DJ34" t="inlineStr"/>
+      <c r="DK34" t="inlineStr"/>
+      <c r="DL34" t="inlineStr"/>
+      <c r="DM34" t="inlineStr"/>
+      <c r="DN34" t="inlineStr"/>
+      <c r="DO34" t="inlineStr"/>
+      <c r="DP34" t="inlineStr"/>
+      <c r="DQ34" t="inlineStr"/>
+      <c r="DR34" t="inlineStr"/>
+      <c r="DS34" t="inlineStr"/>
+      <c r="DT34" t="inlineStr"/>
+      <c r="DU34" t="inlineStr"/>
+      <c r="DV34" t="inlineStr"/>
+      <c r="DW34" t="inlineStr"/>
+      <c r="DX34" t="inlineStr"/>
+      <c r="DY34" t="inlineStr"/>
+      <c r="DZ34" t="inlineStr"/>
+      <c r="EA34" t="inlineStr"/>
+      <c r="EB34" t="inlineStr"/>
+      <c r="EC34" t="inlineStr"/>
+      <c r="ED34" t="inlineStr"/>
+      <c r="EE34" t="inlineStr"/>
+      <c r="EF34" t="inlineStr"/>
+      <c r="EG34" t="inlineStr"/>
+      <c r="EH34" t="inlineStr"/>
+      <c r="EI34" t="inlineStr"/>
+      <c r="EJ34" t="inlineStr"/>
+      <c r="EK34" t="inlineStr"/>
+      <c r="EL34" t="inlineStr"/>
+      <c r="EM34" t="inlineStr"/>
+      <c r="EN34" t="inlineStr"/>
+      <c r="EO34" t="inlineStr"/>
+      <c r="EP34" t="inlineStr"/>
+      <c r="EQ34" t="inlineStr"/>
+      <c r="ER34" t="inlineStr"/>
+      <c r="ES34" t="inlineStr"/>
+      <c r="ET34" t="inlineStr"/>
+      <c r="EU34" t="inlineStr"/>
+      <c r="EV34" t="inlineStr"/>
+      <c r="EW34" t="inlineStr"/>
+      <c r="EX34" t="inlineStr"/>
+      <c r="EY34" t="inlineStr"/>
+      <c r="EZ34" t="inlineStr"/>
+      <c r="FA34" t="inlineStr"/>
+      <c r="FB34" t="inlineStr"/>
+      <c r="FC34" t="inlineStr"/>
+      <c r="FD34" t="inlineStr"/>
+      <c r="FE34" t="inlineStr"/>
+      <c r="FF34" t="inlineStr"/>
+      <c r="FG34" t="inlineStr"/>
+      <c r="FH34" t="inlineStr"/>
+      <c r="FI34" t="inlineStr"/>
+      <c r="FJ34" t="inlineStr"/>
+      <c r="FK34" t="inlineStr"/>
+      <c r="FL34" t="inlineStr"/>
+      <c r="FM34" t="inlineStr"/>
+      <c r="FN34" t="inlineStr"/>
+      <c r="FO34" t="inlineStr"/>
+      <c r="FP34" t="inlineStr"/>
+      <c r="FQ34" t="inlineStr"/>
+      <c r="FR34" t="inlineStr"/>
+      <c r="FS34" t="inlineStr"/>
+      <c r="FT34" t="inlineStr"/>
+      <c r="FU34" t="inlineStr"/>
+      <c r="FV34" t="inlineStr"/>
+      <c r="FW34" t="inlineStr"/>
+      <c r="FX34" t="inlineStr"/>
+      <c r="FY34" t="inlineStr"/>
+      <c r="FZ34" t="inlineStr"/>
+      <c r="GA34" t="inlineStr"/>
+      <c r="GB34" t="inlineStr"/>
+      <c r="GC34" t="inlineStr"/>
+      <c r="GD34" t="inlineStr"/>
+      <c r="GE34" t="inlineStr"/>
+      <c r="GF34" t="inlineStr"/>
+      <c r="GG34" t="inlineStr"/>
+      <c r="GH34" t="inlineStr"/>
+      <c r="GI34" t="inlineStr"/>
+      <c r="GJ34" t="inlineStr"/>
+      <c r="GK34" t="inlineStr"/>
+      <c r="GL34" t="inlineStr"/>
+      <c r="GM34" t="inlineStr"/>
+      <c r="GN34" t="inlineStr"/>
+      <c r="GO34" t="inlineStr"/>
+      <c r="GP34" t="inlineStr"/>
+      <c r="GQ34" t="inlineStr"/>
+      <c r="GR34" t="inlineStr"/>
+      <c r="GS34" t="inlineStr"/>
+      <c r="GT34" t="inlineStr"/>
+      <c r="GU34" t="inlineStr"/>
+      <c r="GV34" t="inlineStr"/>
+      <c r="GW34" t="inlineStr"/>
+      <c r="GX34" t="inlineStr"/>
+      <c r="GY34" t="inlineStr"/>
+      <c r="GZ34" t="inlineStr"/>
+      <c r="HA34" t="inlineStr"/>
+      <c r="HB34" t="inlineStr"/>
+      <c r="HC34" t="inlineStr"/>
+      <c r="HD34" t="inlineStr"/>
+      <c r="HE34" t="inlineStr"/>
+      <c r="HF34" t="inlineStr"/>
+      <c r="HG34" t="inlineStr"/>
+      <c r="HH34" t="inlineStr"/>
+      <c r="HI34" t="inlineStr"/>
+      <c r="HJ34" t="inlineStr"/>
+      <c r="HK34" t="inlineStr"/>
+      <c r="HL34" t="inlineStr"/>
+      <c r="HM34" t="inlineStr"/>
+      <c r="HN34" t="inlineStr"/>
+      <c r="HO34" t="inlineStr"/>
+      <c r="HP34" t="inlineStr"/>
+      <c r="HQ34" t="inlineStr"/>
+      <c r="HR34" t="inlineStr"/>
+      <c r="HS34" t="inlineStr"/>
+      <c r="HT34" t="inlineStr"/>
+      <c r="HU34" t="inlineStr"/>
+      <c r="HV34" t="inlineStr"/>
+      <c r="HW34" t="inlineStr"/>
+      <c r="HX34" t="inlineStr"/>
+      <c r="HY34" t="inlineStr"/>
+      <c r="HZ34" t="inlineStr"/>
+      <c r="IA34" t="inlineStr"/>
+      <c r="IB34" t="inlineStr"/>
+      <c r="IC34" t="inlineStr"/>
+      <c r="ID34" t="inlineStr"/>
+      <c r="IE34" t="inlineStr"/>
+      <c r="IF34" t="inlineStr"/>
+      <c r="IG34" t="inlineStr"/>
+      <c r="IH34" t="inlineStr"/>
+      <c r="II34" t="inlineStr"/>
+      <c r="IJ34" t="inlineStr"/>
+      <c r="IK34" t="inlineStr"/>
+      <c r="IL34" t="inlineStr"/>
+      <c r="IM34" t="inlineStr"/>
+      <c r="IN34" t="inlineStr"/>
+      <c r="IO34" t="inlineStr"/>
+      <c r="IP34" t="inlineStr"/>
+      <c r="IQ34" t="inlineStr"/>
+      <c r="IR34" t="inlineStr"/>
+      <c r="IS34" t="inlineStr"/>
+      <c r="IT34" t="inlineStr"/>
+      <c r="IU34" t="inlineStr"/>
+      <c r="IV34" t="inlineStr"/>
+      <c r="IW34" t="inlineStr"/>
+      <c r="IX34" t="inlineStr"/>
+      <c r="IY34" t="inlineStr"/>
+      <c r="IZ34" t="inlineStr"/>
+      <c r="JA34" t="inlineStr"/>
+      <c r="JB34" t="inlineStr"/>
+      <c r="JC34" t="inlineStr"/>
+      <c r="JD34" t="inlineStr"/>
+      <c r="JE34" t="inlineStr"/>
+      <c r="JF34" t="inlineStr"/>
+      <c r="JG34" t="inlineStr"/>
+      <c r="JH34" t="inlineStr"/>
+      <c r="JI34" t="inlineStr"/>
+      <c r="JJ34" t="inlineStr"/>
+      <c r="JK34" t="inlineStr"/>
+      <c r="JL34" t="inlineStr"/>
+      <c r="JM34" t="inlineStr"/>
+      <c r="JN34" t="inlineStr"/>
+      <c r="JO34" t="inlineStr"/>
+      <c r="JP34" t="inlineStr"/>
+      <c r="JQ34" t="inlineStr"/>
+      <c r="JR34" t="inlineStr"/>
+      <c r="JS34" t="inlineStr"/>
+      <c r="JT34" t="inlineStr"/>
+      <c r="JU34" t="inlineStr"/>
+      <c r="JV34" t="inlineStr"/>
+      <c r="JW34" t="inlineStr"/>
+      <c r="JX34" t="inlineStr"/>
+      <c r="JY34" t="inlineStr"/>
+      <c r="JZ34" t="inlineStr"/>
+      <c r="KA34" t="inlineStr"/>
+      <c r="KB34" t="inlineStr"/>
+      <c r="KC34" t="inlineStr"/>
+      <c r="KD34" t="inlineStr"/>
+      <c r="KE34" t="inlineStr"/>
+      <c r="KF34" t="inlineStr"/>
+      <c r="KG34" t="inlineStr"/>
+      <c r="KH34" t="inlineStr"/>
+      <c r="KI34" t="inlineStr"/>
+      <c r="KJ34" t="inlineStr"/>
+      <c r="KK34" t="inlineStr"/>
+      <c r="KL34" t="inlineStr"/>
+      <c r="KM34" t="inlineStr"/>
+      <c r="KN34" t="inlineStr"/>
+      <c r="KO34" t="inlineStr"/>
+      <c r="KP34" t="inlineStr"/>
+      <c r="KQ34" t="inlineStr"/>
+      <c r="KR34" t="inlineStr"/>
+      <c r="KS34" t="inlineStr"/>
+      <c r="KT34" t="inlineStr"/>
+      <c r="KU34" t="inlineStr"/>
+      <c r="KV34" t="inlineStr"/>
+      <c r="KW34" t="inlineStr"/>
+      <c r="KX34" t="inlineStr"/>
+      <c r="KY34" t="inlineStr"/>
+      <c r="KZ34" t="inlineStr"/>
+      <c r="LA34" t="inlineStr"/>
+      <c r="LB34" t="inlineStr"/>
+      <c r="LC34" t="inlineStr"/>
+      <c r="LD34" t="inlineStr"/>
+      <c r="LE34" t="inlineStr"/>
+      <c r="LF34" t="inlineStr"/>
+      <c r="LG34" t="inlineStr"/>
+      <c r="LH34" t="inlineStr"/>
+      <c r="LI34" t="inlineStr"/>
+      <c r="LJ34" t="inlineStr"/>
+      <c r="LK34" t="inlineStr"/>
+      <c r="LL34" t="inlineStr"/>
+      <c r="LM34" t="inlineStr"/>
+      <c r="LN34" t="inlineStr"/>
+      <c r="LO34" t="inlineStr"/>
+      <c r="LP34" t="inlineStr"/>
+      <c r="LQ34" t="inlineStr"/>
+      <c r="LR34" t="inlineStr"/>
+      <c r="LS34" t="inlineStr"/>
+      <c r="LT34" t="inlineStr"/>
+      <c r="LU34" t="inlineStr"/>
+      <c r="LV34" t="inlineStr"/>
+      <c r="LW34" t="inlineStr"/>
+      <c r="LX34" t="inlineStr"/>
+      <c r="LY34" t="inlineStr"/>
+      <c r="LZ34" t="inlineStr"/>
+      <c r="MA34" t="inlineStr"/>
+      <c r="MB34" t="inlineStr"/>
+      <c r="MC34" t="inlineStr"/>
+      <c r="MD34" t="inlineStr"/>
+      <c r="ME34" t="n">
+        <v>0.4686276872140341</v>
+      </c>
+      <c r="MF34" t="n">
+        <v>-3.748602762838789</v>
+      </c>
+      <c r="MG34" t="n">
+        <v>-19.37219476532407</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.0009023532516817297</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="inlineStr"/>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
+      <c r="CC35" t="inlineStr"/>
+      <c r="CD35" t="inlineStr"/>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="inlineStr"/>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="inlineStr"/>
+      <c r="CJ35" t="inlineStr"/>
+      <c r="CK35" t="inlineStr"/>
+      <c r="CL35" t="inlineStr"/>
+      <c r="CM35" t="inlineStr"/>
+      <c r="CN35" t="inlineStr"/>
+      <c r="CO35" t="inlineStr"/>
+      <c r="CP35" t="inlineStr"/>
+      <c r="CQ35" t="inlineStr"/>
+      <c r="CR35" t="inlineStr"/>
+      <c r="CS35" t="inlineStr"/>
+      <c r="CT35" t="inlineStr"/>
+      <c r="CU35" t="inlineStr"/>
+      <c r="CV35" t="inlineStr"/>
+      <c r="CW35" t="inlineStr"/>
+      <c r="CX35" t="inlineStr"/>
+      <c r="CY35" t="inlineStr"/>
+      <c r="CZ35" t="inlineStr"/>
+      <c r="DA35" t="inlineStr"/>
+      <c r="DB35" t="inlineStr"/>
+      <c r="DC35" t="inlineStr"/>
+      <c r="DD35" t="inlineStr"/>
+      <c r="DE35" t="inlineStr"/>
+      <c r="DF35" t="inlineStr"/>
+      <c r="DG35" t="inlineStr"/>
+      <c r="DH35" t="inlineStr"/>
+      <c r="DI35" t="inlineStr"/>
+      <c r="DJ35" t="inlineStr"/>
+      <c r="DK35" t="inlineStr"/>
+      <c r="DL35" t="inlineStr"/>
+      <c r="DM35" t="inlineStr"/>
+      <c r="DN35" t="inlineStr"/>
+      <c r="DO35" t="inlineStr"/>
+      <c r="DP35" t="inlineStr"/>
+      <c r="DQ35" t="inlineStr"/>
+      <c r="DR35" t="inlineStr"/>
+      <c r="DS35" t="inlineStr"/>
+      <c r="DT35" t="inlineStr"/>
+      <c r="DU35" t="inlineStr"/>
+      <c r="DV35" t="inlineStr"/>
+      <c r="DW35" t="inlineStr"/>
+      <c r="DX35" t="inlineStr"/>
+      <c r="DY35" t="inlineStr"/>
+      <c r="DZ35" t="inlineStr"/>
+      <c r="EA35" t="inlineStr"/>
+      <c r="EB35" t="inlineStr"/>
+      <c r="EC35" t="inlineStr"/>
+      <c r="ED35" t="inlineStr"/>
+      <c r="EE35" t="inlineStr"/>
+      <c r="EF35" t="inlineStr"/>
+      <c r="EG35" t="inlineStr"/>
+      <c r="EH35" t="inlineStr"/>
+      <c r="EI35" t="inlineStr"/>
+      <c r="EJ35" t="inlineStr"/>
+      <c r="EK35" t="inlineStr"/>
+      <c r="EL35" t="inlineStr"/>
+      <c r="EM35" t="inlineStr"/>
+      <c r="EN35" t="inlineStr"/>
+      <c r="EO35" t="inlineStr"/>
+      <c r="EP35" t="inlineStr"/>
+      <c r="EQ35" t="inlineStr"/>
+      <c r="ER35" t="inlineStr"/>
+      <c r="ES35" t="inlineStr"/>
+      <c r="ET35" t="inlineStr"/>
+      <c r="EU35" t="inlineStr"/>
+      <c r="EV35" t="inlineStr"/>
+      <c r="EW35" t="inlineStr"/>
+      <c r="EX35" t="inlineStr"/>
+      <c r="EY35" t="inlineStr"/>
+      <c r="EZ35" t="inlineStr"/>
+      <c r="FA35" t="inlineStr"/>
+      <c r="FB35" t="inlineStr"/>
+      <c r="FC35" t="inlineStr"/>
+      <c r="FD35" t="inlineStr"/>
+      <c r="FE35" t="inlineStr"/>
+      <c r="FF35" t="inlineStr"/>
+      <c r="FG35" t="inlineStr"/>
+      <c r="FH35" t="inlineStr"/>
+      <c r="FI35" t="inlineStr"/>
+      <c r="FJ35" t="inlineStr"/>
+      <c r="FK35" t="inlineStr"/>
+      <c r="FL35" t="inlineStr"/>
+      <c r="FM35" t="inlineStr"/>
+      <c r="FN35" t="inlineStr"/>
+      <c r="FO35" t="inlineStr"/>
+      <c r="FP35" t="inlineStr"/>
+      <c r="FQ35" t="inlineStr"/>
+      <c r="FR35" t="inlineStr"/>
+      <c r="FS35" t="inlineStr"/>
+      <c r="FT35" t="inlineStr"/>
+      <c r="FU35" t="inlineStr"/>
+      <c r="FV35" t="inlineStr"/>
+      <c r="FW35" t="inlineStr"/>
+      <c r="FX35" t="inlineStr"/>
+      <c r="FY35" t="inlineStr"/>
+      <c r="FZ35" t="inlineStr"/>
+      <c r="GA35" t="inlineStr"/>
+      <c r="GB35" t="inlineStr"/>
+      <c r="GC35" t="inlineStr"/>
+      <c r="GD35" t="inlineStr"/>
+      <c r="GE35" t="inlineStr"/>
+      <c r="GF35" t="inlineStr"/>
+      <c r="GG35" t="inlineStr"/>
+      <c r="GH35" t="inlineStr"/>
+      <c r="GI35" t="inlineStr"/>
+      <c r="GJ35" t="inlineStr"/>
+      <c r="GK35" t="inlineStr"/>
+      <c r="GL35" t="inlineStr"/>
+      <c r="GM35" t="inlineStr"/>
+      <c r="GN35" t="inlineStr"/>
+      <c r="GO35" t="inlineStr"/>
+      <c r="GP35" t="inlineStr"/>
+      <c r="GQ35" t="inlineStr"/>
+      <c r="GR35" t="inlineStr"/>
+      <c r="GS35" t="inlineStr"/>
+      <c r="GT35" t="inlineStr"/>
+      <c r="GU35" t="inlineStr"/>
+      <c r="GV35" t="inlineStr"/>
+      <c r="GW35" t="inlineStr"/>
+      <c r="GX35" t="inlineStr"/>
+      <c r="GY35" t="inlineStr"/>
+      <c r="GZ35" t="inlineStr"/>
+      <c r="HA35" t="inlineStr"/>
+      <c r="HB35" t="inlineStr"/>
+      <c r="HC35" t="inlineStr"/>
+      <c r="HD35" t="inlineStr"/>
+      <c r="HE35" t="inlineStr"/>
+      <c r="HF35" t="inlineStr"/>
+      <c r="HG35" t="inlineStr"/>
+      <c r="HH35" t="inlineStr"/>
+      <c r="HI35" t="inlineStr"/>
+      <c r="HJ35" t="inlineStr"/>
+      <c r="HK35" t="inlineStr"/>
+      <c r="HL35" t="inlineStr"/>
+      <c r="HM35" t="inlineStr"/>
+      <c r="HN35" t="inlineStr"/>
+      <c r="HO35" t="inlineStr"/>
+      <c r="HP35" t="inlineStr"/>
+      <c r="HQ35" t="inlineStr"/>
+      <c r="HR35" t="inlineStr"/>
+      <c r="HS35" t="inlineStr"/>
+      <c r="HT35" t="inlineStr"/>
+      <c r="HU35" t="inlineStr"/>
+      <c r="HV35" t="inlineStr"/>
+      <c r="HW35" t="inlineStr"/>
+      <c r="HX35" t="inlineStr"/>
+      <c r="HY35" t="inlineStr"/>
+      <c r="HZ35" t="inlineStr"/>
+      <c r="IA35" t="inlineStr"/>
+      <c r="IB35" t="inlineStr"/>
+      <c r="IC35" t="inlineStr"/>
+      <c r="ID35" t="inlineStr"/>
+      <c r="IE35" t="inlineStr"/>
+      <c r="IF35" t="inlineStr"/>
+      <c r="IG35" t="inlineStr"/>
+      <c r="IH35" t="inlineStr"/>
+      <c r="II35" t="inlineStr"/>
+      <c r="IJ35" t="inlineStr"/>
+      <c r="IK35" t="inlineStr"/>
+      <c r="IL35" t="inlineStr"/>
+      <c r="IM35" t="inlineStr"/>
+      <c r="IN35" t="inlineStr"/>
+      <c r="IO35" t="inlineStr"/>
+      <c r="IP35" t="inlineStr"/>
+      <c r="IQ35" t="inlineStr"/>
+      <c r="IR35" t="inlineStr"/>
+      <c r="IS35" t="inlineStr"/>
+      <c r="IT35" t="inlineStr"/>
+      <c r="IU35" t="inlineStr"/>
+      <c r="IV35" t="inlineStr"/>
+      <c r="IW35" t="inlineStr"/>
+      <c r="IX35" t="inlineStr"/>
+      <c r="IY35" t="inlineStr"/>
+      <c r="IZ35" t="inlineStr"/>
+      <c r="JA35" t="inlineStr"/>
+      <c r="JB35" t="inlineStr"/>
+      <c r="JC35" t="inlineStr"/>
+      <c r="JD35" t="inlineStr"/>
+      <c r="JE35" t="inlineStr"/>
+      <c r="JF35" t="inlineStr"/>
+      <c r="JG35" t="inlineStr"/>
+      <c r="JH35" t="inlineStr"/>
+      <c r="JI35" t="inlineStr"/>
+      <c r="JJ35" t="inlineStr"/>
+      <c r="JK35" t="inlineStr"/>
+      <c r="JL35" t="inlineStr"/>
+      <c r="JM35" t="inlineStr"/>
+      <c r="JN35" t="inlineStr"/>
+      <c r="JO35" t="inlineStr"/>
+      <c r="JP35" t="inlineStr"/>
+      <c r="JQ35" t="inlineStr"/>
+      <c r="JR35" t="inlineStr"/>
+      <c r="JS35" t="inlineStr"/>
+      <c r="JT35" t="inlineStr"/>
+      <c r="JU35" t="inlineStr"/>
+      <c r="JV35" t="inlineStr"/>
+      <c r="JW35" t="inlineStr"/>
+      <c r="JX35" t="inlineStr"/>
+      <c r="JY35" t="inlineStr"/>
+      <c r="JZ35" t="inlineStr"/>
+      <c r="KA35" t="inlineStr"/>
+      <c r="KB35" t="inlineStr"/>
+      <c r="KC35" t="inlineStr"/>
+      <c r="KD35" t="inlineStr"/>
+      <c r="KE35" t="inlineStr"/>
+      <c r="KF35" t="inlineStr"/>
+      <c r="KG35" t="inlineStr"/>
+      <c r="KH35" t="inlineStr"/>
+      <c r="KI35" t="inlineStr"/>
+      <c r="KJ35" t="inlineStr"/>
+      <c r="KK35" t="inlineStr"/>
+      <c r="KL35" t="inlineStr"/>
+      <c r="KM35" t="inlineStr"/>
+      <c r="KN35" t="inlineStr"/>
+      <c r="KO35" t="inlineStr"/>
+      <c r="KP35" t="inlineStr"/>
+      <c r="KQ35" t="inlineStr"/>
+      <c r="KR35" t="inlineStr"/>
+      <c r="KS35" t="inlineStr"/>
+      <c r="KT35" t="inlineStr"/>
+      <c r="KU35" t="inlineStr"/>
+      <c r="KV35" t="inlineStr"/>
+      <c r="KW35" t="inlineStr"/>
+      <c r="KX35" t="inlineStr"/>
+      <c r="KY35" t="inlineStr"/>
+      <c r="KZ35" t="inlineStr"/>
+      <c r="LA35" t="inlineStr"/>
+      <c r="LB35" t="inlineStr"/>
+      <c r="LC35" t="inlineStr"/>
+      <c r="LD35" t="inlineStr"/>
+      <c r="LE35" t="inlineStr"/>
+      <c r="LF35" t="inlineStr"/>
+      <c r="LG35" t="inlineStr"/>
+      <c r="LH35" t="inlineStr"/>
+      <c r="LI35" t="inlineStr"/>
+      <c r="LJ35" t="inlineStr"/>
+      <c r="LK35" t="inlineStr"/>
+      <c r="LL35" t="inlineStr"/>
+      <c r="LM35" t="inlineStr"/>
+      <c r="LN35" t="inlineStr"/>
+      <c r="LO35" t="inlineStr"/>
+      <c r="LP35" t="inlineStr"/>
+      <c r="LQ35" t="inlineStr"/>
+      <c r="LR35" t="inlineStr"/>
+      <c r="LS35" t="inlineStr"/>
+      <c r="LT35" t="inlineStr"/>
+      <c r="LU35" t="inlineStr"/>
+      <c r="LV35" t="inlineStr"/>
+      <c r="LW35" t="inlineStr"/>
+      <c r="LX35" t="inlineStr"/>
+      <c r="LY35" t="inlineStr"/>
+      <c r="LZ35" t="inlineStr"/>
+      <c r="MA35" t="inlineStr"/>
+      <c r="MB35" t="inlineStr"/>
+      <c r="MC35" t="inlineStr"/>
+      <c r="MD35" t="inlineStr"/>
+      <c r="ME35" t="n">
+        <v>37.77064666291301</v>
+      </c>
+      <c r="MF35" t="n">
+        <v>-39.97756398810542</v>
+      </c>
+      <c r="MG35" t="n">
+        <v>-1.393232922577649</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.009435768277701231</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="inlineStr"/>
+      <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="inlineStr"/>
+      <c r="BW36" t="inlineStr"/>
+      <c r="BX36" t="inlineStr"/>
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr"/>
+      <c r="CC36" t="inlineStr"/>
+      <c r="CD36" t="inlineStr"/>
+      <c r="CE36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="inlineStr"/>
+      <c r="CH36" t="inlineStr"/>
+      <c r="CI36" t="inlineStr"/>
+      <c r="CJ36" t="inlineStr"/>
+      <c r="CK36" t="inlineStr"/>
+      <c r="CL36" t="inlineStr"/>
+      <c r="CM36" t="inlineStr"/>
+      <c r="CN36" t="inlineStr"/>
+      <c r="CO36" t="inlineStr"/>
+      <c r="CP36" t="inlineStr"/>
+      <c r="CQ36" t="inlineStr"/>
+      <c r="CR36" t="inlineStr"/>
+      <c r="CS36" t="inlineStr"/>
+      <c r="CT36" t="inlineStr"/>
+      <c r="CU36" t="inlineStr"/>
+      <c r="CV36" t="inlineStr"/>
+      <c r="CW36" t="inlineStr"/>
+      <c r="CX36" t="inlineStr"/>
+      <c r="CY36" t="inlineStr"/>
+      <c r="CZ36" t="inlineStr"/>
+      <c r="DA36" t="inlineStr"/>
+      <c r="DB36" t="inlineStr"/>
+      <c r="DC36" t="inlineStr"/>
+      <c r="DD36" t="inlineStr"/>
+      <c r="DE36" t="inlineStr"/>
+      <c r="DF36" t="inlineStr"/>
+      <c r="DG36" t="inlineStr"/>
+      <c r="DH36" t="inlineStr"/>
+      <c r="DI36" t="inlineStr"/>
+      <c r="DJ36" t="inlineStr"/>
+      <c r="DK36" t="inlineStr"/>
+      <c r="DL36" t="inlineStr"/>
+      <c r="DM36" t="inlineStr"/>
+      <c r="DN36" t="inlineStr"/>
+      <c r="DO36" t="inlineStr"/>
+      <c r="DP36" t="inlineStr"/>
+      <c r="DQ36" t="inlineStr"/>
+      <c r="DR36" t="inlineStr"/>
+      <c r="DS36" t="inlineStr"/>
+      <c r="DT36" t="inlineStr"/>
+      <c r="DU36" t="inlineStr"/>
+      <c r="DV36" t="inlineStr"/>
+      <c r="DW36" t="inlineStr"/>
+      <c r="DX36" t="inlineStr"/>
+      <c r="DY36" t="inlineStr"/>
+      <c r="DZ36" t="inlineStr"/>
+      <c r="EA36" t="inlineStr"/>
+      <c r="EB36" t="inlineStr"/>
+      <c r="EC36" t="inlineStr"/>
+      <c r="ED36" t="inlineStr"/>
+      <c r="EE36" t="inlineStr"/>
+      <c r="EF36" t="inlineStr"/>
+      <c r="EG36" t="inlineStr"/>
+      <c r="EH36" t="inlineStr"/>
+      <c r="EI36" t="inlineStr"/>
+      <c r="EJ36" t="inlineStr"/>
+      <c r="EK36" t="inlineStr"/>
+      <c r="EL36" t="inlineStr"/>
+      <c r="EM36" t="inlineStr"/>
+      <c r="EN36" t="inlineStr"/>
+      <c r="EO36" t="inlineStr"/>
+      <c r="EP36" t="inlineStr"/>
+      <c r="EQ36" t="inlineStr"/>
+      <c r="ER36" t="inlineStr"/>
+      <c r="ES36" t="inlineStr"/>
+      <c r="ET36" t="inlineStr"/>
+      <c r="EU36" t="inlineStr"/>
+      <c r="EV36" t="inlineStr"/>
+      <c r="EW36" t="inlineStr"/>
+      <c r="EX36" t="inlineStr"/>
+      <c r="EY36" t="inlineStr"/>
+      <c r="EZ36" t="inlineStr"/>
+      <c r="FA36" t="inlineStr"/>
+      <c r="FB36" t="inlineStr"/>
+      <c r="FC36" t="inlineStr"/>
+      <c r="FD36" t="inlineStr"/>
+      <c r="FE36" t="inlineStr"/>
+      <c r="FF36" t="inlineStr"/>
+      <c r="FG36" t="inlineStr"/>
+      <c r="FH36" t="inlineStr"/>
+      <c r="FI36" t="inlineStr"/>
+      <c r="FJ36" t="inlineStr"/>
+      <c r="FK36" t="inlineStr"/>
+      <c r="FL36" t="inlineStr"/>
+      <c r="FM36" t="inlineStr"/>
+      <c r="FN36" t="inlineStr"/>
+      <c r="FO36" t="inlineStr"/>
+      <c r="FP36" t="inlineStr"/>
+      <c r="FQ36" t="inlineStr"/>
+      <c r="FR36" t="inlineStr"/>
+      <c r="FS36" t="inlineStr"/>
+      <c r="FT36" t="inlineStr"/>
+      <c r="FU36" t="inlineStr"/>
+      <c r="FV36" t="inlineStr"/>
+      <c r="FW36" t="inlineStr"/>
+      <c r="FX36" t="inlineStr"/>
+      <c r="FY36" t="inlineStr"/>
+      <c r="FZ36" t="inlineStr"/>
+      <c r="GA36" t="inlineStr"/>
+      <c r="GB36" t="inlineStr"/>
+      <c r="GC36" t="inlineStr"/>
+      <c r="GD36" t="inlineStr"/>
+      <c r="GE36" t="inlineStr"/>
+      <c r="GF36" t="inlineStr"/>
+      <c r="GG36" t="inlineStr"/>
+      <c r="GH36" t="inlineStr"/>
+      <c r="GI36" t="inlineStr"/>
+      <c r="GJ36" t="inlineStr"/>
+      <c r="GK36" t="inlineStr"/>
+      <c r="GL36" t="inlineStr"/>
+      <c r="GM36" t="inlineStr"/>
+      <c r="GN36" t="inlineStr"/>
+      <c r="GO36" t="inlineStr"/>
+      <c r="GP36" t="inlineStr"/>
+      <c r="GQ36" t="inlineStr"/>
+      <c r="GR36" t="inlineStr"/>
+      <c r="GS36" t="inlineStr"/>
+      <c r="GT36" t="inlineStr"/>
+      <c r="GU36" t="inlineStr"/>
+      <c r="GV36" t="inlineStr"/>
+      <c r="GW36" t="inlineStr"/>
+      <c r="GX36" t="inlineStr"/>
+      <c r="GY36" t="inlineStr"/>
+      <c r="GZ36" t="inlineStr"/>
+      <c r="HA36" t="inlineStr"/>
+      <c r="HB36" t="inlineStr"/>
+      <c r="HC36" t="inlineStr"/>
+      <c r="HD36" t="inlineStr"/>
+      <c r="HE36" t="inlineStr"/>
+      <c r="HF36" t="inlineStr"/>
+      <c r="HG36" t="inlineStr"/>
+      <c r="HH36" t="inlineStr"/>
+      <c r="HI36" t="inlineStr"/>
+      <c r="HJ36" t="inlineStr"/>
+      <c r="HK36" t="inlineStr"/>
+      <c r="HL36" t="inlineStr"/>
+      <c r="HM36" t="inlineStr"/>
+      <c r="HN36" t="inlineStr"/>
+      <c r="HO36" t="inlineStr"/>
+      <c r="HP36" t="inlineStr"/>
+      <c r="HQ36" t="inlineStr"/>
+      <c r="HR36" t="inlineStr"/>
+      <c r="HS36" t="inlineStr"/>
+      <c r="HT36" t="inlineStr"/>
+      <c r="HU36" t="inlineStr"/>
+      <c r="HV36" t="inlineStr"/>
+      <c r="HW36" t="inlineStr"/>
+      <c r="HX36" t="inlineStr"/>
+      <c r="HY36" t="inlineStr"/>
+      <c r="HZ36" t="inlineStr"/>
+      <c r="IA36" t="inlineStr"/>
+      <c r="IB36" t="inlineStr"/>
+      <c r="IC36" t="inlineStr"/>
+      <c r="ID36" t="inlineStr"/>
+      <c r="IE36" t="inlineStr"/>
+      <c r="IF36" t="inlineStr"/>
+      <c r="IG36" t="inlineStr"/>
+      <c r="IH36" t="inlineStr"/>
+      <c r="II36" t="inlineStr"/>
+      <c r="IJ36" t="inlineStr"/>
+      <c r="IK36" t="inlineStr"/>
+      <c r="IL36" t="inlineStr"/>
+      <c r="IM36" t="inlineStr"/>
+      <c r="IN36" t="inlineStr"/>
+      <c r="IO36" t="inlineStr"/>
+      <c r="IP36" t="inlineStr"/>
+      <c r="IQ36" t="inlineStr"/>
+      <c r="IR36" t="inlineStr"/>
+      <c r="IS36" t="inlineStr"/>
+      <c r="IT36" t="inlineStr"/>
+      <c r="IU36" t="inlineStr"/>
+      <c r="IV36" t="inlineStr"/>
+      <c r="IW36" t="inlineStr"/>
+      <c r="IX36" t="inlineStr"/>
+      <c r="IY36" t="inlineStr"/>
+      <c r="IZ36" t="inlineStr"/>
+      <c r="JA36" t="inlineStr"/>
+      <c r="JB36" t="inlineStr"/>
+      <c r="JC36" t="inlineStr"/>
+      <c r="JD36" t="inlineStr"/>
+      <c r="JE36" t="inlineStr"/>
+      <c r="JF36" t="inlineStr"/>
+      <c r="JG36" t="inlineStr"/>
+      <c r="JH36" t="inlineStr"/>
+      <c r="JI36" t="inlineStr"/>
+      <c r="JJ36" t="inlineStr"/>
+      <c r="JK36" t="inlineStr"/>
+      <c r="JL36" t="inlineStr"/>
+      <c r="JM36" t="inlineStr"/>
+      <c r="JN36" t="inlineStr"/>
+      <c r="JO36" t="inlineStr"/>
+      <c r="JP36" t="inlineStr"/>
+      <c r="JQ36" t="inlineStr"/>
+      <c r="JR36" t="inlineStr"/>
+      <c r="JS36" t="inlineStr"/>
+      <c r="JT36" t="inlineStr"/>
+      <c r="JU36" t="inlineStr"/>
+      <c r="JV36" t="inlineStr"/>
+      <c r="JW36" t="inlineStr"/>
+      <c r="JX36" t="inlineStr"/>
+      <c r="JY36" t="inlineStr"/>
+      <c r="JZ36" t="inlineStr"/>
+      <c r="KA36" t="inlineStr"/>
+      <c r="KB36" t="inlineStr"/>
+      <c r="KC36" t="inlineStr"/>
+      <c r="KD36" t="inlineStr"/>
+      <c r="KE36" t="inlineStr"/>
+      <c r="KF36" t="inlineStr"/>
+      <c r="KG36" t="inlineStr"/>
+      <c r="KH36" t="inlineStr"/>
+      <c r="KI36" t="inlineStr"/>
+      <c r="KJ36" t="inlineStr"/>
+      <c r="KK36" t="inlineStr"/>
+      <c r="KL36" t="inlineStr"/>
+      <c r="KM36" t="inlineStr"/>
+      <c r="KN36" t="inlineStr"/>
+      <c r="KO36" t="inlineStr"/>
+      <c r="KP36" t="inlineStr"/>
+      <c r="KQ36" t="inlineStr"/>
+      <c r="KR36" t="inlineStr"/>
+      <c r="KS36" t="inlineStr"/>
+      <c r="KT36" t="inlineStr"/>
+      <c r="KU36" t="inlineStr"/>
+      <c r="KV36" t="inlineStr"/>
+      <c r="KW36" t="inlineStr"/>
+      <c r="KX36" t="inlineStr"/>
+      <c r="KY36" t="inlineStr"/>
+      <c r="KZ36" t="inlineStr"/>
+      <c r="LA36" t="inlineStr"/>
+      <c r="LB36" t="inlineStr"/>
+      <c r="LC36" t="inlineStr"/>
+      <c r="LD36" t="inlineStr"/>
+      <c r="LE36" t="inlineStr"/>
+      <c r="LF36" t="inlineStr"/>
+      <c r="LG36" t="inlineStr"/>
+      <c r="LH36" t="inlineStr"/>
+      <c r="LI36" t="inlineStr"/>
+      <c r="LJ36" t="inlineStr"/>
+      <c r="LK36" t="inlineStr"/>
+      <c r="LL36" t="inlineStr"/>
+      <c r="LM36" t="inlineStr"/>
+      <c r="LN36" t="inlineStr"/>
+      <c r="LO36" t="inlineStr"/>
+      <c r="LP36" t="inlineStr"/>
+      <c r="LQ36" t="inlineStr"/>
+      <c r="LR36" t="inlineStr"/>
+      <c r="LS36" t="inlineStr"/>
+      <c r="LT36" t="inlineStr"/>
+      <c r="LU36" t="inlineStr"/>
+      <c r="LV36" t="inlineStr"/>
+      <c r="LW36" t="inlineStr"/>
+      <c r="LX36" t="inlineStr"/>
+      <c r="LY36" t="inlineStr"/>
+      <c r="LZ36" t="inlineStr"/>
+      <c r="MA36" t="inlineStr"/>
+      <c r="MB36" t="inlineStr"/>
+      <c r="MC36" t="inlineStr"/>
+      <c r="MD36" t="inlineStr"/>
+      <c r="ME36" t="n">
+        <v>-0.4135118193319164</v>
+      </c>
+      <c r="MF36" t="n">
+        <v>-2.206836700570598</v>
+      </c>
+      <c r="MG36" t="n">
+        <v>7.215382706707297</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.02221405352419268</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
+      <c r="CD37" t="inlineStr"/>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="inlineStr"/>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="inlineStr"/>
+      <c r="CJ37" t="inlineStr"/>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
+      <c r="CN37" t="inlineStr"/>
+      <c r="CO37" t="inlineStr"/>
+      <c r="CP37" t="inlineStr"/>
+      <c r="CQ37" t="inlineStr"/>
+      <c r="CR37" t="inlineStr"/>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
+      <c r="CV37" t="inlineStr"/>
+      <c r="CW37" t="inlineStr"/>
+      <c r="CX37" t="inlineStr"/>
+      <c r="CY37" t="inlineStr"/>
+      <c r="CZ37" t="inlineStr"/>
+      <c r="DA37" t="inlineStr"/>
+      <c r="DB37" t="inlineStr"/>
+      <c r="DC37" t="inlineStr"/>
+      <c r="DD37" t="inlineStr"/>
+      <c r="DE37" t="inlineStr"/>
+      <c r="DF37" t="inlineStr"/>
+      <c r="DG37" t="inlineStr"/>
+      <c r="DH37" t="inlineStr"/>
+      <c r="DI37" t="inlineStr"/>
+      <c r="DJ37" t="inlineStr"/>
+      <c r="DK37" t="inlineStr"/>
+      <c r="DL37" t="inlineStr"/>
+      <c r="DM37" t="inlineStr"/>
+      <c r="DN37" t="inlineStr"/>
+      <c r="DO37" t="inlineStr"/>
+      <c r="DP37" t="inlineStr"/>
+      <c r="DQ37" t="inlineStr"/>
+      <c r="DR37" t="inlineStr"/>
+      <c r="DS37" t="inlineStr"/>
+      <c r="DT37" t="inlineStr"/>
+      <c r="DU37" t="inlineStr"/>
+      <c r="DV37" t="inlineStr"/>
+      <c r="DW37" t="inlineStr"/>
+      <c r="DX37" t="inlineStr"/>
+      <c r="DY37" t="inlineStr"/>
+      <c r="DZ37" t="inlineStr"/>
+      <c r="EA37" t="inlineStr"/>
+      <c r="EB37" t="inlineStr"/>
+      <c r="EC37" t="inlineStr"/>
+      <c r="ED37" t="inlineStr"/>
+      <c r="EE37" t="inlineStr"/>
+      <c r="EF37" t="inlineStr"/>
+      <c r="EG37" t="inlineStr"/>
+      <c r="EH37" t="inlineStr"/>
+      <c r="EI37" t="inlineStr"/>
+      <c r="EJ37" t="inlineStr"/>
+      <c r="EK37" t="inlineStr"/>
+      <c r="EL37" t="inlineStr"/>
+      <c r="EM37" t="inlineStr"/>
+      <c r="EN37" t="inlineStr"/>
+      <c r="EO37" t="inlineStr"/>
+      <c r="EP37" t="inlineStr"/>
+      <c r="EQ37" t="inlineStr"/>
+      <c r="ER37" t="inlineStr"/>
+      <c r="ES37" t="inlineStr"/>
+      <c r="ET37" t="inlineStr"/>
+      <c r="EU37" t="inlineStr"/>
+      <c r="EV37" t="inlineStr"/>
+      <c r="EW37" t="inlineStr"/>
+      <c r="EX37" t="inlineStr"/>
+      <c r="EY37" t="inlineStr"/>
+      <c r="EZ37" t="inlineStr"/>
+      <c r="FA37" t="inlineStr"/>
+      <c r="FB37" t="inlineStr"/>
+      <c r="FC37" t="inlineStr"/>
+      <c r="FD37" t="inlineStr"/>
+      <c r="FE37" t="inlineStr"/>
+      <c r="FF37" t="inlineStr"/>
+      <c r="FG37" t="inlineStr"/>
+      <c r="FH37" t="inlineStr"/>
+      <c r="FI37" t="inlineStr"/>
+      <c r="FJ37" t="inlineStr"/>
+      <c r="FK37" t="inlineStr"/>
+      <c r="FL37" t="inlineStr"/>
+      <c r="FM37" t="inlineStr"/>
+      <c r="FN37" t="inlineStr"/>
+      <c r="FO37" t="inlineStr"/>
+      <c r="FP37" t="inlineStr"/>
+      <c r="FQ37" t="inlineStr"/>
+      <c r="FR37" t="inlineStr"/>
+      <c r="FS37" t="inlineStr"/>
+      <c r="FT37" t="inlineStr"/>
+      <c r="FU37" t="inlineStr"/>
+      <c r="FV37" t="inlineStr"/>
+      <c r="FW37" t="inlineStr"/>
+      <c r="FX37" t="inlineStr"/>
+      <c r="FY37" t="inlineStr"/>
+      <c r="FZ37" t="inlineStr"/>
+      <c r="GA37" t="inlineStr"/>
+      <c r="GB37" t="inlineStr"/>
+      <c r="GC37" t="inlineStr"/>
+      <c r="GD37" t="inlineStr"/>
+      <c r="GE37" t="inlineStr"/>
+      <c r="GF37" t="inlineStr"/>
+      <c r="GG37" t="inlineStr"/>
+      <c r="GH37" t="inlineStr"/>
+      <c r="GI37" t="inlineStr"/>
+      <c r="GJ37" t="inlineStr"/>
+      <c r="GK37" t="inlineStr"/>
+      <c r="GL37" t="inlineStr"/>
+      <c r="GM37" t="inlineStr"/>
+      <c r="GN37" t="inlineStr"/>
+      <c r="GO37" t="inlineStr"/>
+      <c r="GP37" t="inlineStr"/>
+      <c r="GQ37" t="inlineStr"/>
+      <c r="GR37" t="inlineStr"/>
+      <c r="GS37" t="inlineStr"/>
+      <c r="GT37" t="inlineStr"/>
+      <c r="GU37" t="inlineStr"/>
+      <c r="GV37" t="inlineStr"/>
+      <c r="GW37" t="inlineStr"/>
+      <c r="GX37" t="inlineStr"/>
+      <c r="GY37" t="inlineStr"/>
+      <c r="GZ37" t="inlineStr"/>
+      <c r="HA37" t="inlineStr"/>
+      <c r="HB37" t="inlineStr"/>
+      <c r="HC37" t="inlineStr"/>
+      <c r="HD37" t="inlineStr"/>
+      <c r="HE37" t="inlineStr"/>
+      <c r="HF37" t="inlineStr"/>
+      <c r="HG37" t="inlineStr"/>
+      <c r="HH37" t="inlineStr"/>
+      <c r="HI37" t="inlineStr"/>
+      <c r="HJ37" t="inlineStr"/>
+      <c r="HK37" t="inlineStr"/>
+      <c r="HL37" t="inlineStr"/>
+      <c r="HM37" t="inlineStr"/>
+      <c r="HN37" t="inlineStr"/>
+      <c r="HO37" t="inlineStr"/>
+      <c r="HP37" t="inlineStr"/>
+      <c r="HQ37" t="inlineStr"/>
+      <c r="HR37" t="inlineStr"/>
+      <c r="HS37" t="inlineStr"/>
+      <c r="HT37" t="inlineStr"/>
+      <c r="HU37" t="inlineStr"/>
+      <c r="HV37" t="inlineStr"/>
+      <c r="HW37" t="inlineStr"/>
+      <c r="HX37" t="inlineStr"/>
+      <c r="HY37" t="inlineStr"/>
+      <c r="HZ37" t="inlineStr"/>
+      <c r="IA37" t="inlineStr"/>
+      <c r="IB37" t="inlineStr"/>
+      <c r="IC37" t="inlineStr"/>
+      <c r="ID37" t="inlineStr"/>
+      <c r="IE37" t="inlineStr"/>
+      <c r="IF37" t="inlineStr"/>
+      <c r="IG37" t="inlineStr"/>
+      <c r="IH37" t="inlineStr"/>
+      <c r="II37" t="inlineStr"/>
+      <c r="IJ37" t="inlineStr"/>
+      <c r="IK37" t="inlineStr"/>
+      <c r="IL37" t="inlineStr"/>
+      <c r="IM37" t="inlineStr"/>
+      <c r="IN37" t="inlineStr"/>
+      <c r="IO37" t="inlineStr"/>
+      <c r="IP37" t="inlineStr"/>
+      <c r="IQ37" t="inlineStr"/>
+      <c r="IR37" t="inlineStr"/>
+      <c r="IS37" t="inlineStr"/>
+      <c r="IT37" t="inlineStr"/>
+      <c r="IU37" t="inlineStr"/>
+      <c r="IV37" t="inlineStr"/>
+      <c r="IW37" t="inlineStr"/>
+      <c r="IX37" t="inlineStr"/>
+      <c r="IY37" t="inlineStr"/>
+      <c r="IZ37" t="inlineStr"/>
+      <c r="JA37" t="inlineStr"/>
+      <c r="JB37" t="inlineStr"/>
+      <c r="JC37" t="inlineStr"/>
+      <c r="JD37" t="inlineStr"/>
+      <c r="JE37" t="inlineStr"/>
+      <c r="JF37" t="inlineStr"/>
+      <c r="JG37" t="inlineStr"/>
+      <c r="JH37" t="inlineStr"/>
+      <c r="JI37" t="inlineStr"/>
+      <c r="JJ37" t="inlineStr"/>
+      <c r="JK37" t="inlineStr"/>
+      <c r="JL37" t="inlineStr"/>
+      <c r="JM37" t="inlineStr"/>
+      <c r="JN37" t="inlineStr"/>
+      <c r="JO37" t="inlineStr"/>
+      <c r="JP37" t="inlineStr"/>
+      <c r="JQ37" t="inlineStr"/>
+      <c r="JR37" t="inlineStr"/>
+      <c r="JS37" t="inlineStr"/>
+      <c r="JT37" t="inlineStr"/>
+      <c r="JU37" t="inlineStr"/>
+      <c r="JV37" t="inlineStr"/>
+      <c r="JW37" t="inlineStr"/>
+      <c r="JX37" t="inlineStr"/>
+      <c r="JY37" t="inlineStr"/>
+      <c r="JZ37" t="inlineStr"/>
+      <c r="KA37" t="inlineStr"/>
+      <c r="KB37" t="inlineStr"/>
+      <c r="KC37" t="inlineStr"/>
+      <c r="KD37" t="inlineStr"/>
+      <c r="KE37" t="inlineStr"/>
+      <c r="KF37" t="inlineStr"/>
+      <c r="KG37" t="inlineStr"/>
+      <c r="KH37" t="inlineStr"/>
+      <c r="KI37" t="inlineStr"/>
+      <c r="KJ37" t="inlineStr"/>
+      <c r="KK37" t="inlineStr"/>
+      <c r="KL37" t="inlineStr"/>
+      <c r="KM37" t="inlineStr"/>
+      <c r="KN37" t="inlineStr"/>
+      <c r="KO37" t="inlineStr"/>
+      <c r="KP37" t="inlineStr"/>
+      <c r="KQ37" t="inlineStr"/>
+      <c r="KR37" t="inlineStr"/>
+      <c r="KS37" t="inlineStr"/>
+      <c r="KT37" t="inlineStr"/>
+      <c r="KU37" t="inlineStr"/>
+      <c r="KV37" t="inlineStr"/>
+      <c r="KW37" t="inlineStr"/>
+      <c r="KX37" t="inlineStr"/>
+      <c r="KY37" t="inlineStr"/>
+      <c r="KZ37" t="inlineStr"/>
+      <c r="LA37" t="inlineStr"/>
+      <c r="LB37" t="inlineStr"/>
+      <c r="LC37" t="inlineStr"/>
+      <c r="LD37" t="inlineStr"/>
+      <c r="LE37" t="inlineStr"/>
+      <c r="LF37" t="inlineStr"/>
+      <c r="LG37" t="inlineStr"/>
+      <c r="LH37" t="inlineStr"/>
+      <c r="LI37" t="inlineStr"/>
+      <c r="LJ37" t="inlineStr"/>
+      <c r="LK37" t="inlineStr"/>
+      <c r="LL37" t="inlineStr"/>
+      <c r="LM37" t="inlineStr"/>
+      <c r="LN37" t="inlineStr"/>
+      <c r="LO37" t="inlineStr"/>
+      <c r="LP37" t="inlineStr"/>
+      <c r="LQ37" t="inlineStr"/>
+      <c r="LR37" t="inlineStr"/>
+      <c r="LS37" t="inlineStr"/>
+      <c r="LT37" t="inlineStr"/>
+      <c r="LU37" t="inlineStr"/>
+      <c r="LV37" t="inlineStr"/>
+      <c r="LW37" t="inlineStr"/>
+      <c r="LX37" t="inlineStr"/>
+      <c r="LY37" t="inlineStr"/>
+      <c r="LZ37" t="inlineStr"/>
+      <c r="MA37" t="inlineStr"/>
+      <c r="MB37" t="inlineStr"/>
+      <c r="MC37" t="inlineStr"/>
+      <c r="MD37" t="inlineStr"/>
+      <c r="ME37" t="n">
+        <v>-3.526141209170697</v>
+      </c>
+      <c r="MF37" t="n">
+        <v>-0.8565552638431925</v>
+      </c>
+      <c r="MG37" t="n">
+        <v>2.179256068160227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.06831573549474139</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
+      <c r="CG38" t="inlineStr"/>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="inlineStr"/>
+      <c r="CJ38" t="inlineStr"/>
+      <c r="CK38" t="inlineStr"/>
+      <c r="CL38" t="inlineStr"/>
+      <c r="CM38" t="inlineStr"/>
+      <c r="CN38" t="inlineStr"/>
+      <c r="CO38" t="inlineStr"/>
+      <c r="CP38" t="inlineStr"/>
+      <c r="CQ38" t="inlineStr"/>
+      <c r="CR38" t="inlineStr"/>
+      <c r="CS38" t="inlineStr"/>
+      <c r="CT38" t="inlineStr"/>
+      <c r="CU38" t="inlineStr"/>
+      <c r="CV38" t="inlineStr"/>
+      <c r="CW38" t="inlineStr"/>
+      <c r="CX38" t="inlineStr"/>
+      <c r="CY38" t="inlineStr"/>
+      <c r="CZ38" t="inlineStr"/>
+      <c r="DA38" t="inlineStr"/>
+      <c r="DB38" t="inlineStr"/>
+      <c r="DC38" t="inlineStr"/>
+      <c r="DD38" t="inlineStr"/>
+      <c r="DE38" t="inlineStr"/>
+      <c r="DF38" t="inlineStr"/>
+      <c r="DG38" t="inlineStr"/>
+      <c r="DH38" t="inlineStr"/>
+      <c r="DI38" t="inlineStr"/>
+      <c r="DJ38" t="inlineStr"/>
+      <c r="DK38" t="inlineStr"/>
+      <c r="DL38" t="inlineStr"/>
+      <c r="DM38" t="inlineStr"/>
+      <c r="DN38" t="inlineStr"/>
+      <c r="DO38" t="inlineStr"/>
+      <c r="DP38" t="inlineStr"/>
+      <c r="DQ38" t="inlineStr"/>
+      <c r="DR38" t="inlineStr"/>
+      <c r="DS38" t="inlineStr"/>
+      <c r="DT38" t="inlineStr"/>
+      <c r="DU38" t="inlineStr"/>
+      <c r="DV38" t="inlineStr"/>
+      <c r="DW38" t="inlineStr"/>
+      <c r="DX38" t="inlineStr"/>
+      <c r="DY38" t="inlineStr"/>
+      <c r="DZ38" t="inlineStr"/>
+      <c r="EA38" t="inlineStr"/>
+      <c r="EB38" t="inlineStr"/>
+      <c r="EC38" t="inlineStr"/>
+      <c r="ED38" t="inlineStr"/>
+      <c r="EE38" t="inlineStr"/>
+      <c r="EF38" t="inlineStr"/>
+      <c r="EG38" t="inlineStr"/>
+      <c r="EH38" t="inlineStr"/>
+      <c r="EI38" t="inlineStr"/>
+      <c r="EJ38" t="inlineStr"/>
+      <c r="EK38" t="inlineStr"/>
+      <c r="EL38" t="inlineStr"/>
+      <c r="EM38" t="inlineStr"/>
+      <c r="EN38" t="inlineStr"/>
+      <c r="EO38" t="inlineStr"/>
+      <c r="EP38" t="inlineStr"/>
+      <c r="EQ38" t="inlineStr"/>
+      <c r="ER38" t="inlineStr"/>
+      <c r="ES38" t="inlineStr"/>
+      <c r="ET38" t="inlineStr"/>
+      <c r="EU38" t="inlineStr"/>
+      <c r="EV38" t="inlineStr"/>
+      <c r="EW38" t="inlineStr"/>
+      <c r="EX38" t="inlineStr"/>
+      <c r="EY38" t="inlineStr"/>
+      <c r="EZ38" t="inlineStr"/>
+      <c r="FA38" t="inlineStr"/>
+      <c r="FB38" t="inlineStr"/>
+      <c r="FC38" t="inlineStr"/>
+      <c r="FD38" t="inlineStr"/>
+      <c r="FE38" t="inlineStr"/>
+      <c r="FF38" t="inlineStr"/>
+      <c r="FG38" t="inlineStr"/>
+      <c r="FH38" t="inlineStr"/>
+      <c r="FI38" t="inlineStr"/>
+      <c r="FJ38" t="inlineStr"/>
+      <c r="FK38" t="inlineStr"/>
+      <c r="FL38" t="inlineStr"/>
+      <c r="FM38" t="inlineStr"/>
+      <c r="FN38" t="inlineStr"/>
+      <c r="FO38" t="inlineStr"/>
+      <c r="FP38" t="inlineStr"/>
+      <c r="FQ38" t="inlineStr"/>
+      <c r="FR38" t="inlineStr"/>
+      <c r="FS38" t="inlineStr"/>
+      <c r="FT38" t="inlineStr"/>
+      <c r="FU38" t="inlineStr"/>
+      <c r="FV38" t="inlineStr"/>
+      <c r="FW38" t="inlineStr"/>
+      <c r="FX38" t="inlineStr"/>
+      <c r="FY38" t="inlineStr"/>
+      <c r="FZ38" t="inlineStr"/>
+      <c r="GA38" t="inlineStr"/>
+      <c r="GB38" t="inlineStr"/>
+      <c r="GC38" t="inlineStr"/>
+      <c r="GD38" t="inlineStr"/>
+      <c r="GE38" t="inlineStr"/>
+      <c r="GF38" t="inlineStr"/>
+      <c r="GG38" t="inlineStr"/>
+      <c r="GH38" t="inlineStr"/>
+      <c r="GI38" t="inlineStr"/>
+      <c r="GJ38" t="inlineStr"/>
+      <c r="GK38" t="inlineStr"/>
+      <c r="GL38" t="inlineStr"/>
+      <c r="GM38" t="inlineStr"/>
+      <c r="GN38" t="inlineStr"/>
+      <c r="GO38" t="inlineStr"/>
+      <c r="GP38" t="inlineStr"/>
+      <c r="GQ38" t="inlineStr"/>
+      <c r="GR38" t="inlineStr"/>
+      <c r="GS38" t="inlineStr"/>
+      <c r="GT38" t="inlineStr"/>
+      <c r="GU38" t="inlineStr"/>
+      <c r="GV38" t="inlineStr"/>
+      <c r="GW38" t="inlineStr"/>
+      <c r="GX38" t="inlineStr"/>
+      <c r="GY38" t="inlineStr"/>
+      <c r="GZ38" t="inlineStr"/>
+      <c r="HA38" t="inlineStr"/>
+      <c r="HB38" t="inlineStr"/>
+      <c r="HC38" t="inlineStr"/>
+      <c r="HD38" t="inlineStr"/>
+      <c r="HE38" t="inlineStr"/>
+      <c r="HF38" t="inlineStr"/>
+      <c r="HG38" t="inlineStr"/>
+      <c r="HH38" t="inlineStr"/>
+      <c r="HI38" t="inlineStr"/>
+      <c r="HJ38" t="inlineStr"/>
+      <c r="HK38" t="inlineStr"/>
+      <c r="HL38" t="inlineStr"/>
+      <c r="HM38" t="inlineStr"/>
+      <c r="HN38" t="inlineStr"/>
+      <c r="HO38" t="inlineStr"/>
+      <c r="HP38" t="inlineStr"/>
+      <c r="HQ38" t="inlineStr"/>
+      <c r="HR38" t="inlineStr"/>
+      <c r="HS38" t="inlineStr"/>
+      <c r="HT38" t="inlineStr"/>
+      <c r="HU38" t="inlineStr"/>
+      <c r="HV38" t="inlineStr"/>
+      <c r="HW38" t="inlineStr"/>
+      <c r="HX38" t="inlineStr"/>
+      <c r="HY38" t="inlineStr"/>
+      <c r="HZ38" t="inlineStr"/>
+      <c r="IA38" t="inlineStr"/>
+      <c r="IB38" t="inlineStr"/>
+      <c r="IC38" t="inlineStr"/>
+      <c r="ID38" t="inlineStr"/>
+      <c r="IE38" t="inlineStr"/>
+      <c r="IF38" t="inlineStr"/>
+      <c r="IG38" t="inlineStr"/>
+      <c r="IH38" t="inlineStr"/>
+      <c r="II38" t="inlineStr"/>
+      <c r="IJ38" t="inlineStr"/>
+      <c r="IK38" t="inlineStr"/>
+      <c r="IL38" t="inlineStr"/>
+      <c r="IM38" t="inlineStr"/>
+      <c r="IN38" t="inlineStr"/>
+      <c r="IO38" t="inlineStr"/>
+      <c r="IP38" t="inlineStr"/>
+      <c r="IQ38" t="inlineStr"/>
+      <c r="IR38" t="inlineStr"/>
+      <c r="IS38" t="inlineStr"/>
+      <c r="IT38" t="inlineStr"/>
+      <c r="IU38" t="inlineStr"/>
+      <c r="IV38" t="inlineStr"/>
+      <c r="IW38" t="inlineStr"/>
+      <c r="IX38" t="inlineStr"/>
+      <c r="IY38" t="inlineStr"/>
+      <c r="IZ38" t="inlineStr"/>
+      <c r="JA38" t="inlineStr"/>
+      <c r="JB38" t="inlineStr"/>
+      <c r="JC38" t="inlineStr"/>
+      <c r="JD38" t="inlineStr"/>
+      <c r="JE38" t="inlineStr"/>
+      <c r="JF38" t="inlineStr"/>
+      <c r="JG38" t="inlineStr"/>
+      <c r="JH38" t="inlineStr"/>
+      <c r="JI38" t="inlineStr"/>
+      <c r="JJ38" t="inlineStr"/>
+      <c r="JK38" t="inlineStr"/>
+      <c r="JL38" t="inlineStr"/>
+      <c r="JM38" t="inlineStr"/>
+      <c r="JN38" t="inlineStr"/>
+      <c r="JO38" t="inlineStr"/>
+      <c r="JP38" t="inlineStr"/>
+      <c r="JQ38" t="inlineStr"/>
+      <c r="JR38" t="inlineStr"/>
+      <c r="JS38" t="inlineStr"/>
+      <c r="JT38" t="inlineStr"/>
+      <c r="JU38" t="inlineStr"/>
+      <c r="JV38" t="inlineStr"/>
+      <c r="JW38" t="inlineStr"/>
+      <c r="JX38" t="inlineStr"/>
+      <c r="JY38" t="inlineStr"/>
+      <c r="JZ38" t="inlineStr"/>
+      <c r="KA38" t="inlineStr"/>
+      <c r="KB38" t="inlineStr"/>
+      <c r="KC38" t="inlineStr"/>
+      <c r="KD38" t="inlineStr"/>
+      <c r="KE38" t="inlineStr"/>
+      <c r="KF38" t="inlineStr"/>
+      <c r="KG38" t="inlineStr"/>
+      <c r="KH38" t="inlineStr"/>
+      <c r="KI38" t="inlineStr"/>
+      <c r="KJ38" t="inlineStr"/>
+      <c r="KK38" t="inlineStr"/>
+      <c r="KL38" t="inlineStr"/>
+      <c r="KM38" t="inlineStr"/>
+      <c r="KN38" t="inlineStr"/>
+      <c r="KO38" t="inlineStr"/>
+      <c r="KP38" t="inlineStr"/>
+      <c r="KQ38" t="inlineStr"/>
+      <c r="KR38" t="inlineStr"/>
+      <c r="KS38" t="inlineStr"/>
+      <c r="KT38" t="inlineStr"/>
+      <c r="KU38" t="inlineStr"/>
+      <c r="KV38" t="inlineStr"/>
+      <c r="KW38" t="inlineStr"/>
+      <c r="KX38" t="inlineStr"/>
+      <c r="KY38" t="inlineStr"/>
+      <c r="KZ38" t="inlineStr"/>
+      <c r="LA38" t="inlineStr"/>
+      <c r="LB38" t="inlineStr"/>
+      <c r="LC38" t="inlineStr"/>
+      <c r="LD38" t="inlineStr"/>
+      <c r="LE38" t="inlineStr"/>
+      <c r="LF38" t="inlineStr"/>
+      <c r="LG38" t="inlineStr"/>
+      <c r="LH38" t="inlineStr"/>
+      <c r="LI38" t="inlineStr"/>
+      <c r="LJ38" t="inlineStr"/>
+      <c r="LK38" t="inlineStr"/>
+      <c r="LL38" t="inlineStr"/>
+      <c r="LM38" t="inlineStr"/>
+      <c r="LN38" t="inlineStr"/>
+      <c r="LO38" t="inlineStr"/>
+      <c r="LP38" t="inlineStr"/>
+      <c r="LQ38" t="inlineStr"/>
+      <c r="LR38" t="inlineStr"/>
+      <c r="LS38" t="inlineStr"/>
+      <c r="LT38" t="inlineStr"/>
+      <c r="LU38" t="inlineStr"/>
+      <c r="LV38" t="inlineStr"/>
+      <c r="LW38" t="inlineStr"/>
+      <c r="LX38" t="inlineStr"/>
+      <c r="LY38" t="inlineStr"/>
+      <c r="LZ38" t="inlineStr"/>
+      <c r="MA38" t="inlineStr"/>
+      <c r="MB38" t="inlineStr"/>
+      <c r="MC38" t="inlineStr"/>
+      <c r="MD38" t="inlineStr"/>
+      <c r="ME38" t="n">
+        <v>-0.9699209448098519</v>
+      </c>
+      <c r="MF38" t="n">
+        <v>-0.2381428135095839</v>
+      </c>
+      <c r="MG38" t="n">
+        <v>-9.60740302774501</v>
       </c>
     </row>
   </sheetData>
